--- a/data/distancias.xlsx
+++ b/data/distancias.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Drives compartilhados\Trabalho de Formatura\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guilh\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6027765D-F54B-4489-B072-9721A4676F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BBF321E-FEE5-4858-B7B9-5EF488FB4C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="45">
   <si>
     <t>VILA AMAZÔNIA</t>
   </si>
@@ -167,6 +167,9 @@
   <si>
     <t>SANTO ANTÔNIO DO IÇÁ</t>
   </si>
+  <si>
+    <t>MANAUS</t>
+  </si>
 </sst>
 </file>
 
@@ -176,7 +179,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,7 +207,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -229,8 +232,14 @@
         <bgColor rgb="FFFF6600"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFF6600"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -303,11 +312,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -364,6 +408,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -581,15 +638,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{176CADCE-DB9D-45B5-8CF6-463F18EE14BE}">
-  <dimension ref="A1:AF32"/>
+  <dimension ref="A1:AG33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AG33" sqref="AG33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:32" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:33" ht="25.8">
       <c r="A1" s="17"/>
       <c r="B1" s="18" t="s">
         <v>26</v>
@@ -684,8 +741,11 @@
       <c r="AF1" s="20" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG1" s="26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33">
       <c r="A2" s="21" t="s">
         <v>26</v>
       </c>
@@ -782,8 +842,12 @@
       <c r="AF2" s="15">
         <v>2428.15</v>
       </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG2" s="27">
+        <f>$AG$16+Q2</f>
+        <v>2045.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33">
       <c r="A3" s="21" t="s">
         <v>27</v>
       </c>
@@ -880,8 +944,12 @@
       <c r="AF3" s="15">
         <v>2426.0500000000002</v>
       </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG3" s="27">
+        <f>$AG$16+Q3</f>
+        <v>2043.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33">
       <c r="A4" s="21" t="s">
         <v>28</v>
       </c>
@@ -978,8 +1046,12 @@
       <c r="AF4" s="15">
         <v>2374.4</v>
       </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG4" s="27">
+        <f>$AG$16+Q4</f>
+        <v>1992.15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33">
       <c r="A5" s="21" t="s">
         <v>29</v>
       </c>
@@ -1076,8 +1148,12 @@
       <c r="AF5" s="15">
         <v>2329.9</v>
       </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG5" s="27">
+        <f>$AG$16+Q5</f>
+        <v>1947.65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33">
       <c r="A6" s="21" t="s">
         <v>30</v>
       </c>
@@ -1174,8 +1250,12 @@
       <c r="AF6" s="15">
         <v>2266.4</v>
       </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG6" s="27">
+        <f>$AG$16+Q6</f>
+        <v>1884.15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33">
       <c r="A7" s="21" t="s">
         <v>31</v>
       </c>
@@ -1272,8 +1352,12 @@
       <c r="AF7" s="15">
         <v>2215.6999999999998</v>
       </c>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG7" s="27">
+        <f>$AG$16+Q7</f>
+        <v>1833.45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33">
       <c r="A8" s="21" t="s">
         <v>32</v>
       </c>
@@ -1370,8 +1454,12 @@
       <c r="AF8" s="15">
         <v>2128.85</v>
       </c>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG8" s="27">
+        <f>$AG$16+Q8</f>
+        <v>1746.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33">
       <c r="A9" s="21" t="s">
         <v>43</v>
       </c>
@@ -1468,8 +1556,12 @@
       <c r="AF9" s="15">
         <v>2076.9499999999998</v>
       </c>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG9" s="27">
+        <f>$AG$16+Q9</f>
+        <v>1694.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33">
       <c r="A10" s="21" t="s">
         <v>34</v>
       </c>
@@ -1566,8 +1658,12 @@
       <c r="AF10" s="15">
         <v>2043.35</v>
       </c>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG10" s="27">
+        <f>$AG$16+Q10</f>
+        <v>1661.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33">
       <c r="A11" s="21" t="s">
         <v>35</v>
       </c>
@@ -1664,8 +1760,12 @@
       <c r="AF11" s="15">
         <v>1903.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG11" s="27">
+        <f>$AG$16+Q11</f>
+        <v>1521.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33">
       <c r="A12" s="21" t="s">
         <v>36</v>
       </c>
@@ -1762,8 +1862,12 @@
       <c r="AF12" s="15">
         <v>1792</v>
       </c>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG12" s="27">
+        <f>$AG$16+Q12</f>
+        <v>1409.75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33">
       <c r="A13" s="21" t="s">
         <v>37</v>
       </c>
@@ -1860,8 +1964,12 @@
       <c r="AF13" s="15">
         <v>1625.8</v>
       </c>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG13" s="27">
+        <f>$AG$16+Q13</f>
+        <v>1243.55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33">
       <c r="A14" s="21" t="s">
         <v>38</v>
       </c>
@@ -1958,8 +2066,12 @@
       <c r="AF14" s="15">
         <v>1583.2</v>
       </c>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG14" s="27">
+        <f>$AG$16+Q14</f>
+        <v>1200.95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33">
       <c r="A15" s="21" t="s">
         <v>39</v>
       </c>
@@ -2056,8 +2168,12 @@
       <c r="AF15" s="15">
         <v>1565.55</v>
       </c>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG15" s="27">
+        <f>$AG$16+Q15</f>
+        <v>1183.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33">
       <c r="A16" s="21" t="s">
         <v>40</v>
       </c>
@@ -2154,8 +2270,11 @@
       <c r="AF16" s="15">
         <v>1525.05</v>
       </c>
-    </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG16" s="28">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33">
       <c r="A17" s="21" t="s">
         <v>41</v>
       </c>
@@ -2252,8 +2371,11 @@
       <c r="AF17" s="15">
         <v>1112.5999999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG17" s="28">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33">
       <c r="A18" s="22" t="s">
         <v>6</v>
       </c>
@@ -2350,8 +2472,11 @@
       <c r="AF18" s="15">
         <v>850.8</v>
       </c>
-    </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG18" s="28">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33">
       <c r="A19" s="22" t="s">
         <v>0</v>
       </c>
@@ -2448,8 +2573,12 @@
       <c r="AF19" s="15">
         <v>1128.0999999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG19" s="27">
+        <f>$AG$18+R19</f>
+        <v>458</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33">
       <c r="A20" s="22" t="s">
         <v>1</v>
       </c>
@@ -2546,8 +2675,12 @@
       <c r="AF20" s="15">
         <v>1120.5999999999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG20" s="27">
+        <f>$AG$18+R20</f>
+        <v>450.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33">
       <c r="A21" s="22" t="s">
         <v>2</v>
       </c>
@@ -2644,8 +2777,12 @@
       <c r="AF21" s="15">
         <v>1031.5</v>
       </c>
-    </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG21" s="27">
+        <f>$AG$18+R21</f>
+        <v>399</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33">
       <c r="A22" s="22" t="s">
         <v>3</v>
       </c>
@@ -2742,8 +2879,12 @@
       <c r="AF22" s="15">
         <v>973.6</v>
       </c>
-    </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG22" s="27">
+        <f>$AG$18+R22</f>
+        <v>341.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33">
       <c r="A23" s="22" t="s">
         <v>4</v>
       </c>
@@ -2840,8 +2981,12 @@
       <c r="AF23" s="15">
         <v>902.6</v>
       </c>
-    </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG23" s="27">
+        <f>$AG$18+R23</f>
+        <v>232.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33">
       <c r="A24" s="22" t="s">
         <v>5</v>
       </c>
@@ -2938,8 +3083,12 @@
       <c r="AF24" s="15">
         <v>865</v>
       </c>
-    </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG24" s="27">
+        <f>$AG$18+R24</f>
+        <v>194.9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33">
       <c r="A25" s="23" t="s">
         <v>7</v>
       </c>
@@ -3036,8 +3185,12 @@
       <c r="AF25" s="15">
         <v>763</v>
       </c>
-    </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG25" s="27">
+        <f>$AG$18+R25</f>
+        <v>209.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33">
       <c r="A26" s="23" t="s">
         <v>8</v>
       </c>
@@ -3134,8 +3287,12 @@
       <c r="AF26" s="15">
         <v>736.1</v>
       </c>
-    </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG26" s="27">
+        <f>$AG$18+R26</f>
+        <v>236.7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33">
       <c r="A27" s="23" t="s">
         <v>9</v>
       </c>
@@ -3232,8 +3389,12 @@
       <c r="AF27" s="15">
         <v>699.1</v>
       </c>
-    </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG27" s="27">
+        <f>$AG$18+R27</f>
+        <v>273.7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33">
       <c r="A28" s="23" t="s">
         <v>10</v>
       </c>
@@ -3330,8 +3491,12 @@
       <c r="AF28" s="15">
         <v>648</v>
       </c>
-    </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG28" s="27">
+        <f>$AG$18+R28</f>
+        <v>324.8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33">
       <c r="A29" s="23" t="s">
         <v>11</v>
       </c>
@@ -3428,8 +3593,12 @@
       <c r="AF29" s="15">
         <v>502</v>
       </c>
-    </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG29" s="27">
+        <f>$AG$18+R29</f>
+        <v>470.8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33">
       <c r="A30" s="23" t="s">
         <v>12</v>
       </c>
@@ -3526,8 +3695,12 @@
       <c r="AF30" s="15">
         <v>355</v>
       </c>
-    </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG30" s="27">
+        <f>$AG$18+R30</f>
+        <v>617.79999999999995</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33">
       <c r="A31" s="23" t="s">
         <v>13</v>
       </c>
@@ -3624,102 +3797,239 @@
       <c r="AF31" s="15">
         <v>250</v>
       </c>
-    </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A32" s="23" t="s">
+      <c r="AG31" s="27">
+        <f>$AG$18+R31</f>
+        <v>722.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33">
+      <c r="A32" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="15">
+      <c r="B32" s="25">
         <v>2428.15</v>
       </c>
-      <c r="C32" s="15">
+      <c r="C32" s="25">
         <v>2426.0500000000002</v>
       </c>
-      <c r="D32" s="15">
+      <c r="D32" s="25">
         <v>2374.4</v>
       </c>
-      <c r="E32" s="15">
+      <c r="E32" s="25">
         <v>2329.9</v>
       </c>
-      <c r="F32" s="15">
+      <c r="F32" s="25">
         <v>2266.4</v>
       </c>
-      <c r="G32" s="15">
+      <c r="G32" s="25">
         <v>2215.6999999999998</v>
       </c>
-      <c r="H32" s="15">
+      <c r="H32" s="25">
         <v>2128.85</v>
       </c>
-      <c r="I32" s="15">
+      <c r="I32" s="25">
         <v>2076.9499999999998</v>
       </c>
-      <c r="J32" s="15">
+      <c r="J32" s="25">
         <v>2043.35</v>
       </c>
-      <c r="K32" s="15">
+      <c r="K32" s="25">
         <v>1903.5</v>
       </c>
-      <c r="L32" s="15">
+      <c r="L32" s="25">
         <v>1792</v>
       </c>
-      <c r="M32" s="15">
+      <c r="M32" s="25">
         <v>1625.8</v>
       </c>
-      <c r="N32" s="15">
+      <c r="N32" s="25">
         <v>1583.2</v>
       </c>
-      <c r="O32" s="15">
+      <c r="O32" s="25">
         <v>1565.55</v>
       </c>
-      <c r="P32" s="15">
+      <c r="P32" s="25">
         <v>1525.05</v>
       </c>
-      <c r="Q32" s="15">
+      <c r="Q32" s="25">
         <v>1112.5999999999999</v>
       </c>
-      <c r="R32" s="15">
+      <c r="R32" s="25">
         <v>850.8</v>
       </c>
-      <c r="S32" s="15">
+      <c r="S32" s="25">
         <v>1128.0999999999999</v>
       </c>
-      <c r="T32" s="15">
+      <c r="T32" s="25">
         <v>1120.5999999999999</v>
       </c>
-      <c r="U32" s="15">
+      <c r="U32" s="25">
         <v>1031.5</v>
       </c>
-      <c r="V32" s="15">
+      <c r="V32" s="25">
         <v>973.6</v>
       </c>
-      <c r="W32" s="15">
+      <c r="W32" s="25">
         <v>902.6</v>
       </c>
-      <c r="X32" s="15">
+      <c r="X32" s="25">
         <v>865</v>
       </c>
-      <c r="Y32" s="15">
+      <c r="Y32" s="25">
         <v>763</v>
       </c>
-      <c r="Z32" s="15">
+      <c r="Z32" s="25">
         <v>736.1</v>
       </c>
-      <c r="AA32" s="15">
+      <c r="AA32" s="25">
         <v>699.1</v>
       </c>
-      <c r="AB32" s="15">
+      <c r="AB32" s="25">
         <v>648</v>
       </c>
-      <c r="AC32" s="15">
+      <c r="AC32" s="25">
         <v>502</v>
       </c>
-      <c r="AD32" s="15">
+      <c r="AD32" s="25">
         <v>355</v>
       </c>
-      <c r="AE32" s="15">
+      <c r="AE32" s="25">
         <v>250</v>
       </c>
-      <c r="AF32" s="15">
+      <c r="AF32" s="25">
+        <v>0</v>
+      </c>
+      <c r="AG32" s="27">
+        <f>$AG$18+R32</f>
+        <v>972.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33">
+      <c r="A33" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="27">
+        <f t="shared" ref="B33:N33" si="0">$P$33+B17</f>
+        <v>2045.9</v>
+      </c>
+      <c r="C33" s="27">
+        <f t="shared" si="0"/>
+        <v>2043.8</v>
+      </c>
+      <c r="D33" s="27">
+        <f t="shared" si="0"/>
+        <v>1992.15</v>
+      </c>
+      <c r="E33" s="27">
+        <f t="shared" si="0"/>
+        <v>1947.65</v>
+      </c>
+      <c r="F33" s="27">
+        <f t="shared" si="0"/>
+        <v>1884.15</v>
+      </c>
+      <c r="G33" s="27">
+        <f t="shared" si="0"/>
+        <v>1833.45</v>
+      </c>
+      <c r="H33" s="27">
+        <f t="shared" si="0"/>
+        <v>1746.6</v>
+      </c>
+      <c r="I33" s="27">
+        <f t="shared" si="0"/>
+        <v>1694.7</v>
+      </c>
+      <c r="J33" s="27">
+        <f t="shared" si="0"/>
+        <v>1661.1</v>
+      </c>
+      <c r="K33" s="27">
+        <f t="shared" si="0"/>
+        <v>1521.25</v>
+      </c>
+      <c r="L33" s="27">
+        <f t="shared" si="0"/>
+        <v>1409.75</v>
+      </c>
+      <c r="M33" s="27">
+        <f t="shared" si="0"/>
+        <v>1243.55</v>
+      </c>
+      <c r="N33" s="27">
+        <f t="shared" si="0"/>
+        <v>1200.95</v>
+      </c>
+      <c r="O33" s="27">
+        <f>$P$33+O17</f>
+        <v>1183.3</v>
+      </c>
+      <c r="P33" s="28">
+        <v>596</v>
+      </c>
+      <c r="Q33" s="28">
+        <v>181</v>
+      </c>
+      <c r="R33" s="28">
+        <v>122</v>
+      </c>
+      <c r="S33" s="27">
+        <f>$R$33+S18</f>
+        <v>458</v>
+      </c>
+      <c r="T33" s="27">
+        <f t="shared" ref="T33:AF33" si="1">$R$33+T18</f>
+        <v>450.5</v>
+      </c>
+      <c r="U33" s="27">
+        <f t="shared" si="1"/>
+        <v>399</v>
+      </c>
+      <c r="V33" s="27">
+        <f t="shared" si="1"/>
+        <v>341.1</v>
+      </c>
+      <c r="W33" s="27">
+        <f t="shared" si="1"/>
+        <v>232.5</v>
+      </c>
+      <c r="X33" s="27">
+        <f t="shared" si="1"/>
+        <v>194.9</v>
+      </c>
+      <c r="Y33" s="27">
+        <f t="shared" si="1"/>
+        <v>209.8</v>
+      </c>
+      <c r="Z33" s="27">
+        <f t="shared" si="1"/>
+        <v>236.7</v>
+      </c>
+      <c r="AA33" s="27">
+        <f t="shared" si="1"/>
+        <v>273.7</v>
+      </c>
+      <c r="AB33" s="27">
+        <f t="shared" si="1"/>
+        <v>324.8</v>
+      </c>
+      <c r="AC33" s="27">
+        <f t="shared" si="1"/>
+        <v>470.8</v>
+      </c>
+      <c r="AD33" s="27">
+        <f t="shared" si="1"/>
+        <v>617.79999999999995</v>
+      </c>
+      <c r="AE33" s="27">
+        <f t="shared" si="1"/>
+        <v>722.8</v>
+      </c>
+      <c r="AF33" s="27">
+        <f t="shared" si="1"/>
+        <v>972.8</v>
+      </c>
+      <c r="AG33" s="27">
         <v>0</v>
       </c>
     </row>
@@ -3732,11 +4042,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="22.44140625" customWidth="1"/>
     <col min="2" max="2" width="9.33203125" customWidth="1"/>
@@ -3759,7 +4069,7 @@
     <col min="19" max="32" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" ht="24">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3823,7 +4133,7 @@
       <c r="AE1" s="5"/>
       <c r="AF1" s="5"/>
     </row>
-    <row r="2" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" ht="21" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -3902,7 +4212,7 @@
       <c r="AE2" s="5"/>
       <c r="AF2" s="5"/>
     </row>
-    <row r="3" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" ht="21" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -3979,7 +4289,7 @@
       <c r="AE3" s="5"/>
       <c r="AF3" s="5"/>
     </row>
-    <row r="4" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" ht="21" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -4056,7 +4366,7 @@
       <c r="AE4" s="5"/>
       <c r="AF4" s="5"/>
     </row>
-    <row r="5" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" ht="21" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -4132,7 +4442,7 @@
       <c r="AE5" s="5"/>
       <c r="AF5" s="5"/>
     </row>
-    <row r="6" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" ht="21" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -4207,7 +4517,7 @@
       <c r="AE6" s="5"/>
       <c r="AF6" s="5"/>
     </row>
-    <row r="7" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32" ht="21" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
@@ -4280,7 +4590,7 @@
       <c r="AE7" s="5"/>
       <c r="AF7" s="5"/>
     </row>
-    <row r="8" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:32" ht="21" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -4353,7 +4663,7 @@
       <c r="AE8" s="5"/>
       <c r="AF8" s="5"/>
     </row>
-    <row r="9" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32" ht="21" customHeight="1">
       <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
@@ -4425,7 +4735,7 @@
       <c r="AE9" s="5"/>
       <c r="AF9" s="5"/>
     </row>
-    <row r="10" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" ht="21" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -4496,7 +4806,7 @@
       <c r="AE10" s="5"/>
       <c r="AF10" s="5"/>
     </row>
-    <row r="11" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32" ht="21" customHeight="1">
       <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
@@ -4566,7 +4876,7 @@
       <c r="AE11" s="5"/>
       <c r="AF11" s="5"/>
     </row>
-    <row r="12" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32" ht="21" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
@@ -4635,7 +4945,7 @@
       <c r="AE12" s="5"/>
       <c r="AF12" s="5"/>
     </row>
-    <row r="13" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32" ht="21" customHeight="1">
       <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
@@ -4703,7 +5013,7 @@
       <c r="AE13" s="5"/>
       <c r="AF13" s="5"/>
     </row>
-    <row r="14" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" ht="21" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
@@ -4770,7 +5080,7 @@
       <c r="AE14" s="5"/>
       <c r="AF14" s="5"/>
     </row>
-    <row r="15" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32" ht="21" customHeight="1">
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
@@ -4836,7 +5146,7 @@
       <c r="AE15" s="5"/>
       <c r="AF15" s="5"/>
     </row>
-    <row r="16" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32" ht="21" customHeight="1">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
@@ -4902,7 +5212,7 @@
       <c r="AE16" s="5"/>
       <c r="AF16" s="5"/>
     </row>
-    <row r="17" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:32" ht="14.4">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -4936,7 +5246,7 @@
       <c r="AE17" s="5"/>
       <c r="AF17" s="5"/>
     </row>
-    <row r="18" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:32" ht="14.4">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -4976,7 +5286,7 @@
       <c r="AE18" s="5"/>
       <c r="AF18" s="5"/>
     </row>
-    <row r="19" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:32" ht="14.4">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -5016,7 +5326,7 @@
       <c r="AE19" s="5"/>
       <c r="AF19" s="5"/>
     </row>
-    <row r="20" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:32" ht="14.4">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -5060,7 +5370,7 @@
       <c r="AE20" s="5"/>
       <c r="AF20" s="5"/>
     </row>
-    <row r="21" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:32" ht="15.75" customHeight="1">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -5101,7 +5411,7 @@
       <c r="AE21" s="5"/>
       <c r="AF21" s="5"/>
     </row>
-    <row r="22" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:32" ht="15.75" customHeight="1">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -5148,7 +5458,7 @@
       <c r="AE22" s="5"/>
       <c r="AF22" s="5"/>
     </row>
-    <row r="23" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:32" ht="15.75" customHeight="1">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -5182,7 +5492,7 @@
       <c r="AE23" s="5"/>
       <c r="AF23" s="5"/>
     </row>
-    <row r="24" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:32" ht="15.75" customHeight="1">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -5222,7 +5532,7 @@
       <c r="AE24" s="5"/>
       <c r="AF24" s="5"/>
     </row>
-    <row r="25" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:32" ht="15.75" customHeight="1">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -5263,7 +5573,7 @@
       <c r="AE25" s="5"/>
       <c r="AF25" s="5"/>
     </row>
-    <row r="26" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:32" ht="15.75" customHeight="1">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -5297,7 +5607,7 @@
       <c r="AE26" s="5"/>
       <c r="AF26" s="5"/>
     </row>
-    <row r="27" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:32" ht="15.75" customHeight="1">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -5337,7 +5647,7 @@
       <c r="AE27" s="5"/>
       <c r="AF27" s="5"/>
     </row>
-    <row r="28" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:32" ht="15.75" customHeight="1">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -5377,7 +5687,7 @@
       <c r="AE28" s="5"/>
       <c r="AF28" s="5"/>
     </row>
-    <row r="29" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:32" ht="15.75" customHeight="1">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -5421,7 +5731,7 @@
       <c r="AE29" s="5"/>
       <c r="AF29" s="5"/>
     </row>
-    <row r="30" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:32" ht="15.75" customHeight="1">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -5462,7 +5772,7 @@
       <c r="AE30" s="5"/>
       <c r="AF30" s="5"/>
     </row>
-    <row r="31" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:32" ht="15.75" customHeight="1">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -5509,7 +5819,7 @@
       <c r="AE31" s="5"/>
       <c r="AF31" s="5"/>
     </row>
-    <row r="32" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:32" ht="15.75" customHeight="1">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -5543,7 +5853,7 @@
       <c r="AE32" s="5"/>
       <c r="AF32" s="5"/>
     </row>
-    <row r="33" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:32" ht="15.75" customHeight="1">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -5583,7 +5893,7 @@
       <c r="AE33" s="5"/>
       <c r="AF33" s="5"/>
     </row>
-    <row r="34" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:32" ht="15.75" customHeight="1">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -5624,7 +5934,7 @@
       <c r="AE34" s="5"/>
       <c r="AF34" s="5"/>
     </row>
-    <row r="35" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:32" ht="15.75" customHeight="1">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -5658,7 +5968,7 @@
       <c r="AE35" s="5"/>
       <c r="AF35" s="5"/>
     </row>
-    <row r="36" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:32" ht="15.75" customHeight="1">
       <c r="A36" s="12"/>
       <c r="B36" s="13" t="s">
         <v>26</v>
@@ -5726,7 +6036,7 @@
       <c r="AE36" s="5"/>
       <c r="AF36" s="5"/>
     </row>
-    <row r="37" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:32" ht="15.75" customHeight="1">
       <c r="A37" s="14" t="s">
         <v>26</v>
       </c>
@@ -5796,7 +6106,7 @@
       <c r="AE37" s="5"/>
       <c r="AF37" s="5"/>
     </row>
-    <row r="38" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:32" ht="15.75" customHeight="1">
       <c r="A38" s="16" t="s">
         <v>27</v>
       </c>
@@ -5866,7 +6176,7 @@
       <c r="AE38" s="5"/>
       <c r="AF38" s="5"/>
     </row>
-    <row r="39" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:32" ht="15.75" customHeight="1">
       <c r="A39" s="16" t="s">
         <v>28</v>
       </c>
@@ -5936,7 +6246,7 @@
       <c r="AE39" s="5"/>
       <c r="AF39" s="5"/>
     </row>
-    <row r="40" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:32" ht="15.75" customHeight="1">
       <c r="A40" s="16" t="s">
         <v>29</v>
       </c>
@@ -6006,7 +6316,7 @@
       <c r="AE40" s="5"/>
       <c r="AF40" s="5"/>
     </row>
-    <row r="41" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:32" ht="15.75" customHeight="1">
       <c r="A41" s="16" t="s">
         <v>30</v>
       </c>
@@ -6076,7 +6386,7 @@
       <c r="AE41" s="5"/>
       <c r="AF41" s="5"/>
     </row>
-    <row r="42" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:32" ht="15.75" customHeight="1">
       <c r="A42" s="16" t="s">
         <v>31</v>
       </c>
@@ -6146,7 +6456,7 @@
       <c r="AE42" s="5"/>
       <c r="AF42" s="5"/>
     </row>
-    <row r="43" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:32" ht="15.75" customHeight="1">
       <c r="A43" s="16" t="s">
         <v>32</v>
       </c>
@@ -6216,7 +6526,7 @@
       <c r="AE43" s="5"/>
       <c r="AF43" s="5"/>
     </row>
-    <row r="44" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:32" ht="15.75" customHeight="1">
       <c r="A44" s="16" t="s">
         <v>33</v>
       </c>
@@ -6286,7 +6596,7 @@
       <c r="AE44" s="5"/>
       <c r="AF44" s="5"/>
     </row>
-    <row r="45" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:32" ht="15.75" customHeight="1">
       <c r="A45" s="16" t="s">
         <v>34</v>
       </c>
@@ -6356,7 +6666,7 @@
       <c r="AE45" s="5"/>
       <c r="AF45" s="5"/>
     </row>
-    <row r="46" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:32" ht="15.75" customHeight="1">
       <c r="A46" s="16" t="s">
         <v>35</v>
       </c>
@@ -6426,7 +6736,7 @@
       <c r="AE46" s="5"/>
       <c r="AF46" s="5"/>
     </row>
-    <row r="47" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:32" ht="15.75" customHeight="1">
       <c r="A47" s="16" t="s">
         <v>36</v>
       </c>
@@ -6496,7 +6806,7 @@
       <c r="AE47" s="5"/>
       <c r="AF47" s="5"/>
     </row>
-    <row r="48" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:32" ht="15.75" customHeight="1">
       <c r="A48" s="16" t="s">
         <v>37</v>
       </c>
@@ -6566,7 +6876,7 @@
       <c r="AE48" s="5"/>
       <c r="AF48" s="5"/>
     </row>
-    <row r="49" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:32" ht="15.75" customHeight="1">
       <c r="A49" s="16" t="s">
         <v>38</v>
       </c>
@@ -6636,7 +6946,7 @@
       <c r="AE49" s="5"/>
       <c r="AF49" s="5"/>
     </row>
-    <row r="50" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:32" ht="15.75" customHeight="1">
       <c r="A50" s="16" t="s">
         <v>39</v>
       </c>
@@ -6706,7 +7016,7 @@
       <c r="AE50" s="5"/>
       <c r="AF50" s="5"/>
     </row>
-    <row r="51" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:32" ht="15.75" customHeight="1">
       <c r="A51" s="16" t="s">
         <v>40</v>
       </c>
@@ -6776,7 +7086,7 @@
       <c r="AE51" s="5"/>
       <c r="AF51" s="5"/>
     </row>
-    <row r="52" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:32" ht="15.75" customHeight="1">
       <c r="A52" s="16" t="s">
         <v>41</v>
       </c>
@@ -6846,7 +7156,7 @@
       <c r="AE52" s="5"/>
       <c r="AF52" s="5"/>
     </row>
-    <row r="53" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:32" ht="15.75" customHeight="1">
       <c r="A53" s="16" t="s">
         <v>6</v>
       </c>
@@ -6916,7 +7226,7 @@
       <c r="AE53" s="5"/>
       <c r="AF53" s="5"/>
     </row>
-    <row r="54" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:32" ht="15.75" customHeight="1">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -6950,7 +7260,7 @@
       <c r="AE54" s="5"/>
       <c r="AF54" s="5"/>
     </row>
-    <row r="55" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:32" ht="15.75" customHeight="1">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -6984,7 +7294,7 @@
       <c r="AE55" s="5"/>
       <c r="AF55" s="5"/>
     </row>
-    <row r="56" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:32" ht="15.75" customHeight="1">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -7018,7 +7328,7 @@
       <c r="AE56" s="5"/>
       <c r="AF56" s="5"/>
     </row>
-    <row r="57" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:32" ht="15.75" customHeight="1">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -7052,7 +7362,7 @@
       <c r="AE57" s="5"/>
       <c r="AF57" s="5"/>
     </row>
-    <row r="58" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:32" ht="15.75" customHeight="1">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -7086,7 +7396,7 @@
       <c r="AE58" s="5"/>
       <c r="AF58" s="5"/>
     </row>
-    <row r="59" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:32" ht="15.75" customHeight="1">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -7120,39 +7430,39 @@
       <c r="AE59" s="5"/>
       <c r="AF59" s="5"/>
     </row>
-    <row r="60" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="81" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="82" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="83" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="84" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="85" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="86" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="87" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="88" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="89" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="90" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="91" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="92" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:32" ht="15.75" customHeight="1"/>
+    <row r="61" spans="1:32" ht="15.75" customHeight="1"/>
+    <row r="62" spans="1:32" ht="15.75" customHeight="1"/>
+    <row r="63" spans="1:32" ht="15.75" customHeight="1"/>
+    <row r="64" spans="1:32" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" spans="1:32" ht="15.75" customHeight="1"/>
+    <row r="82" spans="1:32" ht="15.75" customHeight="1"/>
+    <row r="83" spans="1:32" ht="15.75" customHeight="1"/>
+    <row r="84" spans="1:32" ht="15.75" customHeight="1"/>
+    <row r="85" spans="1:32" ht="15.75" customHeight="1"/>
+    <row r="86" spans="1:32" ht="15.75" customHeight="1"/>
+    <row r="87" spans="1:32" ht="15.75" customHeight="1"/>
+    <row r="88" spans="1:32" ht="15.75" customHeight="1"/>
+    <row r="89" spans="1:32" ht="15.75" customHeight="1"/>
+    <row r="90" spans="1:32" ht="15.75" customHeight="1"/>
+    <row r="91" spans="1:32" ht="15.75" customHeight="1"/>
+    <row r="92" spans="1:32" ht="15.75" customHeight="1">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
@@ -7186,7 +7496,7 @@
       <c r="AE92" s="5"/>
       <c r="AF92" s="5"/>
     </row>
-    <row r="93" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:32" ht="15.75" customHeight="1">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -7220,7 +7530,7 @@
       <c r="AE93" s="5"/>
       <c r="AF93" s="5"/>
     </row>
-    <row r="94" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:32" ht="15.75" customHeight="1">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -7254,7 +7564,7 @@
       <c r="AE94" s="5"/>
       <c r="AF94" s="5"/>
     </row>
-    <row r="95" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:32" ht="15.75" customHeight="1">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -7288,7 +7598,7 @@
       <c r="AE95" s="5"/>
       <c r="AF95" s="5"/>
     </row>
-    <row r="96" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:32" ht="15.75" customHeight="1">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -7322,7 +7632,7 @@
       <c r="AE96" s="5"/>
       <c r="AF96" s="5"/>
     </row>
-    <row r="97" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:32" ht="15.75" customHeight="1">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -7356,7 +7666,7 @@
       <c r="AE97" s="5"/>
       <c r="AF97" s="5"/>
     </row>
-    <row r="98" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:32" ht="15.75" customHeight="1">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -7390,7 +7700,7 @@
       <c r="AE98" s="5"/>
       <c r="AF98" s="5"/>
     </row>
-    <row r="99" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:32" ht="15.75" customHeight="1">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -7424,7 +7734,7 @@
       <c r="AE99" s="5"/>
       <c r="AF99" s="5"/>
     </row>
-    <row r="100" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:32" ht="15.75" customHeight="1">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -7458,7 +7768,7 @@
       <c r="AE100" s="5"/>
       <c r="AF100" s="5"/>
     </row>
-    <row r="101" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:32" ht="15.75" customHeight="1">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -7492,7 +7802,7 @@
       <c r="AE101" s="5"/>
       <c r="AF101" s="5"/>
     </row>
-    <row r="102" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:32" ht="15.75" customHeight="1">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -7526,7 +7836,7 @@
       <c r="AE102" s="5"/>
       <c r="AF102" s="5"/>
     </row>
-    <row r="103" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:32" ht="15.75" customHeight="1">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -7560,7 +7870,7 @@
       <c r="AE103" s="5"/>
       <c r="AF103" s="5"/>
     </row>
-    <row r="104" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:32" ht="15.75" customHeight="1">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -7594,7 +7904,7 @@
       <c r="AE104" s="5"/>
       <c r="AF104" s="5"/>
     </row>
-    <row r="105" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:32" ht="15.75" customHeight="1">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -7628,7 +7938,7 @@
       <c r="AE105" s="5"/>
       <c r="AF105" s="5"/>
     </row>
-    <row r="106" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:32" ht="15.75" customHeight="1">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -7662,7 +7972,7 @@
       <c r="AE106" s="5"/>
       <c r="AF106" s="5"/>
     </row>
-    <row r="107" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:32" ht="15.75" customHeight="1">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -7696,7 +8006,7 @@
       <c r="AE107" s="5"/>
       <c r="AF107" s="5"/>
     </row>
-    <row r="108" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:32" ht="15.75" customHeight="1">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -7730,7 +8040,7 @@
       <c r="AE108" s="5"/>
       <c r="AF108" s="5"/>
     </row>
-    <row r="109" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:32" ht="15.75" customHeight="1">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -7764,7 +8074,7 @@
       <c r="AE109" s="5"/>
       <c r="AF109" s="5"/>
     </row>
-    <row r="110" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:32" ht="15.75" customHeight="1">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -7798,7 +8108,7 @@
       <c r="AE110" s="5"/>
       <c r="AF110" s="5"/>
     </row>
-    <row r="111" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:32" ht="15.75" customHeight="1">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -7832,7 +8142,7 @@
       <c r="AE111" s="5"/>
       <c r="AF111" s="5"/>
     </row>
-    <row r="112" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:32" ht="15.75" customHeight="1">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -7866,7 +8176,7 @@
       <c r="AE112" s="5"/>
       <c r="AF112" s="5"/>
     </row>
-    <row r="113" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:32" ht="15.75" customHeight="1">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -7900,7 +8210,7 @@
       <c r="AE113" s="5"/>
       <c r="AF113" s="5"/>
     </row>
-    <row r="114" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:32" ht="15.75" customHeight="1">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -7934,7 +8244,7 @@
       <c r="AE114" s="5"/>
       <c r="AF114" s="5"/>
     </row>
-    <row r="115" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:32" ht="15.75" customHeight="1">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -7968,7 +8278,7 @@
       <c r="AE115" s="5"/>
       <c r="AF115" s="5"/>
     </row>
-    <row r="116" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:32" ht="15.75" customHeight="1">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -8002,7 +8312,7 @@
       <c r="AE116" s="5"/>
       <c r="AF116" s="5"/>
     </row>
-    <row r="117" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:32" ht="15.75" customHeight="1">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -8036,7 +8346,7 @@
       <c r="AE117" s="5"/>
       <c r="AF117" s="5"/>
     </row>
-    <row r="118" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:32" ht="15.75" customHeight="1">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -8070,7 +8380,7 @@
       <c r="AE118" s="5"/>
       <c r="AF118" s="5"/>
     </row>
-    <row r="119" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:32" ht="15.75" customHeight="1">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -8104,7 +8414,7 @@
       <c r="AE119" s="5"/>
       <c r="AF119" s="5"/>
     </row>
-    <row r="120" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:32" ht="15.75" customHeight="1">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -8138,7 +8448,7 @@
       <c r="AE120" s="5"/>
       <c r="AF120" s="5"/>
     </row>
-    <row r="121" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:32" ht="15.75" customHeight="1">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -8172,7 +8482,7 @@
       <c r="AE121" s="5"/>
       <c r="AF121" s="5"/>
     </row>
-    <row r="122" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:32" ht="15.75" customHeight="1">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -8206,7 +8516,7 @@
       <c r="AE122" s="5"/>
       <c r="AF122" s="5"/>
     </row>
-    <row r="123" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:32" ht="15.75" customHeight="1">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -8240,7 +8550,7 @@
       <c r="AE123" s="5"/>
       <c r="AF123" s="5"/>
     </row>
-    <row r="124" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:32" ht="15.75" customHeight="1">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
@@ -8274,7 +8584,7 @@
       <c r="AE124" s="5"/>
       <c r="AF124" s="5"/>
     </row>
-    <row r="125" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:32" ht="15.75" customHeight="1">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
@@ -8308,7 +8618,7 @@
       <c r="AE125" s="5"/>
       <c r="AF125" s="5"/>
     </row>
-    <row r="126" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:32" ht="15.75" customHeight="1">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -8342,7 +8652,7 @@
       <c r="AE126" s="5"/>
       <c r="AF126" s="5"/>
     </row>
-    <row r="127" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:32" ht="15.75" customHeight="1">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
@@ -8376,7 +8686,7 @@
       <c r="AE127" s="5"/>
       <c r="AF127" s="5"/>
     </row>
-    <row r="128" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:32" ht="15.75" customHeight="1">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -8410,7 +8720,7 @@
       <c r="AE128" s="5"/>
       <c r="AF128" s="5"/>
     </row>
-    <row r="129" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:32" ht="15.75" customHeight="1">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
@@ -8444,7 +8754,7 @@
       <c r="AE129" s="5"/>
       <c r="AF129" s="5"/>
     </row>
-    <row r="130" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:32" ht="15.75" customHeight="1">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -8478,7 +8788,7 @@
       <c r="AE130" s="5"/>
       <c r="AF130" s="5"/>
     </row>
-    <row r="131" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:32" ht="15.75" customHeight="1">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
@@ -8512,7 +8822,7 @@
       <c r="AE131" s="5"/>
       <c r="AF131" s="5"/>
     </row>
-    <row r="132" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:32" ht="15.75" customHeight="1">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
@@ -8546,7 +8856,7 @@
       <c r="AE132" s="5"/>
       <c r="AF132" s="5"/>
     </row>
-    <row r="133" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:32" ht="15.75" customHeight="1">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
@@ -8580,7 +8890,7 @@
       <c r="AE133" s="5"/>
       <c r="AF133" s="5"/>
     </row>
-    <row r="134" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:32" ht="15.75" customHeight="1">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
@@ -8614,7 +8924,7 @@
       <c r="AE134" s="5"/>
       <c r="AF134" s="5"/>
     </row>
-    <row r="135" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:32" ht="15.75" customHeight="1">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -8648,7 +8958,7 @@
       <c r="AE135" s="5"/>
       <c r="AF135" s="5"/>
     </row>
-    <row r="136" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:32" ht="15.75" customHeight="1">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -8682,7 +8992,7 @@
       <c r="AE136" s="5"/>
       <c r="AF136" s="5"/>
     </row>
-    <row r="137" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:32" ht="15.75" customHeight="1">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
@@ -8716,7 +9026,7 @@
       <c r="AE137" s="5"/>
       <c r="AF137" s="5"/>
     </row>
-    <row r="138" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:32" ht="15.75" customHeight="1">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
@@ -8750,7 +9060,7 @@
       <c r="AE138" s="5"/>
       <c r="AF138" s="5"/>
     </row>
-    <row r="139" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:32" ht="15.75" customHeight="1">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
@@ -8784,7 +9094,7 @@
       <c r="AE139" s="5"/>
       <c r="AF139" s="5"/>
     </row>
-    <row r="140" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:32" ht="15.75" customHeight="1">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -8818,7 +9128,7 @@
       <c r="AE140" s="5"/>
       <c r="AF140" s="5"/>
     </row>
-    <row r="141" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:32" ht="15.75" customHeight="1">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -8852,7 +9162,7 @@
       <c r="AE141" s="5"/>
       <c r="AF141" s="5"/>
     </row>
-    <row r="142" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:32" ht="15.75" customHeight="1">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -8886,7 +9196,7 @@
       <c r="AE142" s="5"/>
       <c r="AF142" s="5"/>
     </row>
-    <row r="143" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:32" ht="15.75" customHeight="1">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -8920,7 +9230,7 @@
       <c r="AE143" s="5"/>
       <c r="AF143" s="5"/>
     </row>
-    <row r="144" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:32" ht="15.75" customHeight="1">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
@@ -8954,7 +9264,7 @@
       <c r="AE144" s="5"/>
       <c r="AF144" s="5"/>
     </row>
-    <row r="145" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:32" ht="15.75" customHeight="1">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -8988,7 +9298,7 @@
       <c r="AE145" s="5"/>
       <c r="AF145" s="5"/>
     </row>
-    <row r="146" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:32" ht="15.75" customHeight="1">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -9022,7 +9332,7 @@
       <c r="AE146" s="5"/>
       <c r="AF146" s="5"/>
     </row>
-    <row r="147" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:32" ht="15.75" customHeight="1">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
@@ -9056,7 +9366,7 @@
       <c r="AE147" s="5"/>
       <c r="AF147" s="5"/>
     </row>
-    <row r="148" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:32" ht="15.75" customHeight="1">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
@@ -9090,7 +9400,7 @@
       <c r="AE148" s="5"/>
       <c r="AF148" s="5"/>
     </row>
-    <row r="149" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:32" ht="15.75" customHeight="1">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
@@ -9124,7 +9434,7 @@
       <c r="AE149" s="5"/>
       <c r="AF149" s="5"/>
     </row>
-    <row r="150" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:32" ht="15.75" customHeight="1">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -9158,7 +9468,7 @@
       <c r="AE150" s="5"/>
       <c r="AF150" s="5"/>
     </row>
-    <row r="151" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:32" ht="15.75" customHeight="1">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
@@ -9192,7 +9502,7 @@
       <c r="AE151" s="5"/>
       <c r="AF151" s="5"/>
     </row>
-    <row r="152" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:32" ht="15.75" customHeight="1">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
@@ -9226,7 +9536,7 @@
       <c r="AE152" s="5"/>
       <c r="AF152" s="5"/>
     </row>
-    <row r="153" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:32" ht="15.75" customHeight="1">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
@@ -9260,7 +9570,7 @@
       <c r="AE153" s="5"/>
       <c r="AF153" s="5"/>
     </row>
-    <row r="154" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:32" ht="15.75" customHeight="1">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
@@ -9294,7 +9604,7 @@
       <c r="AE154" s="5"/>
       <c r="AF154" s="5"/>
     </row>
-    <row r="155" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:32" ht="15.75" customHeight="1">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
@@ -9328,7 +9638,7 @@
       <c r="AE155" s="5"/>
       <c r="AF155" s="5"/>
     </row>
-    <row r="156" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:32" ht="15.75" customHeight="1">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
@@ -9362,7 +9672,7 @@
       <c r="AE156" s="5"/>
       <c r="AF156" s="5"/>
     </row>
-    <row r="157" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:32" ht="15.75" customHeight="1">
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
@@ -9396,7 +9706,7 @@
       <c r="AE157" s="5"/>
       <c r="AF157" s="5"/>
     </row>
-    <row r="158" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:32" ht="15.75" customHeight="1">
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
@@ -9430,7 +9740,7 @@
       <c r="AE158" s="5"/>
       <c r="AF158" s="5"/>
     </row>
-    <row r="159" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:32" ht="15.75" customHeight="1">
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
@@ -9464,7 +9774,7 @@
       <c r="AE159" s="5"/>
       <c r="AF159" s="5"/>
     </row>
-    <row r="160" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:32" ht="15.75" customHeight="1">
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
@@ -9498,7 +9808,7 @@
       <c r="AE160" s="5"/>
       <c r="AF160" s="5"/>
     </row>
-    <row r="161" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:32" ht="15.75" customHeight="1">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
@@ -9532,7 +9842,7 @@
       <c r="AE161" s="5"/>
       <c r="AF161" s="5"/>
     </row>
-    <row r="162" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:32" ht="15.75" customHeight="1">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
@@ -9566,7 +9876,7 @@
       <c r="AE162" s="5"/>
       <c r="AF162" s="5"/>
     </row>
-    <row r="163" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:32" ht="15.75" customHeight="1">
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
@@ -9600,7 +9910,7 @@
       <c r="AE163" s="5"/>
       <c r="AF163" s="5"/>
     </row>
-    <row r="164" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:32" ht="15.75" customHeight="1">
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
@@ -9634,7 +9944,7 @@
       <c r="AE164" s="5"/>
       <c r="AF164" s="5"/>
     </row>
-    <row r="165" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:32" ht="15.75" customHeight="1">
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
@@ -9668,7 +9978,7 @@
       <c r="AE165" s="5"/>
       <c r="AF165" s="5"/>
     </row>
-    <row r="166" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:32" ht="15.75" customHeight="1">
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
@@ -9702,7 +10012,7 @@
       <c r="AE166" s="5"/>
       <c r="AF166" s="5"/>
     </row>
-    <row r="167" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:32" ht="15.75" customHeight="1">
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
@@ -9736,7 +10046,7 @@
       <c r="AE167" s="5"/>
       <c r="AF167" s="5"/>
     </row>
-    <row r="168" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:32" ht="15.75" customHeight="1">
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
@@ -9770,7 +10080,7 @@
       <c r="AE168" s="5"/>
       <c r="AF168" s="5"/>
     </row>
-    <row r="169" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:32" ht="15.75" customHeight="1">
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
@@ -9804,7 +10114,7 @@
       <c r="AE169" s="5"/>
       <c r="AF169" s="5"/>
     </row>
-    <row r="170" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:32" ht="15.75" customHeight="1">
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
@@ -9838,7 +10148,7 @@
       <c r="AE170" s="5"/>
       <c r="AF170" s="5"/>
     </row>
-    <row r="171" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:32" ht="15.75" customHeight="1">
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
@@ -9872,7 +10182,7 @@
       <c r="AE171" s="5"/>
       <c r="AF171" s="5"/>
     </row>
-    <row r="172" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:32" ht="15.75" customHeight="1">
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
@@ -9906,7 +10216,7 @@
       <c r="AE172" s="5"/>
       <c r="AF172" s="5"/>
     </row>
-    <row r="173" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:32" ht="15.75" customHeight="1">
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
@@ -9940,7 +10250,7 @@
       <c r="AE173" s="5"/>
       <c r="AF173" s="5"/>
     </row>
-    <row r="174" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:32" ht="15.75" customHeight="1">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
@@ -9974,7 +10284,7 @@
       <c r="AE174" s="5"/>
       <c r="AF174" s="5"/>
     </row>
-    <row r="175" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:32" ht="15.75" customHeight="1">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
@@ -10008,7 +10318,7 @@
       <c r="AE175" s="5"/>
       <c r="AF175" s="5"/>
     </row>
-    <row r="176" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:32" ht="15.75" customHeight="1">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
@@ -10042,7 +10352,7 @@
       <c r="AE176" s="5"/>
       <c r="AF176" s="5"/>
     </row>
-    <row r="177" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:32" ht="15.75" customHeight="1">
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
@@ -10076,7 +10386,7 @@
       <c r="AE177" s="5"/>
       <c r="AF177" s="5"/>
     </row>
-    <row r="178" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:32" ht="15.75" customHeight="1">
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
@@ -10110,7 +10420,7 @@
       <c r="AE178" s="5"/>
       <c r="AF178" s="5"/>
     </row>
-    <row r="179" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:32" ht="15.75" customHeight="1">
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
@@ -10144,7 +10454,7 @@
       <c r="AE179" s="5"/>
       <c r="AF179" s="5"/>
     </row>
-    <row r="180" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:32" ht="15.75" customHeight="1">
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
@@ -10178,7 +10488,7 @@
       <c r="AE180" s="5"/>
       <c r="AF180" s="5"/>
     </row>
-    <row r="181" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:32" ht="15.75" customHeight="1">
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
@@ -10212,7 +10522,7 @@
       <c r="AE181" s="5"/>
       <c r="AF181" s="5"/>
     </row>
-    <row r="182" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:32" ht="15.75" customHeight="1">
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
@@ -10246,7 +10556,7 @@
       <c r="AE182" s="5"/>
       <c r="AF182" s="5"/>
     </row>
-    <row r="183" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:32" ht="15.75" customHeight="1">
       <c r="A183" s="5"/>
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
@@ -10280,7 +10590,7 @@
       <c r="AE183" s="5"/>
       <c r="AF183" s="5"/>
     </row>
-    <row r="184" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:32" ht="15.75" customHeight="1">
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
@@ -10314,7 +10624,7 @@
       <c r="AE184" s="5"/>
       <c r="AF184" s="5"/>
     </row>
-    <row r="185" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:32" ht="15.75" customHeight="1">
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
@@ -10348,7 +10658,7 @@
       <c r="AE185" s="5"/>
       <c r="AF185" s="5"/>
     </row>
-    <row r="186" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:32" ht="15.75" customHeight="1">
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
@@ -10382,7 +10692,7 @@
       <c r="AE186" s="5"/>
       <c r="AF186" s="5"/>
     </row>
-    <row r="187" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:32" ht="15.75" customHeight="1">
       <c r="A187" s="5"/>
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
@@ -10416,7 +10726,7 @@
       <c r="AE187" s="5"/>
       <c r="AF187" s="5"/>
     </row>
-    <row r="188" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:32" ht="15.75" customHeight="1">
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
@@ -10450,7 +10760,7 @@
       <c r="AE188" s="5"/>
       <c r="AF188" s="5"/>
     </row>
-    <row r="189" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:32" ht="15.75" customHeight="1">
       <c r="A189" s="5"/>
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
@@ -10484,7 +10794,7 @@
       <c r="AE189" s="5"/>
       <c r="AF189" s="5"/>
     </row>
-    <row r="190" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:32" ht="15.75" customHeight="1">
       <c r="A190" s="5"/>
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
@@ -10518,7 +10828,7 @@
       <c r="AE190" s="5"/>
       <c r="AF190" s="5"/>
     </row>
-    <row r="191" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:32" ht="15.75" customHeight="1">
       <c r="A191" s="5"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
@@ -10552,7 +10862,7 @@
       <c r="AE191" s="5"/>
       <c r="AF191" s="5"/>
     </row>
-    <row r="192" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:32" ht="15.75" customHeight="1">
       <c r="A192" s="5"/>
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
@@ -10586,7 +10896,7 @@
       <c r="AE192" s="5"/>
       <c r="AF192" s="5"/>
     </row>
-    <row r="193" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:32" ht="15.75" customHeight="1">
       <c r="A193" s="5"/>
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
@@ -10620,7 +10930,7 @@
       <c r="AE193" s="5"/>
       <c r="AF193" s="5"/>
     </row>
-    <row r="194" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:32" ht="15.75" customHeight="1">
       <c r="A194" s="5"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
@@ -10654,7 +10964,7 @@
       <c r="AE194" s="5"/>
       <c r="AF194" s="5"/>
     </row>
-    <row r="195" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:32" ht="15.75" customHeight="1">
       <c r="A195" s="5"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
@@ -10688,7 +10998,7 @@
       <c r="AE195" s="5"/>
       <c r="AF195" s="5"/>
     </row>
-    <row r="196" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:32" ht="15.75" customHeight="1">
       <c r="A196" s="5"/>
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
@@ -10722,7 +11032,7 @@
       <c r="AE196" s="5"/>
       <c r="AF196" s="5"/>
     </row>
-    <row r="197" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:32" ht="15.75" customHeight="1">
       <c r="A197" s="5"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
@@ -10756,7 +11066,7 @@
       <c r="AE197" s="5"/>
       <c r="AF197" s="5"/>
     </row>
-    <row r="198" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:32" ht="15.75" customHeight="1">
       <c r="A198" s="5"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
@@ -10790,7 +11100,7 @@
       <c r="AE198" s="5"/>
       <c r="AF198" s="5"/>
     </row>
-    <row r="199" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:32" ht="15.75" customHeight="1">
       <c r="A199" s="5"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
@@ -10824,7 +11134,7 @@
       <c r="AE199" s="5"/>
       <c r="AF199" s="5"/>
     </row>
-    <row r="200" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:32" ht="15.75" customHeight="1">
       <c r="A200" s="5"/>
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
@@ -10858,7 +11168,7 @@
       <c r="AE200" s="5"/>
       <c r="AF200" s="5"/>
     </row>
-    <row r="201" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:32" ht="15.75" customHeight="1">
       <c r="A201" s="5"/>
       <c r="B201" s="5"/>
       <c r="C201" s="5"/>
@@ -10892,7 +11202,7 @@
       <c r="AE201" s="5"/>
       <c r="AF201" s="5"/>
     </row>
-    <row r="202" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:32" ht="15.75" customHeight="1">
       <c r="A202" s="5"/>
       <c r="B202" s="5"/>
       <c r="C202" s="5"/>
@@ -10926,7 +11236,7 @@
       <c r="AE202" s="5"/>
       <c r="AF202" s="5"/>
     </row>
-    <row r="203" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:32" ht="15.75" customHeight="1">
       <c r="A203" s="5"/>
       <c r="B203" s="5"/>
       <c r="C203" s="5"/>
@@ -10960,7 +11270,7 @@
       <c r="AE203" s="5"/>
       <c r="AF203" s="5"/>
     </row>
-    <row r="204" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:32" ht="15.75" customHeight="1">
       <c r="A204" s="5"/>
       <c r="B204" s="5"/>
       <c r="C204" s="5"/>
@@ -10994,7 +11304,7 @@
       <c r="AE204" s="5"/>
       <c r="AF204" s="5"/>
     </row>
-    <row r="205" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:32" ht="15.75" customHeight="1">
       <c r="A205" s="5"/>
       <c r="B205" s="5"/>
       <c r="C205" s="5"/>
@@ -11028,7 +11338,7 @@
       <c r="AE205" s="5"/>
       <c r="AF205" s="5"/>
     </row>
-    <row r="206" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:32" ht="15.75" customHeight="1">
       <c r="A206" s="5"/>
       <c r="B206" s="5"/>
       <c r="C206" s="5"/>
@@ -11062,7 +11372,7 @@
       <c r="AE206" s="5"/>
       <c r="AF206" s="5"/>
     </row>
-    <row r="207" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:32" ht="15.75" customHeight="1">
       <c r="A207" s="5"/>
       <c r="B207" s="5"/>
       <c r="C207" s="5"/>
@@ -11096,7 +11406,7 @@
       <c r="AE207" s="5"/>
       <c r="AF207" s="5"/>
     </row>
-    <row r="208" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:32" ht="15.75" customHeight="1">
       <c r="A208" s="5"/>
       <c r="B208" s="5"/>
       <c r="C208" s="5"/>
@@ -11130,7 +11440,7 @@
       <c r="AE208" s="5"/>
       <c r="AF208" s="5"/>
     </row>
-    <row r="209" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:32" ht="15.75" customHeight="1">
       <c r="A209" s="5"/>
       <c r="B209" s="5"/>
       <c r="C209" s="5"/>
@@ -11164,7 +11474,7 @@
       <c r="AE209" s="5"/>
       <c r="AF209" s="5"/>
     </row>
-    <row r="210" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:32" ht="15.75" customHeight="1">
       <c r="A210" s="5"/>
       <c r="B210" s="5"/>
       <c r="C210" s="5"/>
@@ -11198,7 +11508,7 @@
       <c r="AE210" s="5"/>
       <c r="AF210" s="5"/>
     </row>
-    <row r="211" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:32" ht="15.75" customHeight="1">
       <c r="A211" s="5"/>
       <c r="B211" s="5"/>
       <c r="C211" s="5"/>
@@ -11232,7 +11542,7 @@
       <c r="AE211" s="5"/>
       <c r="AF211" s="5"/>
     </row>
-    <row r="212" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:32" ht="15.75" customHeight="1">
       <c r="A212" s="5"/>
       <c r="B212" s="5"/>
       <c r="C212" s="5"/>
@@ -11266,7 +11576,7 @@
       <c r="AE212" s="5"/>
       <c r="AF212" s="5"/>
     </row>
-    <row r="213" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:32" ht="15.75" customHeight="1">
       <c r="A213" s="5"/>
       <c r="B213" s="5"/>
       <c r="C213" s="5"/>
@@ -11300,7 +11610,7 @@
       <c r="AE213" s="5"/>
       <c r="AF213" s="5"/>
     </row>
-    <row r="214" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:32" ht="15.75" customHeight="1">
       <c r="A214" s="5"/>
       <c r="B214" s="5"/>
       <c r="C214" s="5"/>
@@ -11334,7 +11644,7 @@
       <c r="AE214" s="5"/>
       <c r="AF214" s="5"/>
     </row>
-    <row r="215" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:32" ht="15.75" customHeight="1">
       <c r="A215" s="5"/>
       <c r="B215" s="5"/>
       <c r="C215" s="5"/>
@@ -11368,7 +11678,7 @@
       <c r="AE215" s="5"/>
       <c r="AF215" s="5"/>
     </row>
-    <row r="216" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:32" ht="15.75" customHeight="1">
       <c r="A216" s="5"/>
       <c r="B216" s="5"/>
       <c r="C216" s="5"/>
@@ -11402,7 +11712,7 @@
       <c r="AE216" s="5"/>
       <c r="AF216" s="5"/>
     </row>
-    <row r="217" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:32" ht="15.75" customHeight="1">
       <c r="A217" s="5"/>
       <c r="B217" s="5"/>
       <c r="C217" s="5"/>
@@ -11436,7 +11746,7 @@
       <c r="AE217" s="5"/>
       <c r="AF217" s="5"/>
     </row>
-    <row r="218" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:32" ht="15.75" customHeight="1">
       <c r="A218" s="5"/>
       <c r="B218" s="5"/>
       <c r="C218" s="5"/>
@@ -11470,7 +11780,7 @@
       <c r="AE218" s="5"/>
       <c r="AF218" s="5"/>
     </row>
-    <row r="219" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:32" ht="15.75" customHeight="1">
       <c r="A219" s="5"/>
       <c r="B219" s="5"/>
       <c r="C219" s="5"/>
@@ -11504,7 +11814,7 @@
       <c r="AE219" s="5"/>
       <c r="AF219" s="5"/>
     </row>
-    <row r="220" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:32" ht="15.75" customHeight="1">
       <c r="A220" s="5"/>
       <c r="B220" s="5"/>
       <c r="C220" s="5"/>
@@ -11538,7 +11848,7 @@
       <c r="AE220" s="5"/>
       <c r="AF220" s="5"/>
     </row>
-    <row r="221" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:32" ht="15.75" customHeight="1">
       <c r="A221" s="5"/>
       <c r="B221" s="5"/>
       <c r="C221" s="5"/>
@@ -11572,7 +11882,7 @@
       <c r="AE221" s="5"/>
       <c r="AF221" s="5"/>
     </row>
-    <row r="222" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:32" ht="15.75" customHeight="1">
       <c r="A222" s="5"/>
       <c r="B222" s="5"/>
       <c r="C222" s="5"/>
@@ -11606,7 +11916,7 @@
       <c r="AE222" s="5"/>
       <c r="AF222" s="5"/>
     </row>
-    <row r="223" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:32" ht="15.75" customHeight="1">
       <c r="A223" s="5"/>
       <c r="B223" s="5"/>
       <c r="C223" s="5"/>
@@ -11640,7 +11950,7 @@
       <c r="AE223" s="5"/>
       <c r="AF223" s="5"/>
     </row>
-    <row r="224" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:32" ht="15.75" customHeight="1">
       <c r="A224" s="5"/>
       <c r="B224" s="5"/>
       <c r="C224" s="5"/>
@@ -11674,7 +11984,7 @@
       <c r="AE224" s="5"/>
       <c r="AF224" s="5"/>
     </row>
-    <row r="225" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:32" ht="15.75" customHeight="1">
       <c r="A225" s="5"/>
       <c r="B225" s="5"/>
       <c r="C225" s="5"/>
@@ -11708,7 +12018,7 @@
       <c r="AE225" s="5"/>
       <c r="AF225" s="5"/>
     </row>
-    <row r="226" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:32" ht="15.75" customHeight="1">
       <c r="A226" s="5"/>
       <c r="B226" s="5"/>
       <c r="C226" s="5"/>
@@ -11742,7 +12052,7 @@
       <c r="AE226" s="5"/>
       <c r="AF226" s="5"/>
     </row>
-    <row r="227" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:32" ht="15.75" customHeight="1">
       <c r="A227" s="5"/>
       <c r="B227" s="5"/>
       <c r="C227" s="5"/>
@@ -11776,7 +12086,7 @@
       <c r="AE227" s="5"/>
       <c r="AF227" s="5"/>
     </row>
-    <row r="228" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:32" ht="15.75" customHeight="1">
       <c r="A228" s="5"/>
       <c r="B228" s="5"/>
       <c r="C228" s="5"/>
@@ -11810,7 +12120,7 @@
       <c r="AE228" s="5"/>
       <c r="AF228" s="5"/>
     </row>
-    <row r="229" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:32" ht="15.75" customHeight="1">
       <c r="A229" s="5"/>
       <c r="B229" s="5"/>
       <c r="C229" s="5"/>
@@ -11844,7 +12154,7 @@
       <c r="AE229" s="5"/>
       <c r="AF229" s="5"/>
     </row>
-    <row r="230" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:32" ht="15.75" customHeight="1">
       <c r="A230" s="5"/>
       <c r="B230" s="5"/>
       <c r="C230" s="5"/>
@@ -11878,7 +12188,7 @@
       <c r="AE230" s="5"/>
       <c r="AF230" s="5"/>
     </row>
-    <row r="231" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:32" ht="15.75" customHeight="1">
       <c r="A231" s="5"/>
       <c r="B231" s="5"/>
       <c r="C231" s="5"/>
@@ -11912,7 +12222,7 @@
       <c r="AE231" s="5"/>
       <c r="AF231" s="5"/>
     </row>
-    <row r="232" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:32" ht="15.75" customHeight="1">
       <c r="A232" s="5"/>
       <c r="B232" s="5"/>
       <c r="C232" s="5"/>
@@ -11946,7 +12256,7 @@
       <c r="AE232" s="5"/>
       <c r="AF232" s="5"/>
     </row>
-    <row r="233" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:32" ht="15.75" customHeight="1">
       <c r="A233" s="5"/>
       <c r="B233" s="5"/>
       <c r="C233" s="5"/>
@@ -11980,7 +12290,7 @@
       <c r="AE233" s="5"/>
       <c r="AF233" s="5"/>
     </row>
-    <row r="234" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:32" ht="15.75" customHeight="1">
       <c r="A234" s="5"/>
       <c r="B234" s="5"/>
       <c r="C234" s="5"/>
@@ -12014,7 +12324,7 @@
       <c r="AE234" s="5"/>
       <c r="AF234" s="5"/>
     </row>
-    <row r="235" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:32" ht="15.75" customHeight="1">
       <c r="A235" s="5"/>
       <c r="B235" s="5"/>
       <c r="C235" s="5"/>
@@ -12048,7 +12358,7 @@
       <c r="AE235" s="5"/>
       <c r="AF235" s="5"/>
     </row>
-    <row r="236" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:32" ht="15.75" customHeight="1">
       <c r="A236" s="5"/>
       <c r="B236" s="5"/>
       <c r="C236" s="5"/>
@@ -12082,7 +12392,7 @@
       <c r="AE236" s="5"/>
       <c r="AF236" s="5"/>
     </row>
-    <row r="237" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:32" ht="15.75" customHeight="1">
       <c r="A237" s="5"/>
       <c r="B237" s="5"/>
       <c r="C237" s="5"/>
@@ -12116,7 +12426,7 @@
       <c r="AE237" s="5"/>
       <c r="AF237" s="5"/>
     </row>
-    <row r="238" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:32" ht="15.75" customHeight="1">
       <c r="A238" s="5"/>
       <c r="B238" s="5"/>
       <c r="C238" s="5"/>
@@ -12150,7 +12460,7 @@
       <c r="AE238" s="5"/>
       <c r="AF238" s="5"/>
     </row>
-    <row r="239" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:32" ht="15.75" customHeight="1">
       <c r="A239" s="5"/>
       <c r="B239" s="5"/>
       <c r="C239" s="5"/>
@@ -12184,7 +12494,7 @@
       <c r="AE239" s="5"/>
       <c r="AF239" s="5"/>
     </row>
-    <row r="240" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:32" ht="15.75" customHeight="1">
       <c r="A240" s="5"/>
       <c r="B240" s="5"/>
       <c r="C240" s="5"/>
@@ -12218,7 +12528,7 @@
       <c r="AE240" s="5"/>
       <c r="AF240" s="5"/>
     </row>
-    <row r="241" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:32" ht="15.75" customHeight="1">
       <c r="A241" s="5"/>
       <c r="B241" s="5"/>
       <c r="C241" s="5"/>
@@ -12252,7 +12562,7 @@
       <c r="AE241" s="5"/>
       <c r="AF241" s="5"/>
     </row>
-    <row r="242" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:32" ht="15.75" customHeight="1">
       <c r="A242" s="5"/>
       <c r="B242" s="5"/>
       <c r="C242" s="5"/>
@@ -12286,7 +12596,7 @@
       <c r="AE242" s="5"/>
       <c r="AF242" s="5"/>
     </row>
-    <row r="243" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:32" ht="15.75" customHeight="1">
       <c r="A243" s="5"/>
       <c r="B243" s="5"/>
       <c r="C243" s="5"/>
@@ -12320,7 +12630,7 @@
       <c r="AE243" s="5"/>
       <c r="AF243" s="5"/>
     </row>
-    <row r="244" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:32" ht="15.75" customHeight="1">
       <c r="A244" s="5"/>
       <c r="B244" s="5"/>
       <c r="C244" s="5"/>
@@ -12354,7 +12664,7 @@
       <c r="AE244" s="5"/>
       <c r="AF244" s="5"/>
     </row>
-    <row r="245" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:32" ht="15.75" customHeight="1">
       <c r="A245" s="5"/>
       <c r="B245" s="5"/>
       <c r="C245" s="5"/>
@@ -12388,7 +12698,7 @@
       <c r="AE245" s="5"/>
       <c r="AF245" s="5"/>
     </row>
-    <row r="246" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:32" ht="15.75" customHeight="1">
       <c r="A246" s="5"/>
       <c r="B246" s="5"/>
       <c r="C246" s="5"/>
@@ -12422,7 +12732,7 @@
       <c r="AE246" s="5"/>
       <c r="AF246" s="5"/>
     </row>
-    <row r="247" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:32" ht="15.75" customHeight="1">
       <c r="A247" s="5"/>
       <c r="B247" s="5"/>
       <c r="C247" s="5"/>
@@ -12456,7 +12766,7 @@
       <c r="AE247" s="5"/>
       <c r="AF247" s="5"/>
     </row>
-    <row r="248" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:32" ht="15.75" customHeight="1">
       <c r="A248" s="5"/>
       <c r="B248" s="5"/>
       <c r="C248" s="5"/>
@@ -12490,7 +12800,7 @@
       <c r="AE248" s="5"/>
       <c r="AF248" s="5"/>
     </row>
-    <row r="249" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:32" ht="15.75" customHeight="1">
       <c r="A249" s="5"/>
       <c r="B249" s="5"/>
       <c r="C249" s="5"/>
@@ -12524,7 +12834,7 @@
       <c r="AE249" s="5"/>
       <c r="AF249" s="5"/>
     </row>
-    <row r="250" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:32" ht="15.75" customHeight="1">
       <c r="A250" s="5"/>
       <c r="B250" s="5"/>
       <c r="C250" s="5"/>
@@ -12558,7 +12868,7 @@
       <c r="AE250" s="5"/>
       <c r="AF250" s="5"/>
     </row>
-    <row r="251" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:32" ht="15.75" customHeight="1">
       <c r="A251" s="5"/>
       <c r="B251" s="5"/>
       <c r="C251" s="5"/>
@@ -12592,7 +12902,7 @@
       <c r="AE251" s="5"/>
       <c r="AF251" s="5"/>
     </row>
-    <row r="252" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:32" ht="15.75" customHeight="1">
       <c r="A252" s="5"/>
       <c r="B252" s="5"/>
       <c r="C252" s="5"/>
@@ -12626,7 +12936,7 @@
       <c r="AE252" s="5"/>
       <c r="AF252" s="5"/>
     </row>
-    <row r="253" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:32" ht="15.75" customHeight="1">
       <c r="A253" s="5"/>
       <c r="B253" s="5"/>
       <c r="C253" s="5"/>
@@ -12660,7 +12970,7 @@
       <c r="AE253" s="5"/>
       <c r="AF253" s="5"/>
     </row>
-    <row r="254" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:32" ht="15.75" customHeight="1">
       <c r="A254" s="5"/>
       <c r="B254" s="5"/>
       <c r="C254" s="5"/>
@@ -12694,7 +13004,7 @@
       <c r="AE254" s="5"/>
       <c r="AF254" s="5"/>
     </row>
-    <row r="255" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:32" ht="15.75" customHeight="1">
       <c r="A255" s="5"/>
       <c r="B255" s="5"/>
       <c r="C255" s="5"/>
@@ -12728,7 +13038,7 @@
       <c r="AE255" s="5"/>
       <c r="AF255" s="5"/>
     </row>
-    <row r="256" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:32" ht="15.75" customHeight="1">
       <c r="A256" s="5"/>
       <c r="B256" s="5"/>
       <c r="C256" s="5"/>
@@ -12762,7 +13072,7 @@
       <c r="AE256" s="5"/>
       <c r="AF256" s="5"/>
     </row>
-    <row r="257" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:32" ht="15.75" customHeight="1">
       <c r="A257" s="5"/>
       <c r="B257" s="5"/>
       <c r="C257" s="5"/>
@@ -12796,7 +13106,7 @@
       <c r="AE257" s="5"/>
       <c r="AF257" s="5"/>
     </row>
-    <row r="258" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:32" ht="15.75" customHeight="1">
       <c r="A258" s="5"/>
       <c r="B258" s="5"/>
       <c r="C258" s="5"/>
@@ -12830,7 +13140,7 @@
       <c r="AE258" s="5"/>
       <c r="AF258" s="5"/>
     </row>
-    <row r="259" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:32" ht="15.75" customHeight="1">
       <c r="A259" s="5"/>
       <c r="B259" s="5"/>
       <c r="C259" s="5"/>
@@ -12864,7 +13174,7 @@
       <c r="AE259" s="5"/>
       <c r="AF259" s="5"/>
     </row>
-    <row r="260" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:32" ht="15.75" customHeight="1">
       <c r="A260" s="5"/>
       <c r="B260" s="5"/>
       <c r="C260" s="5"/>
@@ -12898,7 +13208,7 @@
       <c r="AE260" s="5"/>
       <c r="AF260" s="5"/>
     </row>
-    <row r="261" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:32" ht="15.75" customHeight="1">
       <c r="A261" s="5"/>
       <c r="B261" s="5"/>
       <c r="C261" s="5"/>
@@ -12932,7 +13242,7 @@
       <c r="AE261" s="5"/>
       <c r="AF261" s="5"/>
     </row>
-    <row r="262" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:32" ht="15.75" customHeight="1">
       <c r="A262" s="5"/>
       <c r="B262" s="5"/>
       <c r="C262" s="5"/>
@@ -12966,7 +13276,7 @@
       <c r="AE262" s="5"/>
       <c r="AF262" s="5"/>
     </row>
-    <row r="263" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:32" ht="15.75" customHeight="1">
       <c r="A263" s="5"/>
       <c r="B263" s="5"/>
       <c r="C263" s="5"/>
@@ -13000,7 +13310,7 @@
       <c r="AE263" s="5"/>
       <c r="AF263" s="5"/>
     </row>
-    <row r="264" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:32" ht="15.75" customHeight="1">
       <c r="A264" s="5"/>
       <c r="B264" s="5"/>
       <c r="C264" s="5"/>
@@ -13034,7 +13344,7 @@
       <c r="AE264" s="5"/>
       <c r="AF264" s="5"/>
     </row>
-    <row r="265" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:32" ht="15.75" customHeight="1">
       <c r="A265" s="5"/>
       <c r="B265" s="5"/>
       <c r="C265" s="5"/>
@@ -13068,7 +13378,7 @@
       <c r="AE265" s="5"/>
       <c r="AF265" s="5"/>
     </row>
-    <row r="266" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:32" ht="15.75" customHeight="1">
       <c r="A266" s="5"/>
       <c r="B266" s="5"/>
       <c r="C266" s="5"/>
@@ -13102,7 +13412,7 @@
       <c r="AE266" s="5"/>
       <c r="AF266" s="5"/>
     </row>
-    <row r="267" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:32" ht="15.75" customHeight="1">
       <c r="A267" s="5"/>
       <c r="B267" s="5"/>
       <c r="C267" s="5"/>
@@ -13136,7 +13446,7 @@
       <c r="AE267" s="5"/>
       <c r="AF267" s="5"/>
     </row>
-    <row r="268" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:32" ht="15.75" customHeight="1">
       <c r="A268" s="5"/>
       <c r="B268" s="5"/>
       <c r="C268" s="5"/>
@@ -13170,7 +13480,7 @@
       <c r="AE268" s="5"/>
       <c r="AF268" s="5"/>
     </row>
-    <row r="269" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:32" ht="15.75" customHeight="1">
       <c r="A269" s="5"/>
       <c r="B269" s="5"/>
       <c r="C269" s="5"/>
@@ -13204,7 +13514,7 @@
       <c r="AE269" s="5"/>
       <c r="AF269" s="5"/>
     </row>
-    <row r="270" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:32" ht="15.75" customHeight="1">
       <c r="A270" s="5"/>
       <c r="B270" s="5"/>
       <c r="C270" s="5"/>
@@ -13238,7 +13548,7 @@
       <c r="AE270" s="5"/>
       <c r="AF270" s="5"/>
     </row>
-    <row r="271" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:32" ht="15.75" customHeight="1">
       <c r="A271" s="5"/>
       <c r="B271" s="5"/>
       <c r="C271" s="5"/>
@@ -13272,7 +13582,7 @@
       <c r="AE271" s="5"/>
       <c r="AF271" s="5"/>
     </row>
-    <row r="272" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:32" ht="15.75" customHeight="1">
       <c r="A272" s="5"/>
       <c r="B272" s="5"/>
       <c r="C272" s="5"/>
@@ -13306,7 +13616,7 @@
       <c r="AE272" s="5"/>
       <c r="AF272" s="5"/>
     </row>
-    <row r="273" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:32" ht="15.75" customHeight="1">
       <c r="A273" s="5"/>
       <c r="B273" s="5"/>
       <c r="C273" s="5"/>
@@ -13340,7 +13650,7 @@
       <c r="AE273" s="5"/>
       <c r="AF273" s="5"/>
     </row>
-    <row r="274" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:32" ht="15.75" customHeight="1">
       <c r="A274" s="5"/>
       <c r="B274" s="5"/>
       <c r="C274" s="5"/>
@@ -13374,7 +13684,7 @@
       <c r="AE274" s="5"/>
       <c r="AF274" s="5"/>
     </row>
-    <row r="275" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:32" ht="15.75" customHeight="1">
       <c r="A275" s="5"/>
       <c r="B275" s="5"/>
       <c r="C275" s="5"/>
@@ -13408,7 +13718,7 @@
       <c r="AE275" s="5"/>
       <c r="AF275" s="5"/>
     </row>
-    <row r="276" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:32" ht="15.75" customHeight="1">
       <c r="A276" s="5"/>
       <c r="B276" s="5"/>
       <c r="C276" s="5"/>
@@ -13442,7 +13752,7 @@
       <c r="AE276" s="5"/>
       <c r="AF276" s="5"/>
     </row>
-    <row r="277" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:32" ht="15.75" customHeight="1">
       <c r="A277" s="5"/>
       <c r="B277" s="5"/>
       <c r="C277" s="5"/>
@@ -13476,7 +13786,7 @@
       <c r="AE277" s="5"/>
       <c r="AF277" s="5"/>
     </row>
-    <row r="278" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:32" ht="15.75" customHeight="1">
       <c r="A278" s="5"/>
       <c r="B278" s="5"/>
       <c r="C278" s="5"/>
@@ -13510,7 +13820,7 @@
       <c r="AE278" s="5"/>
       <c r="AF278" s="5"/>
     </row>
-    <row r="279" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:32" ht="15.75" customHeight="1">
       <c r="A279" s="5"/>
       <c r="B279" s="5"/>
       <c r="C279" s="5"/>
@@ -13544,7 +13854,7 @@
       <c r="AE279" s="5"/>
       <c r="AF279" s="5"/>
     </row>
-    <row r="280" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:32" ht="15.75" customHeight="1">
       <c r="A280" s="5"/>
       <c r="B280" s="5"/>
       <c r="C280" s="5"/>
@@ -13578,7 +13888,7 @@
       <c r="AE280" s="5"/>
       <c r="AF280" s="5"/>
     </row>
-    <row r="281" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:32" ht="15.75" customHeight="1">
       <c r="A281" s="5"/>
       <c r="B281" s="5"/>
       <c r="C281" s="5"/>
@@ -13612,7 +13922,7 @@
       <c r="AE281" s="5"/>
       <c r="AF281" s="5"/>
     </row>
-    <row r="282" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:32" ht="15.75" customHeight="1">
       <c r="A282" s="5"/>
       <c r="B282" s="5"/>
       <c r="C282" s="5"/>
@@ -13646,7 +13956,7 @@
       <c r="AE282" s="5"/>
       <c r="AF282" s="5"/>
     </row>
-    <row r="283" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:32" ht="15.75" customHeight="1">
       <c r="A283" s="5"/>
       <c r="B283" s="5"/>
       <c r="C283" s="5"/>
@@ -13680,7 +13990,7 @@
       <c r="AE283" s="5"/>
       <c r="AF283" s="5"/>
     </row>
-    <row r="284" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:32" ht="15.75" customHeight="1">
       <c r="A284" s="5"/>
       <c r="B284" s="5"/>
       <c r="C284" s="5"/>
@@ -13714,7 +14024,7 @@
       <c r="AE284" s="5"/>
       <c r="AF284" s="5"/>
     </row>
-    <row r="285" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:32" ht="15.75" customHeight="1">
       <c r="A285" s="5"/>
       <c r="B285" s="5"/>
       <c r="C285" s="5"/>
@@ -13748,7 +14058,7 @@
       <c r="AE285" s="5"/>
       <c r="AF285" s="5"/>
     </row>
-    <row r="286" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:32" ht="15.75" customHeight="1">
       <c r="A286" s="5"/>
       <c r="B286" s="5"/>
       <c r="C286" s="5"/>
@@ -13782,7 +14092,7 @@
       <c r="AE286" s="5"/>
       <c r="AF286" s="5"/>
     </row>
-    <row r="287" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:32" ht="15.75" customHeight="1">
       <c r="A287" s="5"/>
       <c r="B287" s="5"/>
       <c r="C287" s="5"/>
@@ -13816,7 +14126,7 @@
       <c r="AE287" s="5"/>
       <c r="AF287" s="5"/>
     </row>
-    <row r="288" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:32" ht="15.75" customHeight="1">
       <c r="A288" s="5"/>
       <c r="B288" s="5"/>
       <c r="C288" s="5"/>
@@ -13850,7 +14160,7 @@
       <c r="AE288" s="5"/>
       <c r="AF288" s="5"/>
     </row>
-    <row r="289" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:32" ht="15.75" customHeight="1">
       <c r="A289" s="5"/>
       <c r="B289" s="5"/>
       <c r="C289" s="5"/>
@@ -13884,7 +14194,7 @@
       <c r="AE289" s="5"/>
       <c r="AF289" s="5"/>
     </row>
-    <row r="290" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:32" ht="15.75" customHeight="1">
       <c r="A290" s="5"/>
       <c r="B290" s="5"/>
       <c r="C290" s="5"/>
@@ -13918,7 +14228,7 @@
       <c r="AE290" s="5"/>
       <c r="AF290" s="5"/>
     </row>
-    <row r="291" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:32" ht="15.75" customHeight="1">
       <c r="A291" s="5"/>
       <c r="B291" s="5"/>
       <c r="C291" s="5"/>
@@ -13952,7 +14262,7 @@
       <c r="AE291" s="5"/>
       <c r="AF291" s="5"/>
     </row>
-    <row r="292" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:32" ht="15.75" customHeight="1">
       <c r="A292" s="5"/>
       <c r="B292" s="5"/>
       <c r="C292" s="5"/>
@@ -13986,7 +14296,7 @@
       <c r="AE292" s="5"/>
       <c r="AF292" s="5"/>
     </row>
-    <row r="293" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:32" ht="15.75" customHeight="1">
       <c r="A293" s="5"/>
       <c r="B293" s="5"/>
       <c r="C293" s="5"/>
@@ -14020,7 +14330,7 @@
       <c r="AE293" s="5"/>
       <c r="AF293" s="5"/>
     </row>
-    <row r="294" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:32" ht="15.75" customHeight="1">
       <c r="A294" s="5"/>
       <c r="B294" s="5"/>
       <c r="C294" s="5"/>
@@ -14054,7 +14364,7 @@
       <c r="AE294" s="5"/>
       <c r="AF294" s="5"/>
     </row>
-    <row r="295" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:32" ht="15.75" customHeight="1">
       <c r="A295" s="5"/>
       <c r="B295" s="5"/>
       <c r="C295" s="5"/>
@@ -14088,7 +14398,7 @@
       <c r="AE295" s="5"/>
       <c r="AF295" s="5"/>
     </row>
-    <row r="296" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:32" ht="15.75" customHeight="1">
       <c r="A296" s="5"/>
       <c r="B296" s="5"/>
       <c r="C296" s="5"/>
@@ -14122,7 +14432,7 @@
       <c r="AE296" s="5"/>
       <c r="AF296" s="5"/>
     </row>
-    <row r="297" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:32" ht="15.75" customHeight="1">
       <c r="A297" s="5"/>
       <c r="B297" s="5"/>
       <c r="C297" s="5"/>
@@ -14156,7 +14466,7 @@
       <c r="AE297" s="5"/>
       <c r="AF297" s="5"/>
     </row>
-    <row r="298" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:32" ht="15.75" customHeight="1">
       <c r="A298" s="5"/>
       <c r="B298" s="5"/>
       <c r="C298" s="5"/>
@@ -14190,7 +14500,7 @@
       <c r="AE298" s="5"/>
       <c r="AF298" s="5"/>
     </row>
-    <row r="299" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:32" ht="15.75" customHeight="1">
       <c r="A299" s="5"/>
       <c r="B299" s="5"/>
       <c r="C299" s="5"/>
@@ -14224,7 +14534,7 @@
       <c r="AE299" s="5"/>
       <c r="AF299" s="5"/>
     </row>
-    <row r="300" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:32" ht="15.75" customHeight="1">
       <c r="A300" s="5"/>
       <c r="B300" s="5"/>
       <c r="C300" s="5"/>
@@ -14258,7 +14568,7 @@
       <c r="AE300" s="5"/>
       <c r="AF300" s="5"/>
     </row>
-    <row r="301" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:32" ht="15.75" customHeight="1">
       <c r="A301" s="5"/>
       <c r="B301" s="5"/>
       <c r="C301" s="5"/>
@@ -14292,7 +14602,7 @@
       <c r="AE301" s="5"/>
       <c r="AF301" s="5"/>
     </row>
-    <row r="302" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:32" ht="15.75" customHeight="1">
       <c r="A302" s="5"/>
       <c r="B302" s="5"/>
       <c r="C302" s="5"/>
@@ -14326,7 +14636,7 @@
       <c r="AE302" s="5"/>
       <c r="AF302" s="5"/>
     </row>
-    <row r="303" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:32" ht="15.75" customHeight="1">
       <c r="A303" s="5"/>
       <c r="B303" s="5"/>
       <c r="C303" s="5"/>
@@ -14360,7 +14670,7 @@
       <c r="AE303" s="5"/>
       <c r="AF303" s="5"/>
     </row>
-    <row r="304" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:32" ht="15.75" customHeight="1">
       <c r="A304" s="5"/>
       <c r="B304" s="5"/>
       <c r="C304" s="5"/>
@@ -14394,7 +14704,7 @@
       <c r="AE304" s="5"/>
       <c r="AF304" s="5"/>
     </row>
-    <row r="305" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:32" ht="15.75" customHeight="1">
       <c r="A305" s="5"/>
       <c r="B305" s="5"/>
       <c r="C305" s="5"/>
@@ -14428,7 +14738,7 @@
       <c r="AE305" s="5"/>
       <c r="AF305" s="5"/>
     </row>
-    <row r="306" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:32" ht="15.75" customHeight="1">
       <c r="A306" s="5"/>
       <c r="B306" s="5"/>
       <c r="C306" s="5"/>
@@ -14462,7 +14772,7 @@
       <c r="AE306" s="5"/>
       <c r="AF306" s="5"/>
     </row>
-    <row r="307" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:32" ht="15.75" customHeight="1">
       <c r="A307" s="5"/>
       <c r="B307" s="5"/>
       <c r="C307" s="5"/>
@@ -14496,7 +14806,7 @@
       <c r="AE307" s="5"/>
       <c r="AF307" s="5"/>
     </row>
-    <row r="308" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:32" ht="15.75" customHeight="1">
       <c r="A308" s="5"/>
       <c r="B308" s="5"/>
       <c r="C308" s="5"/>
@@ -14530,7 +14840,7 @@
       <c r="AE308" s="5"/>
       <c r="AF308" s="5"/>
     </row>
-    <row r="309" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:32" ht="15.75" customHeight="1">
       <c r="A309" s="5"/>
       <c r="B309" s="5"/>
       <c r="C309" s="5"/>
@@ -14564,7 +14874,7 @@
       <c r="AE309" s="5"/>
       <c r="AF309" s="5"/>
     </row>
-    <row r="310" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:32" ht="15.75" customHeight="1">
       <c r="A310" s="5"/>
       <c r="B310" s="5"/>
       <c r="C310" s="5"/>
@@ -14598,7 +14908,7 @@
       <c r="AE310" s="5"/>
       <c r="AF310" s="5"/>
     </row>
-    <row r="311" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:32" ht="15.75" customHeight="1">
       <c r="A311" s="5"/>
       <c r="B311" s="5"/>
       <c r="C311" s="5"/>
@@ -14632,7 +14942,7 @@
       <c r="AE311" s="5"/>
       <c r="AF311" s="5"/>
     </row>
-    <row r="312" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:32" ht="15.75" customHeight="1">
       <c r="A312" s="5"/>
       <c r="B312" s="5"/>
       <c r="C312" s="5"/>
@@ -14666,7 +14976,7 @@
       <c r="AE312" s="5"/>
       <c r="AF312" s="5"/>
     </row>
-    <row r="313" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:32" ht="15.75" customHeight="1">
       <c r="A313" s="5"/>
       <c r="B313" s="5"/>
       <c r="C313" s="5"/>
@@ -14700,7 +15010,7 @@
       <c r="AE313" s="5"/>
       <c r="AF313" s="5"/>
     </row>
-    <row r="314" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:32" ht="15.75" customHeight="1">
       <c r="A314" s="5"/>
       <c r="B314" s="5"/>
       <c r="C314" s="5"/>
@@ -14734,7 +15044,7 @@
       <c r="AE314" s="5"/>
       <c r="AF314" s="5"/>
     </row>
-    <row r="315" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:32" ht="15.75" customHeight="1">
       <c r="A315" s="5"/>
       <c r="B315" s="5"/>
       <c r="C315" s="5"/>
@@ -14768,7 +15078,7 @@
       <c r="AE315" s="5"/>
       <c r="AF315" s="5"/>
     </row>
-    <row r="316" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:32" ht="15.75" customHeight="1">
       <c r="A316" s="5"/>
       <c r="B316" s="5"/>
       <c r="C316" s="5"/>
@@ -14802,7 +15112,7 @@
       <c r="AE316" s="5"/>
       <c r="AF316" s="5"/>
     </row>
-    <row r="317" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:32" ht="15.75" customHeight="1">
       <c r="A317" s="5"/>
       <c r="B317" s="5"/>
       <c r="C317" s="5"/>
@@ -14836,7 +15146,7 @@
       <c r="AE317" s="5"/>
       <c r="AF317" s="5"/>
     </row>
-    <row r="318" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:32" ht="15.75" customHeight="1">
       <c r="A318" s="5"/>
       <c r="B318" s="5"/>
       <c r="C318" s="5"/>
@@ -14870,7 +15180,7 @@
       <c r="AE318" s="5"/>
       <c r="AF318" s="5"/>
     </row>
-    <row r="319" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:32" ht="15.75" customHeight="1">
       <c r="A319" s="5"/>
       <c r="B319" s="5"/>
       <c r="C319" s="5"/>
@@ -14904,7 +15214,7 @@
       <c r="AE319" s="5"/>
       <c r="AF319" s="5"/>
     </row>
-    <row r="320" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:32" ht="15.75" customHeight="1">
       <c r="A320" s="5"/>
       <c r="B320" s="5"/>
       <c r="C320" s="5"/>
@@ -14938,7 +15248,7 @@
       <c r="AE320" s="5"/>
       <c r="AF320" s="5"/>
     </row>
-    <row r="321" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:32" ht="15.75" customHeight="1">
       <c r="A321" s="5"/>
       <c r="B321" s="5"/>
       <c r="C321" s="5"/>
@@ -14972,7 +15282,7 @@
       <c r="AE321" s="5"/>
       <c r="AF321" s="5"/>
     </row>
-    <row r="322" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:32" ht="15.75" customHeight="1">
       <c r="A322" s="5"/>
       <c r="B322" s="5"/>
       <c r="C322" s="5"/>
@@ -15006,7 +15316,7 @@
       <c r="AE322" s="5"/>
       <c r="AF322" s="5"/>
     </row>
-    <row r="323" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:32" ht="15.75" customHeight="1">
       <c r="A323" s="5"/>
       <c r="B323" s="5"/>
       <c r="C323" s="5"/>
@@ -15040,7 +15350,7 @@
       <c r="AE323" s="5"/>
       <c r="AF323" s="5"/>
     </row>
-    <row r="324" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:32" ht="15.75" customHeight="1">
       <c r="A324" s="5"/>
       <c r="B324" s="5"/>
       <c r="C324" s="5"/>
@@ -15074,7 +15384,7 @@
       <c r="AE324" s="5"/>
       <c r="AF324" s="5"/>
     </row>
-    <row r="325" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:32" ht="15.75" customHeight="1">
       <c r="A325" s="5"/>
       <c r="B325" s="5"/>
       <c r="C325" s="5"/>
@@ -15108,7 +15418,7 @@
       <c r="AE325" s="5"/>
       <c r="AF325" s="5"/>
     </row>
-    <row r="326" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:32" ht="15.75" customHeight="1">
       <c r="A326" s="5"/>
       <c r="B326" s="5"/>
       <c r="C326" s="5"/>
@@ -15142,7 +15452,7 @@
       <c r="AE326" s="5"/>
       <c r="AF326" s="5"/>
     </row>
-    <row r="327" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:32" ht="15.75" customHeight="1">
       <c r="A327" s="5"/>
       <c r="B327" s="5"/>
       <c r="C327" s="5"/>
@@ -15176,7 +15486,7 @@
       <c r="AE327" s="5"/>
       <c r="AF327" s="5"/>
     </row>
-    <row r="328" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:32" ht="15.75" customHeight="1">
       <c r="A328" s="5"/>
       <c r="B328" s="5"/>
       <c r="C328" s="5"/>
@@ -15210,7 +15520,7 @@
       <c r="AE328" s="5"/>
       <c r="AF328" s="5"/>
     </row>
-    <row r="329" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:32" ht="15.75" customHeight="1">
       <c r="A329" s="5"/>
       <c r="B329" s="5"/>
       <c r="C329" s="5"/>
@@ -15244,7 +15554,7 @@
       <c r="AE329" s="5"/>
       <c r="AF329" s="5"/>
     </row>
-    <row r="330" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:32" ht="15.75" customHeight="1">
       <c r="A330" s="5"/>
       <c r="B330" s="5"/>
       <c r="C330" s="5"/>
@@ -15278,7 +15588,7 @@
       <c r="AE330" s="5"/>
       <c r="AF330" s="5"/>
     </row>
-    <row r="331" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:32" ht="15.75" customHeight="1">
       <c r="A331" s="5"/>
       <c r="B331" s="5"/>
       <c r="C331" s="5"/>
@@ -15312,7 +15622,7 @@
       <c r="AE331" s="5"/>
       <c r="AF331" s="5"/>
     </row>
-    <row r="332" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:32" ht="15.75" customHeight="1">
       <c r="A332" s="5"/>
       <c r="B332" s="5"/>
       <c r="C332" s="5"/>
@@ -15346,7 +15656,7 @@
       <c r="AE332" s="5"/>
       <c r="AF332" s="5"/>
     </row>
-    <row r="333" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:32" ht="15.75" customHeight="1">
       <c r="A333" s="5"/>
       <c r="B333" s="5"/>
       <c r="C333" s="5"/>
@@ -15380,7 +15690,7 @@
       <c r="AE333" s="5"/>
       <c r="AF333" s="5"/>
     </row>
-    <row r="334" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:32" ht="15.75" customHeight="1">
       <c r="A334" s="5"/>
       <c r="B334" s="5"/>
       <c r="C334" s="5"/>
@@ -15414,7 +15724,7 @@
       <c r="AE334" s="5"/>
       <c r="AF334" s="5"/>
     </row>
-    <row r="335" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:32" ht="15.75" customHeight="1">
       <c r="A335" s="5"/>
       <c r="B335" s="5"/>
       <c r="C335" s="5"/>
@@ -15448,7 +15758,7 @@
       <c r="AE335" s="5"/>
       <c r="AF335" s="5"/>
     </row>
-    <row r="336" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:32" ht="15.75" customHeight="1">
       <c r="A336" s="5"/>
       <c r="B336" s="5"/>
       <c r="C336" s="5"/>
@@ -15482,7 +15792,7 @@
       <c r="AE336" s="5"/>
       <c r="AF336" s="5"/>
     </row>
-    <row r="337" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:32" ht="15.75" customHeight="1">
       <c r="A337" s="5"/>
       <c r="B337" s="5"/>
       <c r="C337" s="5"/>
@@ -15516,7 +15826,7 @@
       <c r="AE337" s="5"/>
       <c r="AF337" s="5"/>
     </row>
-    <row r="338" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:32" ht="15.75" customHeight="1">
       <c r="A338" s="5"/>
       <c r="B338" s="5"/>
       <c r="C338" s="5"/>
@@ -15550,7 +15860,7 @@
       <c r="AE338" s="5"/>
       <c r="AF338" s="5"/>
     </row>
-    <row r="339" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:32" ht="15.75" customHeight="1">
       <c r="A339" s="5"/>
       <c r="B339" s="5"/>
       <c r="C339" s="5"/>
@@ -15584,7 +15894,7 @@
       <c r="AE339" s="5"/>
       <c r="AF339" s="5"/>
     </row>
-    <row r="340" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:32" ht="15.75" customHeight="1">
       <c r="A340" s="5"/>
       <c r="B340" s="5"/>
       <c r="C340" s="5"/>
@@ -15618,7 +15928,7 @@
       <c r="AE340" s="5"/>
       <c r="AF340" s="5"/>
     </row>
-    <row r="341" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:32" ht="15.75" customHeight="1">
       <c r="A341" s="5"/>
       <c r="B341" s="5"/>
       <c r="C341" s="5"/>
@@ -15652,7 +15962,7 @@
       <c r="AE341" s="5"/>
       <c r="AF341" s="5"/>
     </row>
-    <row r="342" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:32" ht="15.75" customHeight="1">
       <c r="A342" s="5"/>
       <c r="B342" s="5"/>
       <c r="C342" s="5"/>
@@ -15686,7 +15996,7 @@
       <c r="AE342" s="5"/>
       <c r="AF342" s="5"/>
     </row>
-    <row r="343" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:32" ht="15.75" customHeight="1">
       <c r="A343" s="5"/>
       <c r="B343" s="5"/>
       <c r="C343" s="5"/>
@@ -15720,7 +16030,7 @@
       <c r="AE343" s="5"/>
       <c r="AF343" s="5"/>
     </row>
-    <row r="344" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:32" ht="15.75" customHeight="1">
       <c r="A344" s="5"/>
       <c r="B344" s="5"/>
       <c r="C344" s="5"/>
@@ -15754,7 +16064,7 @@
       <c r="AE344" s="5"/>
       <c r="AF344" s="5"/>
     </row>
-    <row r="345" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:32" ht="15.75" customHeight="1">
       <c r="A345" s="5"/>
       <c r="B345" s="5"/>
       <c r="C345" s="5"/>
@@ -15788,7 +16098,7 @@
       <c r="AE345" s="5"/>
       <c r="AF345" s="5"/>
     </row>
-    <row r="346" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:32" ht="15.75" customHeight="1">
       <c r="A346" s="5"/>
       <c r="B346" s="5"/>
       <c r="C346" s="5"/>
@@ -15822,7 +16132,7 @@
       <c r="AE346" s="5"/>
       <c r="AF346" s="5"/>
     </row>
-    <row r="347" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:32" ht="15.75" customHeight="1">
       <c r="A347" s="5"/>
       <c r="B347" s="5"/>
       <c r="C347" s="5"/>
@@ -15856,7 +16166,7 @@
       <c r="AE347" s="5"/>
       <c r="AF347" s="5"/>
     </row>
-    <row r="348" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:32" ht="15.75" customHeight="1">
       <c r="A348" s="5"/>
       <c r="B348" s="5"/>
       <c r="C348" s="5"/>
@@ -15890,7 +16200,7 @@
       <c r="AE348" s="5"/>
       <c r="AF348" s="5"/>
     </row>
-    <row r="349" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:32" ht="15.75" customHeight="1">
       <c r="A349" s="5"/>
       <c r="B349" s="5"/>
       <c r="C349" s="5"/>
@@ -15924,7 +16234,7 @@
       <c r="AE349" s="5"/>
       <c r="AF349" s="5"/>
     </row>
-    <row r="350" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:32" ht="15.75" customHeight="1">
       <c r="A350" s="5"/>
       <c r="B350" s="5"/>
       <c r="C350" s="5"/>
@@ -15958,7 +16268,7 @@
       <c r="AE350" s="5"/>
       <c r="AF350" s="5"/>
     </row>
-    <row r="351" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:32" ht="15.75" customHeight="1">
       <c r="A351" s="5"/>
       <c r="B351" s="5"/>
       <c r="C351" s="5"/>
@@ -15992,7 +16302,7 @@
       <c r="AE351" s="5"/>
       <c r="AF351" s="5"/>
     </row>
-    <row r="352" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:32" ht="15.75" customHeight="1">
       <c r="A352" s="5"/>
       <c r="B352" s="5"/>
       <c r="C352" s="5"/>
@@ -16026,7 +16336,7 @@
       <c r="AE352" s="5"/>
       <c r="AF352" s="5"/>
     </row>
-    <row r="353" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:32" ht="15.75" customHeight="1">
       <c r="A353" s="5"/>
       <c r="B353" s="5"/>
       <c r="C353" s="5"/>
@@ -16060,7 +16370,7 @@
       <c r="AE353" s="5"/>
       <c r="AF353" s="5"/>
     </row>
-    <row r="354" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:32" ht="15.75" customHeight="1">
       <c r="A354" s="5"/>
       <c r="B354" s="5"/>
       <c r="C354" s="5"/>
@@ -16094,7 +16404,7 @@
       <c r="AE354" s="5"/>
       <c r="AF354" s="5"/>
     </row>
-    <row r="355" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:32" ht="15.75" customHeight="1">
       <c r="A355" s="5"/>
       <c r="B355" s="5"/>
       <c r="C355" s="5"/>
@@ -16128,7 +16438,7 @@
       <c r="AE355" s="5"/>
       <c r="AF355" s="5"/>
     </row>
-    <row r="356" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:32" ht="15.75" customHeight="1">
       <c r="A356" s="5"/>
       <c r="B356" s="5"/>
       <c r="C356" s="5"/>
@@ -16162,7 +16472,7 @@
       <c r="AE356" s="5"/>
       <c r="AF356" s="5"/>
     </row>
-    <row r="357" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:32" ht="15.75" customHeight="1">
       <c r="A357" s="5"/>
       <c r="B357" s="5"/>
       <c r="C357" s="5"/>
@@ -16196,7 +16506,7 @@
       <c r="AE357" s="5"/>
       <c r="AF357" s="5"/>
     </row>
-    <row r="358" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:32" ht="15.75" customHeight="1">
       <c r="A358" s="5"/>
       <c r="B358" s="5"/>
       <c r="C358" s="5"/>
@@ -16230,7 +16540,7 @@
       <c r="AE358" s="5"/>
       <c r="AF358" s="5"/>
     </row>
-    <row r="359" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:32" ht="15.75" customHeight="1">
       <c r="A359" s="5"/>
       <c r="B359" s="5"/>
       <c r="C359" s="5"/>
@@ -16264,7 +16574,7 @@
       <c r="AE359" s="5"/>
       <c r="AF359" s="5"/>
     </row>
-    <row r="360" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:32" ht="15.75" customHeight="1">
       <c r="A360" s="5"/>
       <c r="B360" s="5"/>
       <c r="C360" s="5"/>
@@ -16298,7 +16608,7 @@
       <c r="AE360" s="5"/>
       <c r="AF360" s="5"/>
     </row>
-    <row r="361" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:32" ht="15.75" customHeight="1">
       <c r="A361" s="5"/>
       <c r="B361" s="5"/>
       <c r="C361" s="5"/>
@@ -16332,7 +16642,7 @@
       <c r="AE361" s="5"/>
       <c r="AF361" s="5"/>
     </row>
-    <row r="362" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:32" ht="15.75" customHeight="1">
       <c r="A362" s="5"/>
       <c r="B362" s="5"/>
       <c r="C362" s="5"/>
@@ -16366,7 +16676,7 @@
       <c r="AE362" s="5"/>
       <c r="AF362" s="5"/>
     </row>
-    <row r="363" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:32" ht="15.75" customHeight="1">
       <c r="A363" s="5"/>
       <c r="B363" s="5"/>
       <c r="C363" s="5"/>
@@ -16400,7 +16710,7 @@
       <c r="AE363" s="5"/>
       <c r="AF363" s="5"/>
     </row>
-    <row r="364" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:32" ht="15.75" customHeight="1">
       <c r="A364" s="5"/>
       <c r="B364" s="5"/>
       <c r="C364" s="5"/>
@@ -16434,7 +16744,7 @@
       <c r="AE364" s="5"/>
       <c r="AF364" s="5"/>
     </row>
-    <row r="365" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:32" ht="15.75" customHeight="1">
       <c r="A365" s="5"/>
       <c r="B365" s="5"/>
       <c r="C365" s="5"/>
@@ -16468,7 +16778,7 @@
       <c r="AE365" s="5"/>
       <c r="AF365" s="5"/>
     </row>
-    <row r="366" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:32" ht="15.75" customHeight="1">
       <c r="A366" s="5"/>
       <c r="B366" s="5"/>
       <c r="C366" s="5"/>
@@ -16502,7 +16812,7 @@
       <c r="AE366" s="5"/>
       <c r="AF366" s="5"/>
     </row>
-    <row r="367" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:32" ht="15.75" customHeight="1">
       <c r="A367" s="5"/>
       <c r="B367" s="5"/>
       <c r="C367" s="5"/>
@@ -16536,7 +16846,7 @@
       <c r="AE367" s="5"/>
       <c r="AF367" s="5"/>
     </row>
-    <row r="368" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:32" ht="15.75" customHeight="1">
       <c r="A368" s="5"/>
       <c r="B368" s="5"/>
       <c r="C368" s="5"/>
@@ -16570,7 +16880,7 @@
       <c r="AE368" s="5"/>
       <c r="AF368" s="5"/>
     </row>
-    <row r="369" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:32" ht="15.75" customHeight="1">
       <c r="A369" s="5"/>
       <c r="B369" s="5"/>
       <c r="C369" s="5"/>
@@ -16604,7 +16914,7 @@
       <c r="AE369" s="5"/>
       <c r="AF369" s="5"/>
     </row>
-    <row r="370" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:32" ht="15.75" customHeight="1">
       <c r="A370" s="5"/>
       <c r="B370" s="5"/>
       <c r="C370" s="5"/>
@@ -16638,7 +16948,7 @@
       <c r="AE370" s="5"/>
       <c r="AF370" s="5"/>
     </row>
-    <row r="371" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:32" ht="15.75" customHeight="1">
       <c r="A371" s="5"/>
       <c r="B371" s="5"/>
       <c r="C371" s="5"/>
@@ -16672,7 +16982,7 @@
       <c r="AE371" s="5"/>
       <c r="AF371" s="5"/>
     </row>
-    <row r="372" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:32" ht="15.75" customHeight="1">
       <c r="A372" s="5"/>
       <c r="B372" s="5"/>
       <c r="C372" s="5"/>
@@ -16706,7 +17016,7 @@
       <c r="AE372" s="5"/>
       <c r="AF372" s="5"/>
     </row>
-    <row r="373" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:32" ht="15.75" customHeight="1">
       <c r="A373" s="5"/>
       <c r="B373" s="5"/>
       <c r="C373" s="5"/>
@@ -16740,7 +17050,7 @@
       <c r="AE373" s="5"/>
       <c r="AF373" s="5"/>
     </row>
-    <row r="374" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:32" ht="15.75" customHeight="1">
       <c r="A374" s="5"/>
       <c r="B374" s="5"/>
       <c r="C374" s="5"/>
@@ -16774,7 +17084,7 @@
       <c r="AE374" s="5"/>
       <c r="AF374" s="5"/>
     </row>
-    <row r="375" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:32" ht="15.75" customHeight="1">
       <c r="A375" s="5"/>
       <c r="B375" s="5"/>
       <c r="C375" s="5"/>
@@ -16808,7 +17118,7 @@
       <c r="AE375" s="5"/>
       <c r="AF375" s="5"/>
     </row>
-    <row r="376" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:32" ht="15.75" customHeight="1">
       <c r="A376" s="5"/>
       <c r="B376" s="5"/>
       <c r="C376" s="5"/>
@@ -16842,7 +17152,7 @@
       <c r="AE376" s="5"/>
       <c r="AF376" s="5"/>
     </row>
-    <row r="377" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:32" ht="15.75" customHeight="1">
       <c r="A377" s="5"/>
       <c r="B377" s="5"/>
       <c r="C377" s="5"/>
@@ -16876,7 +17186,7 @@
       <c r="AE377" s="5"/>
       <c r="AF377" s="5"/>
     </row>
-    <row r="378" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:32" ht="15.75" customHeight="1">
       <c r="A378" s="5"/>
       <c r="B378" s="5"/>
       <c r="C378" s="5"/>
@@ -16910,7 +17220,7 @@
       <c r="AE378" s="5"/>
       <c r="AF378" s="5"/>
     </row>
-    <row r="379" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:32" ht="15.75" customHeight="1">
       <c r="A379" s="5"/>
       <c r="B379" s="5"/>
       <c r="C379" s="5"/>
@@ -16944,7 +17254,7 @@
       <c r="AE379" s="5"/>
       <c r="AF379" s="5"/>
     </row>
-    <row r="380" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:32" ht="15.75" customHeight="1">
       <c r="A380" s="5"/>
       <c r="B380" s="5"/>
       <c r="C380" s="5"/>
@@ -16978,7 +17288,7 @@
       <c r="AE380" s="5"/>
       <c r="AF380" s="5"/>
     </row>
-    <row r="381" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:32" ht="15.75" customHeight="1">
       <c r="A381" s="5"/>
       <c r="B381" s="5"/>
       <c r="C381" s="5"/>
@@ -17012,7 +17322,7 @@
       <c r="AE381" s="5"/>
       <c r="AF381" s="5"/>
     </row>
-    <row r="382" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:32" ht="15.75" customHeight="1">
       <c r="A382" s="5"/>
       <c r="B382" s="5"/>
       <c r="C382" s="5"/>
@@ -17046,7 +17356,7 @@
       <c r="AE382" s="5"/>
       <c r="AF382" s="5"/>
     </row>
-    <row r="383" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:32" ht="15.75" customHeight="1">
       <c r="A383" s="5"/>
       <c r="B383" s="5"/>
       <c r="C383" s="5"/>
@@ -17080,7 +17390,7 @@
       <c r="AE383" s="5"/>
       <c r="AF383" s="5"/>
     </row>
-    <row r="384" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:32" ht="15.75" customHeight="1">
       <c r="A384" s="5"/>
       <c r="B384" s="5"/>
       <c r="C384" s="5"/>
@@ -17114,7 +17424,7 @@
       <c r="AE384" s="5"/>
       <c r="AF384" s="5"/>
     </row>
-    <row r="385" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:32" ht="15.75" customHeight="1">
       <c r="A385" s="5"/>
       <c r="B385" s="5"/>
       <c r="C385" s="5"/>
@@ -17148,7 +17458,7 @@
       <c r="AE385" s="5"/>
       <c r="AF385" s="5"/>
     </row>
-    <row r="386" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:32" ht="15.75" customHeight="1">
       <c r="A386" s="5"/>
       <c r="B386" s="5"/>
       <c r="C386" s="5"/>
@@ -17182,7 +17492,7 @@
       <c r="AE386" s="5"/>
       <c r="AF386" s="5"/>
     </row>
-    <row r="387" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:32" ht="15.75" customHeight="1">
       <c r="A387" s="5"/>
       <c r="B387" s="5"/>
       <c r="C387" s="5"/>
@@ -17216,7 +17526,7 @@
       <c r="AE387" s="5"/>
       <c r="AF387" s="5"/>
     </row>
-    <row r="388" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:32" ht="15.75" customHeight="1">
       <c r="A388" s="5"/>
       <c r="B388" s="5"/>
       <c r="C388" s="5"/>
@@ -17250,7 +17560,7 @@
       <c r="AE388" s="5"/>
       <c r="AF388" s="5"/>
     </row>
-    <row r="389" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:32" ht="15.75" customHeight="1">
       <c r="A389" s="5"/>
       <c r="B389" s="5"/>
       <c r="C389" s="5"/>
@@ -17284,7 +17594,7 @@
       <c r="AE389" s="5"/>
       <c r="AF389" s="5"/>
     </row>
-    <row r="390" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:32" ht="15.75" customHeight="1">
       <c r="A390" s="5"/>
       <c r="B390" s="5"/>
       <c r="C390" s="5"/>
@@ -17318,7 +17628,7 @@
       <c r="AE390" s="5"/>
       <c r="AF390" s="5"/>
     </row>
-    <row r="391" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:32" ht="15.75" customHeight="1">
       <c r="A391" s="5"/>
       <c r="B391" s="5"/>
       <c r="C391" s="5"/>
@@ -17352,7 +17662,7 @@
       <c r="AE391" s="5"/>
       <c r="AF391" s="5"/>
     </row>
-    <row r="392" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:32" ht="15.75" customHeight="1">
       <c r="A392" s="5"/>
       <c r="B392" s="5"/>
       <c r="C392" s="5"/>
@@ -17386,7 +17696,7 @@
       <c r="AE392" s="5"/>
       <c r="AF392" s="5"/>
     </row>
-    <row r="393" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:32" ht="15.75" customHeight="1">
       <c r="A393" s="5"/>
       <c r="B393" s="5"/>
       <c r="C393" s="5"/>
@@ -17420,7 +17730,7 @@
       <c r="AE393" s="5"/>
       <c r="AF393" s="5"/>
     </row>
-    <row r="394" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:32" ht="15.75" customHeight="1">
       <c r="A394" s="5"/>
       <c r="B394" s="5"/>
       <c r="C394" s="5"/>
@@ -17454,7 +17764,7 @@
       <c r="AE394" s="5"/>
       <c r="AF394" s="5"/>
     </row>
-    <row r="395" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:32" ht="15.75" customHeight="1">
       <c r="A395" s="5"/>
       <c r="B395" s="5"/>
       <c r="C395" s="5"/>
@@ -17488,7 +17798,7 @@
       <c r="AE395" s="5"/>
       <c r="AF395" s="5"/>
     </row>
-    <row r="396" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:32" ht="15.75" customHeight="1">
       <c r="A396" s="5"/>
       <c r="B396" s="5"/>
       <c r="C396" s="5"/>
@@ -17522,7 +17832,7 @@
       <c r="AE396" s="5"/>
       <c r="AF396" s="5"/>
     </row>
-    <row r="397" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:32" ht="15.75" customHeight="1">
       <c r="A397" s="5"/>
       <c r="B397" s="5"/>
       <c r="C397" s="5"/>
@@ -17556,7 +17866,7 @@
       <c r="AE397" s="5"/>
       <c r="AF397" s="5"/>
     </row>
-    <row r="398" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:32" ht="15.75" customHeight="1">
       <c r="A398" s="5"/>
       <c r="B398" s="5"/>
       <c r="C398" s="5"/>
@@ -17590,7 +17900,7 @@
       <c r="AE398" s="5"/>
       <c r="AF398" s="5"/>
     </row>
-    <row r="399" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:32" ht="15.75" customHeight="1">
       <c r="A399" s="5"/>
       <c r="B399" s="5"/>
       <c r="C399" s="5"/>
@@ -17624,7 +17934,7 @@
       <c r="AE399" s="5"/>
       <c r="AF399" s="5"/>
     </row>
-    <row r="400" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:32" ht="15.75" customHeight="1">
       <c r="A400" s="5"/>
       <c r="B400" s="5"/>
       <c r="C400" s="5"/>
@@ -17658,7 +17968,7 @@
       <c r="AE400" s="5"/>
       <c r="AF400" s="5"/>
     </row>
-    <row r="401" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:32" ht="15.75" customHeight="1">
       <c r="A401" s="5"/>
       <c r="B401" s="5"/>
       <c r="C401" s="5"/>
@@ -17692,7 +18002,7 @@
       <c r="AE401" s="5"/>
       <c r="AF401" s="5"/>
     </row>
-    <row r="402" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:32" ht="15.75" customHeight="1">
       <c r="A402" s="5"/>
       <c r="B402" s="5"/>
       <c r="C402" s="5"/>
@@ -17726,7 +18036,7 @@
       <c r="AE402" s="5"/>
       <c r="AF402" s="5"/>
     </row>
-    <row r="403" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:32" ht="15.75" customHeight="1">
       <c r="A403" s="5"/>
       <c r="B403" s="5"/>
       <c r="C403" s="5"/>
@@ -17760,7 +18070,7 @@
       <c r="AE403" s="5"/>
       <c r="AF403" s="5"/>
     </row>
-    <row r="404" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:32" ht="15.75" customHeight="1">
       <c r="A404" s="5"/>
       <c r="B404" s="5"/>
       <c r="C404" s="5"/>
@@ -17794,7 +18104,7 @@
       <c r="AE404" s="5"/>
       <c r="AF404" s="5"/>
     </row>
-    <row r="405" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:32" ht="15.75" customHeight="1">
       <c r="A405" s="5"/>
       <c r="B405" s="5"/>
       <c r="C405" s="5"/>
@@ -17828,7 +18138,7 @@
       <c r="AE405" s="5"/>
       <c r="AF405" s="5"/>
     </row>
-    <row r="406" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:32" ht="15.75" customHeight="1">
       <c r="A406" s="5"/>
       <c r="B406" s="5"/>
       <c r="C406" s="5"/>
@@ -17862,7 +18172,7 @@
       <c r="AE406" s="5"/>
       <c r="AF406" s="5"/>
     </row>
-    <row r="407" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:32" ht="15.75" customHeight="1">
       <c r="A407" s="5"/>
       <c r="B407" s="5"/>
       <c r="C407" s="5"/>
@@ -17896,7 +18206,7 @@
       <c r="AE407" s="5"/>
       <c r="AF407" s="5"/>
     </row>
-    <row r="408" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:32" ht="15.75" customHeight="1">
       <c r="A408" s="5"/>
       <c r="B408" s="5"/>
       <c r="C408" s="5"/>
@@ -17930,7 +18240,7 @@
       <c r="AE408" s="5"/>
       <c r="AF408" s="5"/>
     </row>
-    <row r="409" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:32" ht="15.75" customHeight="1">
       <c r="A409" s="5"/>
       <c r="B409" s="5"/>
       <c r="C409" s="5"/>
@@ -17964,7 +18274,7 @@
       <c r="AE409" s="5"/>
       <c r="AF409" s="5"/>
     </row>
-    <row r="410" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:32" ht="15.75" customHeight="1">
       <c r="A410" s="5"/>
       <c r="B410" s="5"/>
       <c r="C410" s="5"/>
@@ -17998,7 +18308,7 @@
       <c r="AE410" s="5"/>
       <c r="AF410" s="5"/>
     </row>
-    <row r="411" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:32" ht="15.75" customHeight="1">
       <c r="A411" s="5"/>
       <c r="B411" s="5"/>
       <c r="C411" s="5"/>
@@ -18032,7 +18342,7 @@
       <c r="AE411" s="5"/>
       <c r="AF411" s="5"/>
     </row>
-    <row r="412" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:32" ht="15.75" customHeight="1">
       <c r="A412" s="5"/>
       <c r="B412" s="5"/>
       <c r="C412" s="5"/>
@@ -18066,7 +18376,7 @@
       <c r="AE412" s="5"/>
       <c r="AF412" s="5"/>
     </row>
-    <row r="413" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:32" ht="15.75" customHeight="1">
       <c r="A413" s="5"/>
       <c r="B413" s="5"/>
       <c r="C413" s="5"/>
@@ -18100,7 +18410,7 @@
       <c r="AE413" s="5"/>
       <c r="AF413" s="5"/>
     </row>
-    <row r="414" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:32" ht="15.75" customHeight="1">
       <c r="A414" s="5"/>
       <c r="B414" s="5"/>
       <c r="C414" s="5"/>
@@ -18134,7 +18444,7 @@
       <c r="AE414" s="5"/>
       <c r="AF414" s="5"/>
     </row>
-    <row r="415" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:32" ht="15.75" customHeight="1">
       <c r="A415" s="5"/>
       <c r="B415" s="5"/>
       <c r="C415" s="5"/>
@@ -18168,7 +18478,7 @@
       <c r="AE415" s="5"/>
       <c r="AF415" s="5"/>
     </row>
-    <row r="416" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:32" ht="15.75" customHeight="1">
       <c r="A416" s="5"/>
       <c r="B416" s="5"/>
       <c r="C416" s="5"/>
@@ -18202,7 +18512,7 @@
       <c r="AE416" s="5"/>
       <c r="AF416" s="5"/>
     </row>
-    <row r="417" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:32" ht="15.75" customHeight="1">
       <c r="A417" s="5"/>
       <c r="B417" s="5"/>
       <c r="C417" s="5"/>
@@ -18236,7 +18546,7 @@
       <c r="AE417" s="5"/>
       <c r="AF417" s="5"/>
     </row>
-    <row r="418" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:32" ht="15.75" customHeight="1">
       <c r="A418" s="5"/>
       <c r="B418" s="5"/>
       <c r="C418" s="5"/>
@@ -18270,7 +18580,7 @@
       <c r="AE418" s="5"/>
       <c r="AF418" s="5"/>
     </row>
-    <row r="419" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:32" ht="15.75" customHeight="1">
       <c r="A419" s="5"/>
       <c r="B419" s="5"/>
       <c r="C419" s="5"/>
@@ -18304,7 +18614,7 @@
       <c r="AE419" s="5"/>
       <c r="AF419" s="5"/>
     </row>
-    <row r="420" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:32" ht="15.75" customHeight="1">
       <c r="A420" s="5"/>
       <c r="B420" s="5"/>
       <c r="C420" s="5"/>
@@ -18338,7 +18648,7 @@
       <c r="AE420" s="5"/>
       <c r="AF420" s="5"/>
     </row>
-    <row r="421" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:32" ht="15.75" customHeight="1">
       <c r="A421" s="5"/>
       <c r="B421" s="5"/>
       <c r="C421" s="5"/>
@@ -18372,7 +18682,7 @@
       <c r="AE421" s="5"/>
       <c r="AF421" s="5"/>
     </row>
-    <row r="422" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:32" ht="15.75" customHeight="1">
       <c r="A422" s="5"/>
       <c r="B422" s="5"/>
       <c r="C422" s="5"/>
@@ -18406,7 +18716,7 @@
       <c r="AE422" s="5"/>
       <c r="AF422" s="5"/>
     </row>
-    <row r="423" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:32" ht="15.75" customHeight="1">
       <c r="A423" s="5"/>
       <c r="B423" s="5"/>
       <c r="C423" s="5"/>
@@ -18440,7 +18750,7 @@
       <c r="AE423" s="5"/>
       <c r="AF423" s="5"/>
     </row>
-    <row r="424" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:32" ht="15.75" customHeight="1">
       <c r="A424" s="5"/>
       <c r="B424" s="5"/>
       <c r="C424" s="5"/>
@@ -18474,7 +18784,7 @@
       <c r="AE424" s="5"/>
       <c r="AF424" s="5"/>
     </row>
-    <row r="425" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:32" ht="15.75" customHeight="1">
       <c r="A425" s="5"/>
       <c r="B425" s="5"/>
       <c r="C425" s="5"/>
@@ -18508,7 +18818,7 @@
       <c r="AE425" s="5"/>
       <c r="AF425" s="5"/>
     </row>
-    <row r="426" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:32" ht="15.75" customHeight="1">
       <c r="A426" s="5"/>
       <c r="B426" s="5"/>
       <c r="C426" s="5"/>
@@ -18542,7 +18852,7 @@
       <c r="AE426" s="5"/>
       <c r="AF426" s="5"/>
     </row>
-    <row r="427" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:32" ht="15.75" customHeight="1">
       <c r="A427" s="5"/>
       <c r="B427" s="5"/>
       <c r="C427" s="5"/>
@@ -18576,7 +18886,7 @@
       <c r="AE427" s="5"/>
       <c r="AF427" s="5"/>
     </row>
-    <row r="428" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:32" ht="15.75" customHeight="1">
       <c r="A428" s="5"/>
       <c r="B428" s="5"/>
       <c r="C428" s="5"/>
@@ -18610,7 +18920,7 @@
       <c r="AE428" s="5"/>
       <c r="AF428" s="5"/>
     </row>
-    <row r="429" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:32" ht="15.75" customHeight="1">
       <c r="A429" s="5"/>
       <c r="B429" s="5"/>
       <c r="C429" s="5"/>
@@ -18644,7 +18954,7 @@
       <c r="AE429" s="5"/>
       <c r="AF429" s="5"/>
     </row>
-    <row r="430" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:32" ht="15.75" customHeight="1">
       <c r="A430" s="5"/>
       <c r="B430" s="5"/>
       <c r="C430" s="5"/>
@@ -18678,7 +18988,7 @@
       <c r="AE430" s="5"/>
       <c r="AF430" s="5"/>
     </row>
-    <row r="431" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:32" ht="15.75" customHeight="1">
       <c r="A431" s="5"/>
       <c r="B431" s="5"/>
       <c r="C431" s="5"/>
@@ -18712,7 +19022,7 @@
       <c r="AE431" s="5"/>
       <c r="AF431" s="5"/>
     </row>
-    <row r="432" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:32" ht="15.75" customHeight="1">
       <c r="A432" s="5"/>
       <c r="B432" s="5"/>
       <c r="C432" s="5"/>
@@ -18746,7 +19056,7 @@
       <c r="AE432" s="5"/>
       <c r="AF432" s="5"/>
     </row>
-    <row r="433" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:32" ht="15.75" customHeight="1">
       <c r="A433" s="5"/>
       <c r="B433" s="5"/>
       <c r="C433" s="5"/>
@@ -18780,7 +19090,7 @@
       <c r="AE433" s="5"/>
       <c r="AF433" s="5"/>
     </row>
-    <row r="434" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:32" ht="15.75" customHeight="1">
       <c r="A434" s="5"/>
       <c r="B434" s="5"/>
       <c r="C434" s="5"/>
@@ -18814,7 +19124,7 @@
       <c r="AE434" s="5"/>
       <c r="AF434" s="5"/>
     </row>
-    <row r="435" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:32" ht="15.75" customHeight="1">
       <c r="A435" s="5"/>
       <c r="B435" s="5"/>
       <c r="C435" s="5"/>
@@ -18848,7 +19158,7 @@
       <c r="AE435" s="5"/>
       <c r="AF435" s="5"/>
     </row>
-    <row r="436" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:32" ht="15.75" customHeight="1">
       <c r="A436" s="5"/>
       <c r="B436" s="5"/>
       <c r="C436" s="5"/>
@@ -18882,7 +19192,7 @@
       <c r="AE436" s="5"/>
       <c r="AF436" s="5"/>
     </row>
-    <row r="437" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:32" ht="15.75" customHeight="1">
       <c r="A437" s="5"/>
       <c r="B437" s="5"/>
       <c r="C437" s="5"/>
@@ -18916,7 +19226,7 @@
       <c r="AE437" s="5"/>
       <c r="AF437" s="5"/>
     </row>
-    <row r="438" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:32" ht="15.75" customHeight="1">
       <c r="A438" s="5"/>
       <c r="B438" s="5"/>
       <c r="C438" s="5"/>
@@ -18950,7 +19260,7 @@
       <c r="AE438" s="5"/>
       <c r="AF438" s="5"/>
     </row>
-    <row r="439" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:32" ht="15.75" customHeight="1">
       <c r="A439" s="5"/>
       <c r="B439" s="5"/>
       <c r="C439" s="5"/>
@@ -18984,7 +19294,7 @@
       <c r="AE439" s="5"/>
       <c r="AF439" s="5"/>
     </row>
-    <row r="440" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:32" ht="15.75" customHeight="1">
       <c r="A440" s="5"/>
       <c r="B440" s="5"/>
       <c r="C440" s="5"/>
@@ -19018,7 +19328,7 @@
       <c r="AE440" s="5"/>
       <c r="AF440" s="5"/>
     </row>
-    <row r="441" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:32" ht="15.75" customHeight="1">
       <c r="A441" s="5"/>
       <c r="B441" s="5"/>
       <c r="C441" s="5"/>
@@ -19052,7 +19362,7 @@
       <c r="AE441" s="5"/>
       <c r="AF441" s="5"/>
     </row>
-    <row r="442" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:32" ht="15.75" customHeight="1">
       <c r="A442" s="5"/>
       <c r="B442" s="5"/>
       <c r="C442" s="5"/>
@@ -19086,7 +19396,7 @@
       <c r="AE442" s="5"/>
       <c r="AF442" s="5"/>
     </row>
-    <row r="443" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:32" ht="15.75" customHeight="1">
       <c r="A443" s="5"/>
       <c r="B443" s="5"/>
       <c r="C443" s="5"/>
@@ -19120,7 +19430,7 @@
       <c r="AE443" s="5"/>
       <c r="AF443" s="5"/>
     </row>
-    <row r="444" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:32" ht="15.75" customHeight="1">
       <c r="A444" s="5"/>
       <c r="B444" s="5"/>
       <c r="C444" s="5"/>
@@ -19154,7 +19464,7 @@
       <c r="AE444" s="5"/>
       <c r="AF444" s="5"/>
     </row>
-    <row r="445" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:32" ht="15.75" customHeight="1">
       <c r="A445" s="5"/>
       <c r="B445" s="5"/>
       <c r="C445" s="5"/>
@@ -19188,7 +19498,7 @@
       <c r="AE445" s="5"/>
       <c r="AF445" s="5"/>
     </row>
-    <row r="446" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:32" ht="15.75" customHeight="1">
       <c r="A446" s="5"/>
       <c r="B446" s="5"/>
       <c r="C446" s="5"/>
@@ -19222,7 +19532,7 @@
       <c r="AE446" s="5"/>
       <c r="AF446" s="5"/>
     </row>
-    <row r="447" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:32" ht="15.75" customHeight="1">
       <c r="A447" s="5"/>
       <c r="B447" s="5"/>
       <c r="C447" s="5"/>
@@ -19256,7 +19566,7 @@
       <c r="AE447" s="5"/>
       <c r="AF447" s="5"/>
     </row>
-    <row r="448" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:32" ht="15.75" customHeight="1">
       <c r="A448" s="5"/>
       <c r="B448" s="5"/>
       <c r="C448" s="5"/>
@@ -19290,7 +19600,7 @@
       <c r="AE448" s="5"/>
       <c r="AF448" s="5"/>
     </row>
-    <row r="449" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:32" ht="15.75" customHeight="1">
       <c r="A449" s="5"/>
       <c r="B449" s="5"/>
       <c r="C449" s="5"/>
@@ -19324,7 +19634,7 @@
       <c r="AE449" s="5"/>
       <c r="AF449" s="5"/>
     </row>
-    <row r="450" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:32" ht="15.75" customHeight="1">
       <c r="A450" s="5"/>
       <c r="B450" s="5"/>
       <c r="C450" s="5"/>
@@ -19358,7 +19668,7 @@
       <c r="AE450" s="5"/>
       <c r="AF450" s="5"/>
     </row>
-    <row r="451" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:32" ht="15.75" customHeight="1">
       <c r="A451" s="5"/>
       <c r="B451" s="5"/>
       <c r="C451" s="5"/>
@@ -19392,7 +19702,7 @@
       <c r="AE451" s="5"/>
       <c r="AF451" s="5"/>
     </row>
-    <row r="452" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:32" ht="15.75" customHeight="1">
       <c r="A452" s="5"/>
       <c r="B452" s="5"/>
       <c r="C452" s="5"/>
@@ -19426,7 +19736,7 @@
       <c r="AE452" s="5"/>
       <c r="AF452" s="5"/>
     </row>
-    <row r="453" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:32" ht="15.75" customHeight="1">
       <c r="A453" s="5"/>
       <c r="B453" s="5"/>
       <c r="C453" s="5"/>
@@ -19460,7 +19770,7 @@
       <c r="AE453" s="5"/>
       <c r="AF453" s="5"/>
     </row>
-    <row r="454" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:32" ht="15.75" customHeight="1">
       <c r="A454" s="5"/>
       <c r="B454" s="5"/>
       <c r="C454" s="5"/>
@@ -19494,7 +19804,7 @@
       <c r="AE454" s="5"/>
       <c r="AF454" s="5"/>
     </row>
-    <row r="455" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:32" ht="15.75" customHeight="1">
       <c r="A455" s="5"/>
       <c r="B455" s="5"/>
       <c r="C455" s="5"/>
@@ -19528,7 +19838,7 @@
       <c r="AE455" s="5"/>
       <c r="AF455" s="5"/>
     </row>
-    <row r="456" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:32" ht="15.75" customHeight="1">
       <c r="A456" s="5"/>
       <c r="B456" s="5"/>
       <c r="C456" s="5"/>
@@ -19562,7 +19872,7 @@
       <c r="AE456" s="5"/>
       <c r="AF456" s="5"/>
     </row>
-    <row r="457" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:32" ht="15.75" customHeight="1">
       <c r="A457" s="5"/>
       <c r="B457" s="5"/>
       <c r="C457" s="5"/>
@@ -19596,7 +19906,7 @@
       <c r="AE457" s="5"/>
       <c r="AF457" s="5"/>
     </row>
-    <row r="458" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:32" ht="15.75" customHeight="1">
       <c r="A458" s="5"/>
       <c r="B458" s="5"/>
       <c r="C458" s="5"/>
@@ -19630,7 +19940,7 @@
       <c r="AE458" s="5"/>
       <c r="AF458" s="5"/>
     </row>
-    <row r="459" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:32" ht="15.75" customHeight="1">
       <c r="A459" s="5"/>
       <c r="B459" s="5"/>
       <c r="C459" s="5"/>
@@ -19664,7 +19974,7 @@
       <c r="AE459" s="5"/>
       <c r="AF459" s="5"/>
     </row>
-    <row r="460" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:32" ht="15.75" customHeight="1">
       <c r="A460" s="5"/>
       <c r="B460" s="5"/>
       <c r="C460" s="5"/>
@@ -19698,7 +20008,7 @@
       <c r="AE460" s="5"/>
       <c r="AF460" s="5"/>
     </row>
-    <row r="461" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:32" ht="15.75" customHeight="1">
       <c r="A461" s="5"/>
       <c r="B461" s="5"/>
       <c r="C461" s="5"/>
@@ -19732,7 +20042,7 @@
       <c r="AE461" s="5"/>
       <c r="AF461" s="5"/>
     </row>
-    <row r="462" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:32" ht="15.75" customHeight="1">
       <c r="A462" s="5"/>
       <c r="B462" s="5"/>
       <c r="C462" s="5"/>
@@ -19766,7 +20076,7 @@
       <c r="AE462" s="5"/>
       <c r="AF462" s="5"/>
     </row>
-    <row r="463" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:32" ht="15.75" customHeight="1">
       <c r="A463" s="5"/>
       <c r="B463" s="5"/>
       <c r="C463" s="5"/>
@@ -19800,7 +20110,7 @@
       <c r="AE463" s="5"/>
       <c r="AF463" s="5"/>
     </row>
-    <row r="464" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:32" ht="15.75" customHeight="1">
       <c r="A464" s="5"/>
       <c r="B464" s="5"/>
       <c r="C464" s="5"/>
@@ -19834,7 +20144,7 @@
       <c r="AE464" s="5"/>
       <c r="AF464" s="5"/>
     </row>
-    <row r="465" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:32" ht="15.75" customHeight="1">
       <c r="A465" s="5"/>
       <c r="B465" s="5"/>
       <c r="C465" s="5"/>
@@ -19868,7 +20178,7 @@
       <c r="AE465" s="5"/>
       <c r="AF465" s="5"/>
     </row>
-    <row r="466" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:32" ht="15.75" customHeight="1">
       <c r="A466" s="5"/>
       <c r="B466" s="5"/>
       <c r="C466" s="5"/>
@@ -19902,7 +20212,7 @@
       <c r="AE466" s="5"/>
       <c r="AF466" s="5"/>
     </row>
-    <row r="467" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:32" ht="15.75" customHeight="1">
       <c r="A467" s="5"/>
       <c r="B467" s="5"/>
       <c r="C467" s="5"/>
@@ -19936,7 +20246,7 @@
       <c r="AE467" s="5"/>
       <c r="AF467" s="5"/>
     </row>
-    <row r="468" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:32" ht="15.75" customHeight="1">
       <c r="A468" s="5"/>
       <c r="B468" s="5"/>
       <c r="C468" s="5"/>
@@ -19970,7 +20280,7 @@
       <c r="AE468" s="5"/>
       <c r="AF468" s="5"/>
     </row>
-    <row r="469" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:32" ht="15.75" customHeight="1">
       <c r="A469" s="5"/>
       <c r="B469" s="5"/>
       <c r="C469" s="5"/>
@@ -20004,7 +20314,7 @@
       <c r="AE469" s="5"/>
       <c r="AF469" s="5"/>
     </row>
-    <row r="470" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:32" ht="15.75" customHeight="1">
       <c r="A470" s="5"/>
       <c r="B470" s="5"/>
       <c r="C470" s="5"/>
@@ -20038,7 +20348,7 @@
       <c r="AE470" s="5"/>
       <c r="AF470" s="5"/>
     </row>
-    <row r="471" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:32" ht="15.75" customHeight="1">
       <c r="A471" s="5"/>
       <c r="B471" s="5"/>
       <c r="C471" s="5"/>
@@ -20072,7 +20382,7 @@
       <c r="AE471" s="5"/>
       <c r="AF471" s="5"/>
     </row>
-    <row r="472" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:32" ht="15.75" customHeight="1">
       <c r="A472" s="5"/>
       <c r="B472" s="5"/>
       <c r="C472" s="5"/>
@@ -20106,7 +20416,7 @@
       <c r="AE472" s="5"/>
       <c r="AF472" s="5"/>
     </row>
-    <row r="473" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:32" ht="15.75" customHeight="1">
       <c r="A473" s="5"/>
       <c r="B473" s="5"/>
       <c r="C473" s="5"/>
@@ -20140,7 +20450,7 @@
       <c r="AE473" s="5"/>
       <c r="AF473" s="5"/>
     </row>
-    <row r="474" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:32" ht="15.75" customHeight="1">
       <c r="A474" s="5"/>
       <c r="B474" s="5"/>
       <c r="C474" s="5"/>
@@ -20174,7 +20484,7 @@
       <c r="AE474" s="5"/>
       <c r="AF474" s="5"/>
     </row>
-    <row r="475" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:32" ht="15.75" customHeight="1">
       <c r="A475" s="5"/>
       <c r="B475" s="5"/>
       <c r="C475" s="5"/>
@@ -20208,7 +20518,7 @@
       <c r="AE475" s="5"/>
       <c r="AF475" s="5"/>
     </row>
-    <row r="476" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:32" ht="15.75" customHeight="1">
       <c r="A476" s="5"/>
       <c r="B476" s="5"/>
       <c r="C476" s="5"/>
@@ -20242,7 +20552,7 @@
       <c r="AE476" s="5"/>
       <c r="AF476" s="5"/>
     </row>
-    <row r="477" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:32" ht="15.75" customHeight="1">
       <c r="A477" s="5"/>
       <c r="B477" s="5"/>
       <c r="C477" s="5"/>
@@ -20276,7 +20586,7 @@
       <c r="AE477" s="5"/>
       <c r="AF477" s="5"/>
     </row>
-    <row r="478" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:32" ht="15.75" customHeight="1">
       <c r="A478" s="5"/>
       <c r="B478" s="5"/>
       <c r="C478" s="5"/>
@@ -20310,7 +20620,7 @@
       <c r="AE478" s="5"/>
       <c r="AF478" s="5"/>
     </row>
-    <row r="479" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:32" ht="15.75" customHeight="1">
       <c r="A479" s="5"/>
       <c r="B479" s="5"/>
       <c r="C479" s="5"/>
@@ -20344,7 +20654,7 @@
       <c r="AE479" s="5"/>
       <c r="AF479" s="5"/>
     </row>
-    <row r="480" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:32" ht="15.75" customHeight="1">
       <c r="A480" s="5"/>
       <c r="B480" s="5"/>
       <c r="C480" s="5"/>
@@ -20378,7 +20688,7 @@
       <c r="AE480" s="5"/>
       <c r="AF480" s="5"/>
     </row>
-    <row r="481" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:32" ht="15.75" customHeight="1">
       <c r="A481" s="5"/>
       <c r="B481" s="5"/>
       <c r="C481" s="5"/>
@@ -20412,7 +20722,7 @@
       <c r="AE481" s="5"/>
       <c r="AF481" s="5"/>
     </row>
-    <row r="482" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:32" ht="15.75" customHeight="1">
       <c r="A482" s="5"/>
       <c r="B482" s="5"/>
       <c r="C482" s="5"/>
@@ -20446,7 +20756,7 @@
       <c r="AE482" s="5"/>
       <c r="AF482" s="5"/>
     </row>
-    <row r="483" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:32" ht="15.75" customHeight="1">
       <c r="A483" s="5"/>
       <c r="B483" s="5"/>
       <c r="C483" s="5"/>
@@ -20480,7 +20790,7 @@
       <c r="AE483" s="5"/>
       <c r="AF483" s="5"/>
     </row>
-    <row r="484" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:32" ht="15.75" customHeight="1">
       <c r="A484" s="5"/>
       <c r="B484" s="5"/>
       <c r="C484" s="5"/>
@@ -20514,7 +20824,7 @@
       <c r="AE484" s="5"/>
       <c r="AF484" s="5"/>
     </row>
-    <row r="485" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:32" ht="15.75" customHeight="1">
       <c r="A485" s="5"/>
       <c r="B485" s="5"/>
       <c r="C485" s="5"/>
@@ -20548,7 +20858,7 @@
       <c r="AE485" s="5"/>
       <c r="AF485" s="5"/>
     </row>
-    <row r="486" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:32" ht="15.75" customHeight="1">
       <c r="A486" s="5"/>
       <c r="B486" s="5"/>
       <c r="C486" s="5"/>
@@ -20582,7 +20892,7 @@
       <c r="AE486" s="5"/>
       <c r="AF486" s="5"/>
     </row>
-    <row r="487" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:32" ht="15.75" customHeight="1">
       <c r="A487" s="5"/>
       <c r="B487" s="5"/>
       <c r="C487" s="5"/>
@@ -20616,7 +20926,7 @@
       <c r="AE487" s="5"/>
       <c r="AF487" s="5"/>
     </row>
-    <row r="488" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:32" ht="15.75" customHeight="1">
       <c r="A488" s="5"/>
       <c r="B488" s="5"/>
       <c r="C488" s="5"/>
@@ -20650,7 +20960,7 @@
       <c r="AE488" s="5"/>
       <c r="AF488" s="5"/>
     </row>
-    <row r="489" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:32" ht="15.75" customHeight="1">
       <c r="A489" s="5"/>
       <c r="B489" s="5"/>
       <c r="C489" s="5"/>
@@ -20684,7 +20994,7 @@
       <c r="AE489" s="5"/>
       <c r="AF489" s="5"/>
     </row>
-    <row r="490" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:32" ht="15.75" customHeight="1">
       <c r="A490" s="5"/>
       <c r="B490" s="5"/>
       <c r="C490" s="5"/>
@@ -20718,7 +21028,7 @@
       <c r="AE490" s="5"/>
       <c r="AF490" s="5"/>
     </row>
-    <row r="491" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:32" ht="15.75" customHeight="1">
       <c r="A491" s="5"/>
       <c r="B491" s="5"/>
       <c r="C491" s="5"/>
@@ -20752,7 +21062,7 @@
       <c r="AE491" s="5"/>
       <c r="AF491" s="5"/>
     </row>
-    <row r="492" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:32" ht="15.75" customHeight="1">
       <c r="A492" s="5"/>
       <c r="B492" s="5"/>
       <c r="C492" s="5"/>
@@ -20786,7 +21096,7 @@
       <c r="AE492" s="5"/>
       <c r="AF492" s="5"/>
     </row>
-    <row r="493" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:32" ht="15.75" customHeight="1">
       <c r="A493" s="5"/>
       <c r="B493" s="5"/>
       <c r="C493" s="5"/>
@@ -20820,7 +21130,7 @@
       <c r="AE493" s="5"/>
       <c r="AF493" s="5"/>
     </row>
-    <row r="494" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:32" ht="15.75" customHeight="1">
       <c r="A494" s="5"/>
       <c r="B494" s="5"/>
       <c r="C494" s="5"/>
@@ -20854,7 +21164,7 @@
       <c r="AE494" s="5"/>
       <c r="AF494" s="5"/>
     </row>
-    <row r="495" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:32" ht="15.75" customHeight="1">
       <c r="A495" s="5"/>
       <c r="B495" s="5"/>
       <c r="C495" s="5"/>
@@ -20888,7 +21198,7 @@
       <c r="AE495" s="5"/>
       <c r="AF495" s="5"/>
     </row>
-    <row r="496" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:32" ht="15.75" customHeight="1">
       <c r="A496" s="5"/>
       <c r="B496" s="5"/>
       <c r="C496" s="5"/>
@@ -20922,7 +21232,7 @@
       <c r="AE496" s="5"/>
       <c r="AF496" s="5"/>
     </row>
-    <row r="497" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:32" ht="15.75" customHeight="1">
       <c r="A497" s="5"/>
       <c r="B497" s="5"/>
       <c r="C497" s="5"/>
@@ -20956,7 +21266,7 @@
       <c r="AE497" s="5"/>
       <c r="AF497" s="5"/>
     </row>
-    <row r="498" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:32" ht="15.75" customHeight="1">
       <c r="A498" s="5"/>
       <c r="B498" s="5"/>
       <c r="C498" s="5"/>
@@ -20990,7 +21300,7 @@
       <c r="AE498" s="5"/>
       <c r="AF498" s="5"/>
     </row>
-    <row r="499" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:32" ht="15.75" customHeight="1">
       <c r="A499" s="5"/>
       <c r="B499" s="5"/>
       <c r="C499" s="5"/>
@@ -21024,7 +21334,7 @@
       <c r="AE499" s="5"/>
       <c r="AF499" s="5"/>
     </row>
-    <row r="500" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:32" ht="15.75" customHeight="1">
       <c r="A500" s="5"/>
       <c r="B500" s="5"/>
       <c r="C500" s="5"/>
@@ -21058,7 +21368,7 @@
       <c r="AE500" s="5"/>
       <c r="AF500" s="5"/>
     </row>
-    <row r="501" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:32" ht="15.75" customHeight="1">
       <c r="A501" s="5"/>
       <c r="B501" s="5"/>
       <c r="C501" s="5"/>
@@ -21092,7 +21402,7 @@
       <c r="AE501" s="5"/>
       <c r="AF501" s="5"/>
     </row>
-    <row r="502" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:32" ht="15.75" customHeight="1">
       <c r="A502" s="5"/>
       <c r="B502" s="5"/>
       <c r="C502" s="5"/>
@@ -21126,7 +21436,7 @@
       <c r="AE502" s="5"/>
       <c r="AF502" s="5"/>
     </row>
-    <row r="503" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:32" ht="15.75" customHeight="1">
       <c r="A503" s="5"/>
       <c r="B503" s="5"/>
       <c r="C503" s="5"/>
@@ -21160,7 +21470,7 @@
       <c r="AE503" s="5"/>
       <c r="AF503" s="5"/>
     </row>
-    <row r="504" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:32" ht="15.75" customHeight="1">
       <c r="A504" s="5"/>
       <c r="B504" s="5"/>
       <c r="C504" s="5"/>
@@ -21194,7 +21504,7 @@
       <c r="AE504" s="5"/>
       <c r="AF504" s="5"/>
     </row>
-    <row r="505" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:32" ht="15.75" customHeight="1">
       <c r="A505" s="5"/>
       <c r="B505" s="5"/>
       <c r="C505" s="5"/>
@@ -21228,7 +21538,7 @@
       <c r="AE505" s="5"/>
       <c r="AF505" s="5"/>
     </row>
-    <row r="506" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:32" ht="15.75" customHeight="1">
       <c r="A506" s="5"/>
       <c r="B506" s="5"/>
       <c r="C506" s="5"/>
@@ -21262,7 +21572,7 @@
       <c r="AE506" s="5"/>
       <c r="AF506" s="5"/>
     </row>
-    <row r="507" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:32" ht="15.75" customHeight="1">
       <c r="A507" s="5"/>
       <c r="B507" s="5"/>
       <c r="C507" s="5"/>
@@ -21296,7 +21606,7 @@
       <c r="AE507" s="5"/>
       <c r="AF507" s="5"/>
     </row>
-    <row r="508" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:32" ht="15.75" customHeight="1">
       <c r="A508" s="5"/>
       <c r="B508" s="5"/>
       <c r="C508" s="5"/>
@@ -21330,7 +21640,7 @@
       <c r="AE508" s="5"/>
       <c r="AF508" s="5"/>
     </row>
-    <row r="509" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:32" ht="15.75" customHeight="1">
       <c r="A509" s="5"/>
       <c r="B509" s="5"/>
       <c r="C509" s="5"/>
@@ -21364,7 +21674,7 @@
       <c r="AE509" s="5"/>
       <c r="AF509" s="5"/>
     </row>
-    <row r="510" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:32" ht="15.75" customHeight="1">
       <c r="A510" s="5"/>
       <c r="B510" s="5"/>
       <c r="C510" s="5"/>
@@ -21398,7 +21708,7 @@
       <c r="AE510" s="5"/>
       <c r="AF510" s="5"/>
     </row>
-    <row r="511" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:32" ht="15.75" customHeight="1">
       <c r="A511" s="5"/>
       <c r="B511" s="5"/>
       <c r="C511" s="5"/>
@@ -21432,7 +21742,7 @@
       <c r="AE511" s="5"/>
       <c r="AF511" s="5"/>
     </row>
-    <row r="512" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:32" ht="15.75" customHeight="1">
       <c r="A512" s="5"/>
       <c r="B512" s="5"/>
       <c r="C512" s="5"/>
@@ -21466,7 +21776,7 @@
       <c r="AE512" s="5"/>
       <c r="AF512" s="5"/>
     </row>
-    <row r="513" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:32" ht="15.75" customHeight="1">
       <c r="A513" s="5"/>
       <c r="B513" s="5"/>
       <c r="C513" s="5"/>
@@ -21500,7 +21810,7 @@
       <c r="AE513" s="5"/>
       <c r="AF513" s="5"/>
     </row>
-    <row r="514" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:32" ht="15.75" customHeight="1">
       <c r="A514" s="5"/>
       <c r="B514" s="5"/>
       <c r="C514" s="5"/>
@@ -21534,7 +21844,7 @@
       <c r="AE514" s="5"/>
       <c r="AF514" s="5"/>
     </row>
-    <row r="515" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:32" ht="15.75" customHeight="1">
       <c r="A515" s="5"/>
       <c r="B515" s="5"/>
       <c r="C515" s="5"/>
@@ -21568,7 +21878,7 @@
       <c r="AE515" s="5"/>
       <c r="AF515" s="5"/>
     </row>
-    <row r="516" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:32" ht="15.75" customHeight="1">
       <c r="A516" s="5"/>
       <c r="B516" s="5"/>
       <c r="C516" s="5"/>
@@ -21602,7 +21912,7 @@
       <c r="AE516" s="5"/>
       <c r="AF516" s="5"/>
     </row>
-    <row r="517" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:32" ht="15.75" customHeight="1">
       <c r="A517" s="5"/>
       <c r="B517" s="5"/>
       <c r="C517" s="5"/>
@@ -21636,7 +21946,7 @@
       <c r="AE517" s="5"/>
       <c r="AF517" s="5"/>
     </row>
-    <row r="518" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:32" ht="15.75" customHeight="1">
       <c r="A518" s="5"/>
       <c r="B518" s="5"/>
       <c r="C518" s="5"/>
@@ -21670,7 +21980,7 @@
       <c r="AE518" s="5"/>
       <c r="AF518" s="5"/>
     </row>
-    <row r="519" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:32" ht="15.75" customHeight="1">
       <c r="A519" s="5"/>
       <c r="B519" s="5"/>
       <c r="C519" s="5"/>
@@ -21704,7 +22014,7 @@
       <c r="AE519" s="5"/>
       <c r="AF519" s="5"/>
     </row>
-    <row r="520" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:32" ht="15.75" customHeight="1">
       <c r="A520" s="5"/>
       <c r="B520" s="5"/>
       <c r="C520" s="5"/>
@@ -21738,7 +22048,7 @@
       <c r="AE520" s="5"/>
       <c r="AF520" s="5"/>
     </row>
-    <row r="521" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:32" ht="15.75" customHeight="1">
       <c r="A521" s="5"/>
       <c r="B521" s="5"/>
       <c r="C521" s="5"/>
@@ -21772,7 +22082,7 @@
       <c r="AE521" s="5"/>
       <c r="AF521" s="5"/>
     </row>
-    <row r="522" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:32" ht="15.75" customHeight="1">
       <c r="A522" s="5"/>
       <c r="B522" s="5"/>
       <c r="C522" s="5"/>
@@ -21806,7 +22116,7 @@
       <c r="AE522" s="5"/>
       <c r="AF522" s="5"/>
     </row>
-    <row r="523" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:32" ht="15.75" customHeight="1">
       <c r="A523" s="5"/>
       <c r="B523" s="5"/>
       <c r="C523" s="5"/>
@@ -21840,7 +22150,7 @@
       <c r="AE523" s="5"/>
       <c r="AF523" s="5"/>
     </row>
-    <row r="524" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:32" ht="15.75" customHeight="1">
       <c r="A524" s="5"/>
       <c r="B524" s="5"/>
       <c r="C524" s="5"/>
@@ -21874,7 +22184,7 @@
       <c r="AE524" s="5"/>
       <c r="AF524" s="5"/>
     </row>
-    <row r="525" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:32" ht="15.75" customHeight="1">
       <c r="A525" s="5"/>
       <c r="B525" s="5"/>
       <c r="C525" s="5"/>
@@ -21908,7 +22218,7 @@
       <c r="AE525" s="5"/>
       <c r="AF525" s="5"/>
     </row>
-    <row r="526" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:32" ht="15.75" customHeight="1">
       <c r="A526" s="5"/>
       <c r="B526" s="5"/>
       <c r="C526" s="5"/>
@@ -21942,7 +22252,7 @@
       <c r="AE526" s="5"/>
       <c r="AF526" s="5"/>
     </row>
-    <row r="527" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:32" ht="15.75" customHeight="1">
       <c r="A527" s="5"/>
       <c r="B527" s="5"/>
       <c r="C527" s="5"/>
@@ -21976,7 +22286,7 @@
       <c r="AE527" s="5"/>
       <c r="AF527" s="5"/>
     </row>
-    <row r="528" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:32" ht="15.75" customHeight="1">
       <c r="A528" s="5"/>
       <c r="B528" s="5"/>
       <c r="C528" s="5"/>
@@ -22010,7 +22320,7 @@
       <c r="AE528" s="5"/>
       <c r="AF528" s="5"/>
     </row>
-    <row r="529" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:32" ht="15.75" customHeight="1">
       <c r="A529" s="5"/>
       <c r="B529" s="5"/>
       <c r="C529" s="5"/>
@@ -22044,7 +22354,7 @@
       <c r="AE529" s="5"/>
       <c r="AF529" s="5"/>
     </row>
-    <row r="530" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:32" ht="15.75" customHeight="1">
       <c r="A530" s="5"/>
       <c r="B530" s="5"/>
       <c r="C530" s="5"/>
@@ -22078,7 +22388,7 @@
       <c r="AE530" s="5"/>
       <c r="AF530" s="5"/>
     </row>
-    <row r="531" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:32" ht="15.75" customHeight="1">
       <c r="A531" s="5"/>
       <c r="B531" s="5"/>
       <c r="C531" s="5"/>
@@ -22112,7 +22422,7 @@
       <c r="AE531" s="5"/>
       <c r="AF531" s="5"/>
     </row>
-    <row r="532" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:32" ht="15.75" customHeight="1">
       <c r="A532" s="5"/>
       <c r="B532" s="5"/>
       <c r="C532" s="5"/>
@@ -22146,7 +22456,7 @@
       <c r="AE532" s="5"/>
       <c r="AF532" s="5"/>
     </row>
-    <row r="533" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:32" ht="15.75" customHeight="1">
       <c r="A533" s="5"/>
       <c r="B533" s="5"/>
       <c r="C533" s="5"/>
@@ -22180,7 +22490,7 @@
       <c r="AE533" s="5"/>
       <c r="AF533" s="5"/>
     </row>
-    <row r="534" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:32" ht="15.75" customHeight="1">
       <c r="A534" s="5"/>
       <c r="B534" s="5"/>
       <c r="C534" s="5"/>
@@ -22214,7 +22524,7 @@
       <c r="AE534" s="5"/>
       <c r="AF534" s="5"/>
     </row>
-    <row r="535" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:32" ht="15.75" customHeight="1">
       <c r="A535" s="5"/>
       <c r="B535" s="5"/>
       <c r="C535" s="5"/>
@@ -22248,7 +22558,7 @@
       <c r="AE535" s="5"/>
       <c r="AF535" s="5"/>
     </row>
-    <row r="536" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:32" ht="15.75" customHeight="1">
       <c r="A536" s="5"/>
       <c r="B536" s="5"/>
       <c r="C536" s="5"/>
@@ -22282,7 +22592,7 @@
       <c r="AE536" s="5"/>
       <c r="AF536" s="5"/>
     </row>
-    <row r="537" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:32" ht="15.75" customHeight="1">
       <c r="A537" s="5"/>
       <c r="B537" s="5"/>
       <c r="C537" s="5"/>
@@ -22316,7 +22626,7 @@
       <c r="AE537" s="5"/>
       <c r="AF537" s="5"/>
     </row>
-    <row r="538" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:32" ht="15.75" customHeight="1">
       <c r="A538" s="5"/>
       <c r="B538" s="5"/>
       <c r="C538" s="5"/>
@@ -22350,7 +22660,7 @@
       <c r="AE538" s="5"/>
       <c r="AF538" s="5"/>
     </row>
-    <row r="539" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:32" ht="15.75" customHeight="1">
       <c r="A539" s="5"/>
       <c r="B539" s="5"/>
       <c r="C539" s="5"/>
@@ -22384,7 +22694,7 @@
       <c r="AE539" s="5"/>
       <c r="AF539" s="5"/>
     </row>
-    <row r="540" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:32" ht="15.75" customHeight="1">
       <c r="A540" s="5"/>
       <c r="B540" s="5"/>
       <c r="C540" s="5"/>
@@ -22418,7 +22728,7 @@
       <c r="AE540" s="5"/>
       <c r="AF540" s="5"/>
     </row>
-    <row r="541" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:32" ht="15.75" customHeight="1">
       <c r="A541" s="5"/>
       <c r="B541" s="5"/>
       <c r="C541" s="5"/>
@@ -22452,7 +22762,7 @@
       <c r="AE541" s="5"/>
       <c r="AF541" s="5"/>
     </row>
-    <row r="542" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:32" ht="15.75" customHeight="1">
       <c r="A542" s="5"/>
       <c r="B542" s="5"/>
       <c r="C542" s="5"/>
@@ -22486,7 +22796,7 @@
       <c r="AE542" s="5"/>
       <c r="AF542" s="5"/>
     </row>
-    <row r="543" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:32" ht="15.75" customHeight="1">
       <c r="A543" s="5"/>
       <c r="B543" s="5"/>
       <c r="C543" s="5"/>
@@ -22520,7 +22830,7 @@
       <c r="AE543" s="5"/>
       <c r="AF543" s="5"/>
     </row>
-    <row r="544" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:32" ht="15.75" customHeight="1">
       <c r="A544" s="5"/>
       <c r="B544" s="5"/>
       <c r="C544" s="5"/>
@@ -22554,7 +22864,7 @@
       <c r="AE544" s="5"/>
       <c r="AF544" s="5"/>
     </row>
-    <row r="545" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:32" ht="15.75" customHeight="1">
       <c r="A545" s="5"/>
       <c r="B545" s="5"/>
       <c r="C545" s="5"/>
@@ -22588,7 +22898,7 @@
       <c r="AE545" s="5"/>
       <c r="AF545" s="5"/>
     </row>
-    <row r="546" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:32" ht="15.75" customHeight="1">
       <c r="A546" s="5"/>
       <c r="B546" s="5"/>
       <c r="C546" s="5"/>
@@ -22622,7 +22932,7 @@
       <c r="AE546" s="5"/>
       <c r="AF546" s="5"/>
     </row>
-    <row r="547" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:32" ht="15.75" customHeight="1">
       <c r="A547" s="5"/>
       <c r="B547" s="5"/>
       <c r="C547" s="5"/>
@@ -22656,7 +22966,7 @@
       <c r="AE547" s="5"/>
       <c r="AF547" s="5"/>
     </row>
-    <row r="548" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:32" ht="15.75" customHeight="1">
       <c r="A548" s="5"/>
       <c r="B548" s="5"/>
       <c r="C548" s="5"/>
@@ -22690,7 +23000,7 @@
       <c r="AE548" s="5"/>
       <c r="AF548" s="5"/>
     </row>
-    <row r="549" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:32" ht="15.75" customHeight="1">
       <c r="A549" s="5"/>
       <c r="B549" s="5"/>
       <c r="C549" s="5"/>
@@ -22724,7 +23034,7 @@
       <c r="AE549" s="5"/>
       <c r="AF549" s="5"/>
     </row>
-    <row r="550" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:32" ht="15.75" customHeight="1">
       <c r="A550" s="5"/>
       <c r="B550" s="5"/>
       <c r="C550" s="5"/>
@@ -22758,7 +23068,7 @@
       <c r="AE550" s="5"/>
       <c r="AF550" s="5"/>
     </row>
-    <row r="551" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:32" ht="15.75" customHeight="1">
       <c r="A551" s="5"/>
       <c r="B551" s="5"/>
       <c r="C551" s="5"/>
@@ -22792,7 +23102,7 @@
       <c r="AE551" s="5"/>
       <c r="AF551" s="5"/>
     </row>
-    <row r="552" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:32" ht="15.75" customHeight="1">
       <c r="A552" s="5"/>
       <c r="B552" s="5"/>
       <c r="C552" s="5"/>
@@ -22826,7 +23136,7 @@
       <c r="AE552" s="5"/>
       <c r="AF552" s="5"/>
     </row>
-    <row r="553" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:32" ht="15.75" customHeight="1">
       <c r="A553" s="5"/>
       <c r="B553" s="5"/>
       <c r="C553" s="5"/>
@@ -22860,7 +23170,7 @@
       <c r="AE553" s="5"/>
       <c r="AF553" s="5"/>
     </row>
-    <row r="554" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:32" ht="15.75" customHeight="1">
       <c r="A554" s="5"/>
       <c r="B554" s="5"/>
       <c r="C554" s="5"/>
@@ -22894,7 +23204,7 @@
       <c r="AE554" s="5"/>
       <c r="AF554" s="5"/>
     </row>
-    <row r="555" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:32" ht="15.75" customHeight="1">
       <c r="A555" s="5"/>
       <c r="B555" s="5"/>
       <c r="C555" s="5"/>
@@ -22928,7 +23238,7 @@
       <c r="AE555" s="5"/>
       <c r="AF555" s="5"/>
     </row>
-    <row r="556" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:32" ht="15.75" customHeight="1">
       <c r="A556" s="5"/>
       <c r="B556" s="5"/>
       <c r="C556" s="5"/>
@@ -22962,7 +23272,7 @@
       <c r="AE556" s="5"/>
       <c r="AF556" s="5"/>
     </row>
-    <row r="557" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:32" ht="15.75" customHeight="1">
       <c r="A557" s="5"/>
       <c r="B557" s="5"/>
       <c r="C557" s="5"/>
@@ -22996,7 +23306,7 @@
       <c r="AE557" s="5"/>
       <c r="AF557" s="5"/>
     </row>
-    <row r="558" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:32" ht="15.75" customHeight="1">
       <c r="A558" s="5"/>
       <c r="B558" s="5"/>
       <c r="C558" s="5"/>
@@ -23030,7 +23340,7 @@
       <c r="AE558" s="5"/>
       <c r="AF558" s="5"/>
     </row>
-    <row r="559" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:32" ht="15.75" customHeight="1">
       <c r="A559" s="5"/>
       <c r="B559" s="5"/>
       <c r="C559" s="5"/>
@@ -23064,7 +23374,7 @@
       <c r="AE559" s="5"/>
       <c r="AF559" s="5"/>
     </row>
-    <row r="560" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:32" ht="15.75" customHeight="1">
       <c r="A560" s="5"/>
       <c r="B560" s="5"/>
       <c r="C560" s="5"/>
@@ -23098,7 +23408,7 @@
       <c r="AE560" s="5"/>
       <c r="AF560" s="5"/>
     </row>
-    <row r="561" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:32" ht="15.75" customHeight="1">
       <c r="A561" s="5"/>
       <c r="B561" s="5"/>
       <c r="C561" s="5"/>
@@ -23132,7 +23442,7 @@
       <c r="AE561" s="5"/>
       <c r="AF561" s="5"/>
     </row>
-    <row r="562" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:32" ht="15.75" customHeight="1">
       <c r="A562" s="5"/>
       <c r="B562" s="5"/>
       <c r="C562" s="5"/>
@@ -23166,7 +23476,7 @@
       <c r="AE562" s="5"/>
       <c r="AF562" s="5"/>
     </row>
-    <row r="563" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:32" ht="15.75" customHeight="1">
       <c r="A563" s="5"/>
       <c r="B563" s="5"/>
       <c r="C563" s="5"/>
@@ -23200,7 +23510,7 @@
       <c r="AE563" s="5"/>
       <c r="AF563" s="5"/>
     </row>
-    <row r="564" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:32" ht="15.75" customHeight="1">
       <c r="A564" s="5"/>
       <c r="B564" s="5"/>
       <c r="C564" s="5"/>
@@ -23234,7 +23544,7 @@
       <c r="AE564" s="5"/>
       <c r="AF564" s="5"/>
     </row>
-    <row r="565" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:32" ht="15.75" customHeight="1">
       <c r="A565" s="5"/>
       <c r="B565" s="5"/>
       <c r="C565" s="5"/>
@@ -23268,7 +23578,7 @@
       <c r="AE565" s="5"/>
       <c r="AF565" s="5"/>
     </row>
-    <row r="566" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:32" ht="15.75" customHeight="1">
       <c r="A566" s="5"/>
       <c r="B566" s="5"/>
       <c r="C566" s="5"/>
@@ -23302,7 +23612,7 @@
       <c r="AE566" s="5"/>
       <c r="AF566" s="5"/>
     </row>
-    <row r="567" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:32" ht="15.75" customHeight="1">
       <c r="A567" s="5"/>
       <c r="B567" s="5"/>
       <c r="C567" s="5"/>
@@ -23336,7 +23646,7 @@
       <c r="AE567" s="5"/>
       <c r="AF567" s="5"/>
     </row>
-    <row r="568" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:32" ht="15.75" customHeight="1">
       <c r="A568" s="5"/>
       <c r="B568" s="5"/>
       <c r="C568" s="5"/>
@@ -23370,7 +23680,7 @@
       <c r="AE568" s="5"/>
       <c r="AF568" s="5"/>
     </row>
-    <row r="569" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:32" ht="15.75" customHeight="1">
       <c r="A569" s="5"/>
       <c r="B569" s="5"/>
       <c r="C569" s="5"/>
@@ -23404,7 +23714,7 @@
       <c r="AE569" s="5"/>
       <c r="AF569" s="5"/>
     </row>
-    <row r="570" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:32" ht="15.75" customHeight="1">
       <c r="A570" s="5"/>
       <c r="B570" s="5"/>
       <c r="C570" s="5"/>
@@ -23438,7 +23748,7 @@
       <c r="AE570" s="5"/>
       <c r="AF570" s="5"/>
     </row>
-    <row r="571" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:32" ht="15.75" customHeight="1">
       <c r="A571" s="5"/>
       <c r="B571" s="5"/>
       <c r="C571" s="5"/>
@@ -23472,7 +23782,7 @@
       <c r="AE571" s="5"/>
       <c r="AF571" s="5"/>
     </row>
-    <row r="572" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:32" ht="15.75" customHeight="1">
       <c r="A572" s="5"/>
       <c r="B572" s="5"/>
       <c r="C572" s="5"/>
@@ -23506,7 +23816,7 @@
       <c r="AE572" s="5"/>
       <c r="AF572" s="5"/>
     </row>
-    <row r="573" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:32" ht="15.75" customHeight="1">
       <c r="A573" s="5"/>
       <c r="B573" s="5"/>
       <c r="C573" s="5"/>
@@ -23540,7 +23850,7 @@
       <c r="AE573" s="5"/>
       <c r="AF573" s="5"/>
     </row>
-    <row r="574" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:32" ht="15.75" customHeight="1">
       <c r="A574" s="5"/>
       <c r="B574" s="5"/>
       <c r="C574" s="5"/>
@@ -23574,7 +23884,7 @@
       <c r="AE574" s="5"/>
       <c r="AF574" s="5"/>
     </row>
-    <row r="575" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:32" ht="15.75" customHeight="1">
       <c r="A575" s="5"/>
       <c r="B575" s="5"/>
       <c r="C575" s="5"/>
@@ -23608,7 +23918,7 @@
       <c r="AE575" s="5"/>
       <c r="AF575" s="5"/>
     </row>
-    <row r="576" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:32" ht="15.75" customHeight="1">
       <c r="A576" s="5"/>
       <c r="B576" s="5"/>
       <c r="C576" s="5"/>
@@ -23642,7 +23952,7 @@
       <c r="AE576" s="5"/>
       <c r="AF576" s="5"/>
     </row>
-    <row r="577" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:32" ht="15.75" customHeight="1">
       <c r="A577" s="5"/>
       <c r="B577" s="5"/>
       <c r="C577" s="5"/>
@@ -23676,7 +23986,7 @@
       <c r="AE577" s="5"/>
       <c r="AF577" s="5"/>
     </row>
-    <row r="578" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:32" ht="15.75" customHeight="1">
       <c r="A578" s="5"/>
       <c r="B578" s="5"/>
       <c r="C578" s="5"/>
@@ -23710,7 +24020,7 @@
       <c r="AE578" s="5"/>
       <c r="AF578" s="5"/>
     </row>
-    <row r="579" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:32" ht="15.75" customHeight="1">
       <c r="A579" s="5"/>
       <c r="B579" s="5"/>
       <c r="C579" s="5"/>
@@ -23744,7 +24054,7 @@
       <c r="AE579" s="5"/>
       <c r="AF579" s="5"/>
     </row>
-    <row r="580" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:32" ht="15.75" customHeight="1">
       <c r="A580" s="5"/>
       <c r="B580" s="5"/>
       <c r="C580" s="5"/>
@@ -23778,7 +24088,7 @@
       <c r="AE580" s="5"/>
       <c r="AF580" s="5"/>
     </row>
-    <row r="581" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:32" ht="15.75" customHeight="1">
       <c r="A581" s="5"/>
       <c r="B581" s="5"/>
       <c r="C581" s="5"/>
@@ -23812,7 +24122,7 @@
       <c r="AE581" s="5"/>
       <c r="AF581" s="5"/>
     </row>
-    <row r="582" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:32" ht="15.75" customHeight="1">
       <c r="A582" s="5"/>
       <c r="B582" s="5"/>
       <c r="C582" s="5"/>
@@ -23846,7 +24156,7 @@
       <c r="AE582" s="5"/>
       <c r="AF582" s="5"/>
     </row>
-    <row r="583" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:32" ht="15.75" customHeight="1">
       <c r="A583" s="5"/>
       <c r="B583" s="5"/>
       <c r="C583" s="5"/>
@@ -23880,7 +24190,7 @@
       <c r="AE583" s="5"/>
       <c r="AF583" s="5"/>
     </row>
-    <row r="584" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:32" ht="15.75" customHeight="1">
       <c r="A584" s="5"/>
       <c r="B584" s="5"/>
       <c r="C584" s="5"/>
@@ -23914,7 +24224,7 @@
       <c r="AE584" s="5"/>
       <c r="AF584" s="5"/>
     </row>
-    <row r="585" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:32" ht="15.75" customHeight="1">
       <c r="A585" s="5"/>
       <c r="B585" s="5"/>
       <c r="C585" s="5"/>
@@ -23948,7 +24258,7 @@
       <c r="AE585" s="5"/>
       <c r="AF585" s="5"/>
     </row>
-    <row r="586" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:32" ht="15.75" customHeight="1">
       <c r="A586" s="5"/>
       <c r="B586" s="5"/>
       <c r="C586" s="5"/>
@@ -23982,7 +24292,7 @@
       <c r="AE586" s="5"/>
       <c r="AF586" s="5"/>
     </row>
-    <row r="587" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:32" ht="15.75" customHeight="1">
       <c r="A587" s="5"/>
       <c r="B587" s="5"/>
       <c r="C587" s="5"/>
@@ -24016,7 +24326,7 @@
       <c r="AE587" s="5"/>
       <c r="AF587" s="5"/>
     </row>
-    <row r="588" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:32" ht="15.75" customHeight="1">
       <c r="A588" s="5"/>
       <c r="B588" s="5"/>
       <c r="C588" s="5"/>
@@ -24050,7 +24360,7 @@
       <c r="AE588" s="5"/>
       <c r="AF588" s="5"/>
     </row>
-    <row r="589" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:32" ht="15.75" customHeight="1">
       <c r="A589" s="5"/>
       <c r="B589" s="5"/>
       <c r="C589" s="5"/>
@@ -24084,7 +24394,7 @@
       <c r="AE589" s="5"/>
       <c r="AF589" s="5"/>
     </row>
-    <row r="590" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:32" ht="15.75" customHeight="1">
       <c r="A590" s="5"/>
       <c r="B590" s="5"/>
       <c r="C590" s="5"/>
@@ -24118,7 +24428,7 @@
       <c r="AE590" s="5"/>
       <c r="AF590" s="5"/>
     </row>
-    <row r="591" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:32" ht="15.75" customHeight="1">
       <c r="A591" s="5"/>
       <c r="B591" s="5"/>
       <c r="C591" s="5"/>
@@ -24152,7 +24462,7 @@
       <c r="AE591" s="5"/>
       <c r="AF591" s="5"/>
     </row>
-    <row r="592" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:32" ht="15.75" customHeight="1">
       <c r="A592" s="5"/>
       <c r="B592" s="5"/>
       <c r="C592" s="5"/>
@@ -24186,7 +24496,7 @@
       <c r="AE592" s="5"/>
       <c r="AF592" s="5"/>
     </row>
-    <row r="593" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:32" ht="15.75" customHeight="1">
       <c r="A593" s="5"/>
       <c r="B593" s="5"/>
       <c r="C593" s="5"/>
@@ -24220,7 +24530,7 @@
       <c r="AE593" s="5"/>
       <c r="AF593" s="5"/>
     </row>
-    <row r="594" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:32" ht="15.75" customHeight="1">
       <c r="A594" s="5"/>
       <c r="B594" s="5"/>
       <c r="C594" s="5"/>
@@ -24254,7 +24564,7 @@
       <c r="AE594" s="5"/>
       <c r="AF594" s="5"/>
     </row>
-    <row r="595" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:32" ht="15.75" customHeight="1">
       <c r="A595" s="5"/>
       <c r="B595" s="5"/>
       <c r="C595" s="5"/>
@@ -24288,7 +24598,7 @@
       <c r="AE595" s="5"/>
       <c r="AF595" s="5"/>
     </row>
-    <row r="596" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:32" ht="15.75" customHeight="1">
       <c r="A596" s="5"/>
       <c r="B596" s="5"/>
       <c r="C596" s="5"/>
@@ -24322,7 +24632,7 @@
       <c r="AE596" s="5"/>
       <c r="AF596" s="5"/>
     </row>
-    <row r="597" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:32" ht="15.75" customHeight="1">
       <c r="A597" s="5"/>
       <c r="B597" s="5"/>
       <c r="C597" s="5"/>
@@ -24356,7 +24666,7 @@
       <c r="AE597" s="5"/>
       <c r="AF597" s="5"/>
     </row>
-    <row r="598" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:32" ht="15.75" customHeight="1">
       <c r="A598" s="5"/>
       <c r="B598" s="5"/>
       <c r="C598" s="5"/>
@@ -24390,7 +24700,7 @@
       <c r="AE598" s="5"/>
       <c r="AF598" s="5"/>
     </row>
-    <row r="599" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:32" ht="15.75" customHeight="1">
       <c r="A599" s="5"/>
       <c r="B599" s="5"/>
       <c r="C599" s="5"/>
@@ -24424,7 +24734,7 @@
       <c r="AE599" s="5"/>
       <c r="AF599" s="5"/>
     </row>
-    <row r="600" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:32" ht="15.75" customHeight="1">
       <c r="A600" s="5"/>
       <c r="B600" s="5"/>
       <c r="C600" s="5"/>
@@ -24458,7 +24768,7 @@
       <c r="AE600" s="5"/>
       <c r="AF600" s="5"/>
     </row>
-    <row r="601" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:32" ht="15.75" customHeight="1">
       <c r="A601" s="5"/>
       <c r="B601" s="5"/>
       <c r="C601" s="5"/>
@@ -24492,7 +24802,7 @@
       <c r="AE601" s="5"/>
       <c r="AF601" s="5"/>
     </row>
-    <row r="602" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:32" ht="15.75" customHeight="1">
       <c r="A602" s="5"/>
       <c r="B602" s="5"/>
       <c r="C602" s="5"/>
@@ -24526,7 +24836,7 @@
       <c r="AE602" s="5"/>
       <c r="AF602" s="5"/>
     </row>
-    <row r="603" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:32" ht="15.75" customHeight="1">
       <c r="A603" s="5"/>
       <c r="B603" s="5"/>
       <c r="C603" s="5"/>
@@ -24560,7 +24870,7 @@
       <c r="AE603" s="5"/>
       <c r="AF603" s="5"/>
     </row>
-    <row r="604" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:32" ht="15.75" customHeight="1">
       <c r="A604" s="5"/>
       <c r="B604" s="5"/>
       <c r="C604" s="5"/>
@@ -24594,7 +24904,7 @@
       <c r="AE604" s="5"/>
       <c r="AF604" s="5"/>
     </row>
-    <row r="605" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:32" ht="15.75" customHeight="1">
       <c r="A605" s="5"/>
       <c r="B605" s="5"/>
       <c r="C605" s="5"/>
@@ -24628,7 +24938,7 @@
       <c r="AE605" s="5"/>
       <c r="AF605" s="5"/>
     </row>
-    <row r="606" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:32" ht="15.75" customHeight="1">
       <c r="A606" s="5"/>
       <c r="B606" s="5"/>
       <c r="C606" s="5"/>
@@ -24662,7 +24972,7 @@
       <c r="AE606" s="5"/>
       <c r="AF606" s="5"/>
     </row>
-    <row r="607" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:32" ht="15.75" customHeight="1">
       <c r="A607" s="5"/>
       <c r="B607" s="5"/>
       <c r="C607" s="5"/>
@@ -24696,7 +25006,7 @@
       <c r="AE607" s="5"/>
       <c r="AF607" s="5"/>
     </row>
-    <row r="608" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:32" ht="15.75" customHeight="1">
       <c r="A608" s="5"/>
       <c r="B608" s="5"/>
       <c r="C608" s="5"/>
@@ -24730,7 +25040,7 @@
       <c r="AE608" s="5"/>
       <c r="AF608" s="5"/>
     </row>
-    <row r="609" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:32" ht="15.75" customHeight="1">
       <c r="A609" s="5"/>
       <c r="B609" s="5"/>
       <c r="C609" s="5"/>
@@ -24764,7 +25074,7 @@
       <c r="AE609" s="5"/>
       <c r="AF609" s="5"/>
     </row>
-    <row r="610" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:32" ht="15.75" customHeight="1">
       <c r="A610" s="5"/>
       <c r="B610" s="5"/>
       <c r="C610" s="5"/>
@@ -24798,7 +25108,7 @@
       <c r="AE610" s="5"/>
       <c r="AF610" s="5"/>
     </row>
-    <row r="611" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:32" ht="15.75" customHeight="1">
       <c r="A611" s="5"/>
       <c r="B611" s="5"/>
       <c r="C611" s="5"/>
@@ -24832,7 +25142,7 @@
       <c r="AE611" s="5"/>
       <c r="AF611" s="5"/>
     </row>
-    <row r="612" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:32" ht="15.75" customHeight="1">
       <c r="A612" s="5"/>
       <c r="B612" s="5"/>
       <c r="C612" s="5"/>
@@ -24866,7 +25176,7 @@
       <c r="AE612" s="5"/>
       <c r="AF612" s="5"/>
     </row>
-    <row r="613" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:32" ht="15.75" customHeight="1">
       <c r="A613" s="5"/>
       <c r="B613" s="5"/>
       <c r="C613" s="5"/>
@@ -24900,7 +25210,7 @@
       <c r="AE613" s="5"/>
       <c r="AF613" s="5"/>
     </row>
-    <row r="614" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:32" ht="15.75" customHeight="1">
       <c r="A614" s="5"/>
       <c r="B614" s="5"/>
       <c r="C614" s="5"/>
@@ -24934,7 +25244,7 @@
       <c r="AE614" s="5"/>
       <c r="AF614" s="5"/>
     </row>
-    <row r="615" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:32" ht="15.75" customHeight="1">
       <c r="A615" s="5"/>
       <c r="B615" s="5"/>
       <c r="C615" s="5"/>
@@ -24968,7 +25278,7 @@
       <c r="AE615" s="5"/>
       <c r="AF615" s="5"/>
     </row>
-    <row r="616" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:32" ht="15.75" customHeight="1">
       <c r="A616" s="5"/>
       <c r="B616" s="5"/>
       <c r="C616" s="5"/>
@@ -25002,7 +25312,7 @@
       <c r="AE616" s="5"/>
       <c r="AF616" s="5"/>
     </row>
-    <row r="617" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:32" ht="15.75" customHeight="1">
       <c r="A617" s="5"/>
       <c r="B617" s="5"/>
       <c r="C617" s="5"/>
@@ -25036,7 +25346,7 @@
       <c r="AE617" s="5"/>
       <c r="AF617" s="5"/>
     </row>
-    <row r="618" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:32" ht="15.75" customHeight="1">
       <c r="A618" s="5"/>
       <c r="B618" s="5"/>
       <c r="C618" s="5"/>
@@ -25070,7 +25380,7 @@
       <c r="AE618" s="5"/>
       <c r="AF618" s="5"/>
     </row>
-    <row r="619" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:32" ht="15.75" customHeight="1">
       <c r="A619" s="5"/>
       <c r="B619" s="5"/>
       <c r="C619" s="5"/>
@@ -25104,7 +25414,7 @@
       <c r="AE619" s="5"/>
       <c r="AF619" s="5"/>
     </row>
-    <row r="620" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:32" ht="15.75" customHeight="1">
       <c r="A620" s="5"/>
       <c r="B620" s="5"/>
       <c r="C620" s="5"/>
@@ -25138,7 +25448,7 @@
       <c r="AE620" s="5"/>
       <c r="AF620" s="5"/>
     </row>
-    <row r="621" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:32" ht="15.75" customHeight="1">
       <c r="A621" s="5"/>
       <c r="B621" s="5"/>
       <c r="C621" s="5"/>
@@ -25172,7 +25482,7 @@
       <c r="AE621" s="5"/>
       <c r="AF621" s="5"/>
     </row>
-    <row r="622" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:32" ht="15.75" customHeight="1">
       <c r="A622" s="5"/>
       <c r="B622" s="5"/>
       <c r="C622" s="5"/>
@@ -25206,7 +25516,7 @@
       <c r="AE622" s="5"/>
       <c r="AF622" s="5"/>
     </row>
-    <row r="623" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:32" ht="15.75" customHeight="1">
       <c r="A623" s="5"/>
       <c r="B623" s="5"/>
       <c r="C623" s="5"/>
@@ -25240,7 +25550,7 @@
       <c r="AE623" s="5"/>
       <c r="AF623" s="5"/>
     </row>
-    <row r="624" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:32" ht="15.75" customHeight="1">
       <c r="A624" s="5"/>
       <c r="B624" s="5"/>
       <c r="C624" s="5"/>
@@ -25274,7 +25584,7 @@
       <c r="AE624" s="5"/>
       <c r="AF624" s="5"/>
     </row>
-    <row r="625" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:32" ht="15.75" customHeight="1">
       <c r="A625" s="5"/>
       <c r="B625" s="5"/>
       <c r="C625" s="5"/>
@@ -25308,7 +25618,7 @@
       <c r="AE625" s="5"/>
       <c r="AF625" s="5"/>
     </row>
-    <row r="626" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:32" ht="15.75" customHeight="1">
       <c r="A626" s="5"/>
       <c r="B626" s="5"/>
       <c r="C626" s="5"/>
@@ -25342,7 +25652,7 @@
       <c r="AE626" s="5"/>
       <c r="AF626" s="5"/>
     </row>
-    <row r="627" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:32" ht="15.75" customHeight="1">
       <c r="A627" s="5"/>
       <c r="B627" s="5"/>
       <c r="C627" s="5"/>
@@ -25376,7 +25686,7 @@
       <c r="AE627" s="5"/>
       <c r="AF627" s="5"/>
     </row>
-    <row r="628" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:32" ht="15.75" customHeight="1">
       <c r="A628" s="5"/>
       <c r="B628" s="5"/>
       <c r="C628" s="5"/>
@@ -25410,7 +25720,7 @@
       <c r="AE628" s="5"/>
       <c r="AF628" s="5"/>
     </row>
-    <row r="629" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:32" ht="15.75" customHeight="1">
       <c r="A629" s="5"/>
       <c r="B629" s="5"/>
       <c r="C629" s="5"/>
@@ -25444,7 +25754,7 @@
       <c r="AE629" s="5"/>
       <c r="AF629" s="5"/>
     </row>
-    <row r="630" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:32" ht="15.75" customHeight="1">
       <c r="A630" s="5"/>
       <c r="B630" s="5"/>
       <c r="C630" s="5"/>
@@ -25478,7 +25788,7 @@
       <c r="AE630" s="5"/>
       <c r="AF630" s="5"/>
     </row>
-    <row r="631" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:32" ht="15.75" customHeight="1">
       <c r="A631" s="5"/>
       <c r="B631" s="5"/>
       <c r="C631" s="5"/>
@@ -25512,7 +25822,7 @@
       <c r="AE631" s="5"/>
       <c r="AF631" s="5"/>
     </row>
-    <row r="632" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:32" ht="15.75" customHeight="1">
       <c r="A632" s="5"/>
       <c r="B632" s="5"/>
       <c r="C632" s="5"/>
@@ -25546,7 +25856,7 @@
       <c r="AE632" s="5"/>
       <c r="AF632" s="5"/>
     </row>
-    <row r="633" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:32" ht="15.75" customHeight="1">
       <c r="A633" s="5"/>
       <c r="B633" s="5"/>
       <c r="C633" s="5"/>
@@ -25580,7 +25890,7 @@
       <c r="AE633" s="5"/>
       <c r="AF633" s="5"/>
     </row>
-    <row r="634" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:32" ht="15.75" customHeight="1">
       <c r="A634" s="5"/>
       <c r="B634" s="5"/>
       <c r="C634" s="5"/>
@@ -25614,7 +25924,7 @@
       <c r="AE634" s="5"/>
       <c r="AF634" s="5"/>
     </row>
-    <row r="635" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:32" ht="15.75" customHeight="1">
       <c r="A635" s="5"/>
       <c r="B635" s="5"/>
       <c r="C635" s="5"/>
@@ -25648,7 +25958,7 @@
       <c r="AE635" s="5"/>
       <c r="AF635" s="5"/>
     </row>
-    <row r="636" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:32" ht="15.75" customHeight="1">
       <c r="A636" s="5"/>
       <c r="B636" s="5"/>
       <c r="C636" s="5"/>
@@ -25682,7 +25992,7 @@
       <c r="AE636" s="5"/>
       <c r="AF636" s="5"/>
     </row>
-    <row r="637" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:32" ht="15.75" customHeight="1">
       <c r="A637" s="5"/>
       <c r="B637" s="5"/>
       <c r="C637" s="5"/>
@@ -25716,7 +26026,7 @@
       <c r="AE637" s="5"/>
       <c r="AF637" s="5"/>
     </row>
-    <row r="638" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:32" ht="15.75" customHeight="1">
       <c r="A638" s="5"/>
       <c r="B638" s="5"/>
       <c r="C638" s="5"/>
@@ -25750,7 +26060,7 @@
       <c r="AE638" s="5"/>
       <c r="AF638" s="5"/>
     </row>
-    <row r="639" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:32" ht="15.75" customHeight="1">
       <c r="A639" s="5"/>
       <c r="B639" s="5"/>
       <c r="C639" s="5"/>
@@ -25784,7 +26094,7 @@
       <c r="AE639" s="5"/>
       <c r="AF639" s="5"/>
     </row>
-    <row r="640" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:32" ht="15.75" customHeight="1">
       <c r="A640" s="5"/>
       <c r="B640" s="5"/>
       <c r="C640" s="5"/>
@@ -25818,7 +26128,7 @@
       <c r="AE640" s="5"/>
       <c r="AF640" s="5"/>
     </row>
-    <row r="641" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:32" ht="15.75" customHeight="1">
       <c r="A641" s="5"/>
       <c r="B641" s="5"/>
       <c r="C641" s="5"/>
@@ -25852,7 +26162,7 @@
       <c r="AE641" s="5"/>
       <c r="AF641" s="5"/>
     </row>
-    <row r="642" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:32" ht="15.75" customHeight="1">
       <c r="A642" s="5"/>
       <c r="B642" s="5"/>
       <c r="C642" s="5"/>
@@ -25886,7 +26196,7 @@
       <c r="AE642" s="5"/>
       <c r="AF642" s="5"/>
     </row>
-    <row r="643" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:32" ht="15.75" customHeight="1">
       <c r="A643" s="5"/>
       <c r="B643" s="5"/>
       <c r="C643" s="5"/>
@@ -25920,7 +26230,7 @@
       <c r="AE643" s="5"/>
       <c r="AF643" s="5"/>
     </row>
-    <row r="644" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:32" ht="15.75" customHeight="1">
       <c r="A644" s="5"/>
       <c r="B644" s="5"/>
       <c r="C644" s="5"/>
@@ -25954,7 +26264,7 @@
       <c r="AE644" s="5"/>
       <c r="AF644" s="5"/>
     </row>
-    <row r="645" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:32" ht="15.75" customHeight="1">
       <c r="A645" s="5"/>
       <c r="B645" s="5"/>
       <c r="C645" s="5"/>
@@ -25988,7 +26298,7 @@
       <c r="AE645" s="5"/>
       <c r="AF645" s="5"/>
     </row>
-    <row r="646" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:32" ht="15.75" customHeight="1">
       <c r="A646" s="5"/>
       <c r="B646" s="5"/>
       <c r="C646" s="5"/>
@@ -26022,7 +26332,7 @@
       <c r="AE646" s="5"/>
       <c r="AF646" s="5"/>
     </row>
-    <row r="647" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:32" ht="15.75" customHeight="1">
       <c r="A647" s="5"/>
       <c r="B647" s="5"/>
       <c r="C647" s="5"/>
@@ -26056,7 +26366,7 @@
       <c r="AE647" s="5"/>
       <c r="AF647" s="5"/>
     </row>
-    <row r="648" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:32" ht="15.75" customHeight="1">
       <c r="A648" s="5"/>
       <c r="B648" s="5"/>
       <c r="C648" s="5"/>
@@ -26090,7 +26400,7 @@
       <c r="AE648" s="5"/>
       <c r="AF648" s="5"/>
     </row>
-    <row r="649" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:32" ht="15.75" customHeight="1">
       <c r="A649" s="5"/>
       <c r="B649" s="5"/>
       <c r="C649" s="5"/>
@@ -26124,7 +26434,7 @@
       <c r="AE649" s="5"/>
       <c r="AF649" s="5"/>
     </row>
-    <row r="650" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:32" ht="15.75" customHeight="1">
       <c r="A650" s="5"/>
       <c r="B650" s="5"/>
       <c r="C650" s="5"/>
@@ -26158,7 +26468,7 @@
       <c r="AE650" s="5"/>
       <c r="AF650" s="5"/>
     </row>
-    <row r="651" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:32" ht="15.75" customHeight="1">
       <c r="A651" s="5"/>
       <c r="B651" s="5"/>
       <c r="C651" s="5"/>
@@ -26192,7 +26502,7 @@
       <c r="AE651" s="5"/>
       <c r="AF651" s="5"/>
     </row>
-    <row r="652" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:32" ht="15.75" customHeight="1">
       <c r="A652" s="5"/>
       <c r="B652" s="5"/>
       <c r="C652" s="5"/>
@@ -26226,7 +26536,7 @@
       <c r="AE652" s="5"/>
       <c r="AF652" s="5"/>
     </row>
-    <row r="653" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:32" ht="15.75" customHeight="1">
       <c r="A653" s="5"/>
       <c r="B653" s="5"/>
       <c r="C653" s="5"/>
@@ -26260,7 +26570,7 @@
       <c r="AE653" s="5"/>
       <c r="AF653" s="5"/>
     </row>
-    <row r="654" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:32" ht="15.75" customHeight="1">
       <c r="A654" s="5"/>
       <c r="B654" s="5"/>
       <c r="C654" s="5"/>
@@ -26294,7 +26604,7 @@
       <c r="AE654" s="5"/>
       <c r="AF654" s="5"/>
     </row>
-    <row r="655" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:32" ht="15.75" customHeight="1">
       <c r="A655" s="5"/>
       <c r="B655" s="5"/>
       <c r="C655" s="5"/>
@@ -26328,7 +26638,7 @@
       <c r="AE655" s="5"/>
       <c r="AF655" s="5"/>
     </row>
-    <row r="656" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:32" ht="15.75" customHeight="1">
       <c r="A656" s="5"/>
       <c r="B656" s="5"/>
       <c r="C656" s="5"/>
@@ -26362,7 +26672,7 @@
       <c r="AE656" s="5"/>
       <c r="AF656" s="5"/>
     </row>
-    <row r="657" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:32" ht="15.75" customHeight="1">
       <c r="A657" s="5"/>
       <c r="B657" s="5"/>
       <c r="C657" s="5"/>
@@ -26396,7 +26706,7 @@
       <c r="AE657" s="5"/>
       <c r="AF657" s="5"/>
     </row>
-    <row r="658" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:32" ht="15.75" customHeight="1">
       <c r="A658" s="5"/>
       <c r="B658" s="5"/>
       <c r="C658" s="5"/>
@@ -26430,7 +26740,7 @@
       <c r="AE658" s="5"/>
       <c r="AF658" s="5"/>
     </row>
-    <row r="659" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:32" ht="15.75" customHeight="1">
       <c r="A659" s="5"/>
       <c r="B659" s="5"/>
       <c r="C659" s="5"/>
@@ -26464,7 +26774,7 @@
       <c r="AE659" s="5"/>
       <c r="AF659" s="5"/>
     </row>
-    <row r="660" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:32" ht="15.75" customHeight="1">
       <c r="A660" s="5"/>
       <c r="B660" s="5"/>
       <c r="C660" s="5"/>
@@ -26498,7 +26808,7 @@
       <c r="AE660" s="5"/>
       <c r="AF660" s="5"/>
     </row>
-    <row r="661" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:32" ht="15.75" customHeight="1">
       <c r="A661" s="5"/>
       <c r="B661" s="5"/>
       <c r="C661" s="5"/>
@@ -26532,7 +26842,7 @@
       <c r="AE661" s="5"/>
       <c r="AF661" s="5"/>
     </row>
-    <row r="662" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:32" ht="15.75" customHeight="1">
       <c r="A662" s="5"/>
       <c r="B662" s="5"/>
       <c r="C662" s="5"/>
@@ -26566,7 +26876,7 @@
       <c r="AE662" s="5"/>
       <c r="AF662" s="5"/>
     </row>
-    <row r="663" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:32" ht="15.75" customHeight="1">
       <c r="A663" s="5"/>
       <c r="B663" s="5"/>
       <c r="C663" s="5"/>
@@ -26600,7 +26910,7 @@
       <c r="AE663" s="5"/>
       <c r="AF663" s="5"/>
     </row>
-    <row r="664" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:32" ht="15.75" customHeight="1">
       <c r="A664" s="5"/>
       <c r="B664" s="5"/>
       <c r="C664" s="5"/>
@@ -26634,7 +26944,7 @@
       <c r="AE664" s="5"/>
       <c r="AF664" s="5"/>
     </row>
-    <row r="665" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:32" ht="15.75" customHeight="1">
       <c r="A665" s="5"/>
       <c r="B665" s="5"/>
       <c r="C665" s="5"/>
@@ -26668,7 +26978,7 @@
       <c r="AE665" s="5"/>
       <c r="AF665" s="5"/>
     </row>
-    <row r="666" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:32" ht="15.75" customHeight="1">
       <c r="A666" s="5"/>
       <c r="B666" s="5"/>
       <c r="C666" s="5"/>
@@ -26702,7 +27012,7 @@
       <c r="AE666" s="5"/>
       <c r="AF666" s="5"/>
     </row>
-    <row r="667" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:32" ht="15.75" customHeight="1">
       <c r="A667" s="5"/>
       <c r="B667" s="5"/>
       <c r="C667" s="5"/>
@@ -26736,7 +27046,7 @@
       <c r="AE667" s="5"/>
       <c r="AF667" s="5"/>
     </row>
-    <row r="668" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:32" ht="15.75" customHeight="1">
       <c r="A668" s="5"/>
       <c r="B668" s="5"/>
       <c r="C668" s="5"/>
@@ -26770,7 +27080,7 @@
       <c r="AE668" s="5"/>
       <c r="AF668" s="5"/>
     </row>
-    <row r="669" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:32" ht="15.75" customHeight="1">
       <c r="A669" s="5"/>
       <c r="B669" s="5"/>
       <c r="C669" s="5"/>
@@ -26804,7 +27114,7 @@
       <c r="AE669" s="5"/>
       <c r="AF669" s="5"/>
     </row>
-    <row r="670" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:32" ht="15.75" customHeight="1">
       <c r="A670" s="5"/>
       <c r="B670" s="5"/>
       <c r="C670" s="5"/>
@@ -26838,7 +27148,7 @@
       <c r="AE670" s="5"/>
       <c r="AF670" s="5"/>
     </row>
-    <row r="671" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:32" ht="15.75" customHeight="1">
       <c r="A671" s="5"/>
       <c r="B671" s="5"/>
       <c r="C671" s="5"/>
@@ -26872,7 +27182,7 @@
       <c r="AE671" s="5"/>
       <c r="AF671" s="5"/>
     </row>
-    <row r="672" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:32" ht="15.75" customHeight="1">
       <c r="A672" s="5"/>
       <c r="B672" s="5"/>
       <c r="C672" s="5"/>
@@ -26906,7 +27216,7 @@
       <c r="AE672" s="5"/>
       <c r="AF672" s="5"/>
     </row>
-    <row r="673" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:32" ht="15.75" customHeight="1">
       <c r="A673" s="5"/>
       <c r="B673" s="5"/>
       <c r="C673" s="5"/>
@@ -26940,7 +27250,7 @@
       <c r="AE673" s="5"/>
       <c r="AF673" s="5"/>
     </row>
-    <row r="674" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:32" ht="15.75" customHeight="1">
       <c r="A674" s="5"/>
       <c r="B674" s="5"/>
       <c r="C674" s="5"/>
@@ -26974,7 +27284,7 @@
       <c r="AE674" s="5"/>
       <c r="AF674" s="5"/>
     </row>
-    <row r="675" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:32" ht="15.75" customHeight="1">
       <c r="A675" s="5"/>
       <c r="B675" s="5"/>
       <c r="C675" s="5"/>
@@ -27008,7 +27318,7 @@
       <c r="AE675" s="5"/>
       <c r="AF675" s="5"/>
     </row>
-    <row r="676" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:32" ht="15.75" customHeight="1">
       <c r="A676" s="5"/>
       <c r="B676" s="5"/>
       <c r="C676" s="5"/>
@@ -27042,7 +27352,7 @@
       <c r="AE676" s="5"/>
       <c r="AF676" s="5"/>
     </row>
-    <row r="677" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:32" ht="15.75" customHeight="1">
       <c r="A677" s="5"/>
       <c r="B677" s="5"/>
       <c r="C677" s="5"/>
@@ -27076,7 +27386,7 @@
       <c r="AE677" s="5"/>
       <c r="AF677" s="5"/>
     </row>
-    <row r="678" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:32" ht="15.75" customHeight="1">
       <c r="A678" s="5"/>
       <c r="B678" s="5"/>
       <c r="C678" s="5"/>
@@ -27110,7 +27420,7 @@
       <c r="AE678" s="5"/>
       <c r="AF678" s="5"/>
     </row>
-    <row r="679" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:32" ht="15.75" customHeight="1">
       <c r="A679" s="5"/>
       <c r="B679" s="5"/>
       <c r="C679" s="5"/>
@@ -27144,7 +27454,7 @@
       <c r="AE679" s="5"/>
       <c r="AF679" s="5"/>
     </row>
-    <row r="680" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:32" ht="15.75" customHeight="1">
       <c r="A680" s="5"/>
       <c r="B680" s="5"/>
       <c r="C680" s="5"/>
@@ -27178,7 +27488,7 @@
       <c r="AE680" s="5"/>
       <c r="AF680" s="5"/>
     </row>
-    <row r="681" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:32" ht="15.75" customHeight="1">
       <c r="A681" s="5"/>
       <c r="B681" s="5"/>
       <c r="C681" s="5"/>
@@ -27212,7 +27522,7 @@
       <c r="AE681" s="5"/>
       <c r="AF681" s="5"/>
     </row>
-    <row r="682" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:32" ht="15.75" customHeight="1">
       <c r="A682" s="5"/>
       <c r="B682" s="5"/>
       <c r="C682" s="5"/>
@@ -27246,7 +27556,7 @@
       <c r="AE682" s="5"/>
       <c r="AF682" s="5"/>
     </row>
-    <row r="683" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:32" ht="15.75" customHeight="1">
       <c r="A683" s="5"/>
       <c r="B683" s="5"/>
       <c r="C683" s="5"/>
@@ -27280,7 +27590,7 @@
       <c r="AE683" s="5"/>
       <c r="AF683" s="5"/>
     </row>
-    <row r="684" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:32" ht="15.75" customHeight="1">
       <c r="A684" s="5"/>
       <c r="B684" s="5"/>
       <c r="C684" s="5"/>
@@ -27314,7 +27624,7 @@
       <c r="AE684" s="5"/>
       <c r="AF684" s="5"/>
     </row>
-    <row r="685" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:32" ht="15.75" customHeight="1">
       <c r="A685" s="5"/>
       <c r="B685" s="5"/>
       <c r="C685" s="5"/>
@@ -27348,7 +27658,7 @@
       <c r="AE685" s="5"/>
       <c r="AF685" s="5"/>
     </row>
-    <row r="686" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:32" ht="15.75" customHeight="1">
       <c r="A686" s="5"/>
       <c r="B686" s="5"/>
       <c r="C686" s="5"/>
@@ -27382,7 +27692,7 @@
       <c r="AE686" s="5"/>
       <c r="AF686" s="5"/>
     </row>
-    <row r="687" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:32" ht="15.75" customHeight="1">
       <c r="A687" s="5"/>
       <c r="B687" s="5"/>
       <c r="C687" s="5"/>
@@ -27416,7 +27726,7 @@
       <c r="AE687" s="5"/>
       <c r="AF687" s="5"/>
     </row>
-    <row r="688" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:32" ht="15.75" customHeight="1">
       <c r="A688" s="5"/>
       <c r="B688" s="5"/>
       <c r="C688" s="5"/>
@@ -27450,7 +27760,7 @@
       <c r="AE688" s="5"/>
       <c r="AF688" s="5"/>
     </row>
-    <row r="689" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:32" ht="15.75" customHeight="1">
       <c r="A689" s="5"/>
       <c r="B689" s="5"/>
       <c r="C689" s="5"/>
@@ -27484,7 +27794,7 @@
       <c r="AE689" s="5"/>
       <c r="AF689" s="5"/>
     </row>
-    <row r="690" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:32" ht="15.75" customHeight="1">
       <c r="A690" s="5"/>
       <c r="B690" s="5"/>
       <c r="C690" s="5"/>
@@ -27518,7 +27828,7 @@
       <c r="AE690" s="5"/>
       <c r="AF690" s="5"/>
     </row>
-    <row r="691" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:32" ht="15.75" customHeight="1">
       <c r="A691" s="5"/>
       <c r="B691" s="5"/>
       <c r="C691" s="5"/>
@@ -27552,7 +27862,7 @@
       <c r="AE691" s="5"/>
       <c r="AF691" s="5"/>
     </row>
-    <row r="692" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:32" ht="15.75" customHeight="1">
       <c r="A692" s="5"/>
       <c r="B692" s="5"/>
       <c r="C692" s="5"/>
@@ -27586,7 +27896,7 @@
       <c r="AE692" s="5"/>
       <c r="AF692" s="5"/>
     </row>
-    <row r="693" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:32" ht="15.75" customHeight="1">
       <c r="A693" s="5"/>
       <c r="B693" s="5"/>
       <c r="C693" s="5"/>
@@ -27620,7 +27930,7 @@
       <c r="AE693" s="5"/>
       <c r="AF693" s="5"/>
     </row>
-    <row r="694" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:32" ht="15.75" customHeight="1">
       <c r="A694" s="5"/>
       <c r="B694" s="5"/>
       <c r="C694" s="5"/>
@@ -27654,7 +27964,7 @@
       <c r="AE694" s="5"/>
       <c r="AF694" s="5"/>
     </row>
-    <row r="695" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:32" ht="15.75" customHeight="1">
       <c r="A695" s="5"/>
       <c r="B695" s="5"/>
       <c r="C695" s="5"/>
@@ -27688,7 +27998,7 @@
       <c r="AE695" s="5"/>
       <c r="AF695" s="5"/>
     </row>
-    <row r="696" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:32" ht="15.75" customHeight="1">
       <c r="A696" s="5"/>
       <c r="B696" s="5"/>
       <c r="C696" s="5"/>
@@ -27722,7 +28032,7 @@
       <c r="AE696" s="5"/>
       <c r="AF696" s="5"/>
     </row>
-    <row r="697" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:32" ht="15.75" customHeight="1">
       <c r="A697" s="5"/>
       <c r="B697" s="5"/>
       <c r="C697" s="5"/>
@@ -27756,7 +28066,7 @@
       <c r="AE697" s="5"/>
       <c r="AF697" s="5"/>
     </row>
-    <row r="698" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:32" ht="15.75" customHeight="1">
       <c r="A698" s="5"/>
       <c r="B698" s="5"/>
       <c r="C698" s="5"/>
@@ -27790,7 +28100,7 @@
       <c r="AE698" s="5"/>
       <c r="AF698" s="5"/>
     </row>
-    <row r="699" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:32" ht="15.75" customHeight="1">
       <c r="A699" s="5"/>
       <c r="B699" s="5"/>
       <c r="C699" s="5"/>
@@ -27824,7 +28134,7 @@
       <c r="AE699" s="5"/>
       <c r="AF699" s="5"/>
     </row>
-    <row r="700" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:32" ht="15.75" customHeight="1">
       <c r="A700" s="5"/>
       <c r="B700" s="5"/>
       <c r="C700" s="5"/>
@@ -27858,7 +28168,7 @@
       <c r="AE700" s="5"/>
       <c r="AF700" s="5"/>
     </row>
-    <row r="701" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:32" ht="15.75" customHeight="1">
       <c r="A701" s="5"/>
       <c r="B701" s="5"/>
       <c r="C701" s="5"/>
@@ -27892,7 +28202,7 @@
       <c r="AE701" s="5"/>
       <c r="AF701" s="5"/>
     </row>
-    <row r="702" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:32" ht="15.75" customHeight="1">
       <c r="A702" s="5"/>
       <c r="B702" s="5"/>
       <c r="C702" s="5"/>
@@ -27926,7 +28236,7 @@
       <c r="AE702" s="5"/>
       <c r="AF702" s="5"/>
     </row>
-    <row r="703" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:32" ht="15.75" customHeight="1">
       <c r="A703" s="5"/>
       <c r="B703" s="5"/>
       <c r="C703" s="5"/>
@@ -27960,7 +28270,7 @@
       <c r="AE703" s="5"/>
       <c r="AF703" s="5"/>
     </row>
-    <row r="704" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:32" ht="15.75" customHeight="1">
       <c r="A704" s="5"/>
       <c r="B704" s="5"/>
       <c r="C704" s="5"/>
@@ -27994,7 +28304,7 @@
       <c r="AE704" s="5"/>
       <c r="AF704" s="5"/>
     </row>
-    <row r="705" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:32" ht="15.75" customHeight="1">
       <c r="A705" s="5"/>
       <c r="B705" s="5"/>
       <c r="C705" s="5"/>
@@ -28028,7 +28338,7 @@
       <c r="AE705" s="5"/>
       <c r="AF705" s="5"/>
     </row>
-    <row r="706" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:32" ht="15.75" customHeight="1">
       <c r="A706" s="5"/>
       <c r="B706" s="5"/>
       <c r="C706" s="5"/>
@@ -28062,7 +28372,7 @@
       <c r="AE706" s="5"/>
       <c r="AF706" s="5"/>
     </row>
-    <row r="707" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:32" ht="15.75" customHeight="1">
       <c r="A707" s="5"/>
       <c r="B707" s="5"/>
       <c r="C707" s="5"/>
@@ -28096,7 +28406,7 @@
       <c r="AE707" s="5"/>
       <c r="AF707" s="5"/>
     </row>
-    <row r="708" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:32" ht="15.75" customHeight="1">
       <c r="A708" s="5"/>
       <c r="B708" s="5"/>
       <c r="C708" s="5"/>
@@ -28130,7 +28440,7 @@
       <c r="AE708" s="5"/>
       <c r="AF708" s="5"/>
     </row>
-    <row r="709" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:32" ht="15.75" customHeight="1">
       <c r="A709" s="5"/>
       <c r="B709" s="5"/>
       <c r="C709" s="5"/>
@@ -28164,7 +28474,7 @@
       <c r="AE709" s="5"/>
       <c r="AF709" s="5"/>
     </row>
-    <row r="710" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:32" ht="15.75" customHeight="1">
       <c r="A710" s="5"/>
       <c r="B710" s="5"/>
       <c r="C710" s="5"/>
@@ -28198,7 +28508,7 @@
       <c r="AE710" s="5"/>
       <c r="AF710" s="5"/>
     </row>
-    <row r="711" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:32" ht="15.75" customHeight="1">
       <c r="A711" s="5"/>
       <c r="B711" s="5"/>
       <c r="C711" s="5"/>
@@ -28232,7 +28542,7 @@
       <c r="AE711" s="5"/>
       <c r="AF711" s="5"/>
     </row>
-    <row r="712" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:32" ht="15.75" customHeight="1">
       <c r="A712" s="5"/>
       <c r="B712" s="5"/>
       <c r="C712" s="5"/>
@@ -28266,7 +28576,7 @@
       <c r="AE712" s="5"/>
       <c r="AF712" s="5"/>
     </row>
-    <row r="713" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:32" ht="15.75" customHeight="1">
       <c r="A713" s="5"/>
       <c r="B713" s="5"/>
       <c r="C713" s="5"/>
@@ -28300,7 +28610,7 @@
       <c r="AE713" s="5"/>
       <c r="AF713" s="5"/>
     </row>
-    <row r="714" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:32" ht="15.75" customHeight="1">
       <c r="A714" s="5"/>
       <c r="B714" s="5"/>
       <c r="C714" s="5"/>
@@ -28334,7 +28644,7 @@
       <c r="AE714" s="5"/>
       <c r="AF714" s="5"/>
     </row>
-    <row r="715" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:32" ht="15.75" customHeight="1">
       <c r="A715" s="5"/>
       <c r="B715" s="5"/>
       <c r="C715" s="5"/>
@@ -28368,7 +28678,7 @@
       <c r="AE715" s="5"/>
       <c r="AF715" s="5"/>
     </row>
-    <row r="716" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:32" ht="15.75" customHeight="1">
       <c r="A716" s="5"/>
       <c r="B716" s="5"/>
       <c r="C716" s="5"/>
@@ -28402,7 +28712,7 @@
       <c r="AE716" s="5"/>
       <c r="AF716" s="5"/>
     </row>
-    <row r="717" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:32" ht="15.75" customHeight="1">
       <c r="A717" s="5"/>
       <c r="B717" s="5"/>
       <c r="C717" s="5"/>
@@ -28436,7 +28746,7 @@
       <c r="AE717" s="5"/>
       <c r="AF717" s="5"/>
     </row>
-    <row r="718" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:32" ht="15.75" customHeight="1">
       <c r="A718" s="5"/>
       <c r="B718" s="5"/>
       <c r="C718" s="5"/>
@@ -28470,7 +28780,7 @@
       <c r="AE718" s="5"/>
       <c r="AF718" s="5"/>
     </row>
-    <row r="719" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:32" ht="15.75" customHeight="1">
       <c r="A719" s="5"/>
       <c r="B719" s="5"/>
       <c r="C719" s="5"/>
@@ -28504,7 +28814,7 @@
       <c r="AE719" s="5"/>
       <c r="AF719" s="5"/>
     </row>
-    <row r="720" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:32" ht="15.75" customHeight="1">
       <c r="A720" s="5"/>
       <c r="B720" s="5"/>
       <c r="C720" s="5"/>
@@ -28538,7 +28848,7 @@
       <c r="AE720" s="5"/>
       <c r="AF720" s="5"/>
     </row>
-    <row r="721" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:32" ht="15.75" customHeight="1">
       <c r="A721" s="5"/>
       <c r="B721" s="5"/>
       <c r="C721" s="5"/>
@@ -28572,7 +28882,7 @@
       <c r="AE721" s="5"/>
       <c r="AF721" s="5"/>
     </row>
-    <row r="722" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:32" ht="15.75" customHeight="1">
       <c r="A722" s="5"/>
       <c r="B722" s="5"/>
       <c r="C722" s="5"/>
@@ -28606,7 +28916,7 @@
       <c r="AE722" s="5"/>
       <c r="AF722" s="5"/>
     </row>
-    <row r="723" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:32" ht="15.75" customHeight="1">
       <c r="A723" s="5"/>
       <c r="B723" s="5"/>
       <c r="C723" s="5"/>
@@ -28640,7 +28950,7 @@
       <c r="AE723" s="5"/>
       <c r="AF723" s="5"/>
     </row>
-    <row r="724" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:32" ht="15.75" customHeight="1">
       <c r="A724" s="5"/>
       <c r="B724" s="5"/>
       <c r="C724" s="5"/>
@@ -28674,7 +28984,7 @@
       <c r="AE724" s="5"/>
       <c r="AF724" s="5"/>
     </row>
-    <row r="725" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:32" ht="15.75" customHeight="1">
       <c r="A725" s="5"/>
       <c r="B725" s="5"/>
       <c r="C725" s="5"/>
@@ -28708,7 +29018,7 @@
       <c r="AE725" s="5"/>
       <c r="AF725" s="5"/>
     </row>
-    <row r="726" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:32" ht="15.75" customHeight="1">
       <c r="A726" s="5"/>
       <c r="B726" s="5"/>
       <c r="C726" s="5"/>
@@ -28742,7 +29052,7 @@
       <c r="AE726" s="5"/>
       <c r="AF726" s="5"/>
     </row>
-    <row r="727" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:32" ht="15.75" customHeight="1">
       <c r="A727" s="5"/>
       <c r="B727" s="5"/>
       <c r="C727" s="5"/>
@@ -28776,7 +29086,7 @@
       <c r="AE727" s="5"/>
       <c r="AF727" s="5"/>
     </row>
-    <row r="728" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:32" ht="15.75" customHeight="1">
       <c r="A728" s="5"/>
       <c r="B728" s="5"/>
       <c r="C728" s="5"/>
@@ -28810,7 +29120,7 @@
       <c r="AE728" s="5"/>
       <c r="AF728" s="5"/>
     </row>
-    <row r="729" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:32" ht="15.75" customHeight="1">
       <c r="A729" s="5"/>
       <c r="B729" s="5"/>
       <c r="C729" s="5"/>
@@ -28844,7 +29154,7 @@
       <c r="AE729" s="5"/>
       <c r="AF729" s="5"/>
     </row>
-    <row r="730" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:32" ht="15.75" customHeight="1">
       <c r="A730" s="5"/>
       <c r="B730" s="5"/>
       <c r="C730" s="5"/>
@@ -28878,7 +29188,7 @@
       <c r="AE730" s="5"/>
       <c r="AF730" s="5"/>
     </row>
-    <row r="731" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:32" ht="15.75" customHeight="1">
       <c r="A731" s="5"/>
       <c r="B731" s="5"/>
       <c r="C731" s="5"/>
@@ -28912,7 +29222,7 @@
       <c r="AE731" s="5"/>
       <c r="AF731" s="5"/>
     </row>
-    <row r="732" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:32" ht="15.75" customHeight="1">
       <c r="A732" s="5"/>
       <c r="B732" s="5"/>
       <c r="C732" s="5"/>
@@ -28946,7 +29256,7 @@
       <c r="AE732" s="5"/>
       <c r="AF732" s="5"/>
     </row>
-    <row r="733" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:32" ht="15.75" customHeight="1">
       <c r="A733" s="5"/>
       <c r="B733" s="5"/>
       <c r="C733" s="5"/>
@@ -28980,7 +29290,7 @@
       <c r="AE733" s="5"/>
       <c r="AF733" s="5"/>
     </row>
-    <row r="734" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:32" ht="15.75" customHeight="1">
       <c r="A734" s="5"/>
       <c r="B734" s="5"/>
       <c r="C734" s="5"/>
@@ -29014,7 +29324,7 @@
       <c r="AE734" s="5"/>
       <c r="AF734" s="5"/>
     </row>
-    <row r="735" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:32" ht="15.75" customHeight="1">
       <c r="A735" s="5"/>
       <c r="B735" s="5"/>
       <c r="C735" s="5"/>
@@ -29048,7 +29358,7 @@
       <c r="AE735" s="5"/>
       <c r="AF735" s="5"/>
     </row>
-    <row r="736" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:32" ht="15.75" customHeight="1">
       <c r="A736" s="5"/>
       <c r="B736" s="5"/>
       <c r="C736" s="5"/>
@@ -29082,7 +29392,7 @@
       <c r="AE736" s="5"/>
       <c r="AF736" s="5"/>
     </row>
-    <row r="737" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:32" ht="15.75" customHeight="1">
       <c r="A737" s="5"/>
       <c r="B737" s="5"/>
       <c r="C737" s="5"/>
@@ -29116,7 +29426,7 @@
       <c r="AE737" s="5"/>
       <c r="AF737" s="5"/>
     </row>
-    <row r="738" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:32" ht="15.75" customHeight="1">
       <c r="A738" s="5"/>
       <c r="B738" s="5"/>
       <c r="C738" s="5"/>
@@ -29150,7 +29460,7 @@
       <c r="AE738" s="5"/>
       <c r="AF738" s="5"/>
     </row>
-    <row r="739" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:32" ht="15.75" customHeight="1">
       <c r="A739" s="5"/>
       <c r="B739" s="5"/>
       <c r="C739" s="5"/>
@@ -29184,7 +29494,7 @@
       <c r="AE739" s="5"/>
       <c r="AF739" s="5"/>
     </row>
-    <row r="740" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:32" ht="15.75" customHeight="1">
       <c r="A740" s="5"/>
       <c r="B740" s="5"/>
       <c r="C740" s="5"/>
@@ -29218,7 +29528,7 @@
       <c r="AE740" s="5"/>
       <c r="AF740" s="5"/>
     </row>
-    <row r="741" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:32" ht="15.75" customHeight="1">
       <c r="A741" s="5"/>
       <c r="B741" s="5"/>
       <c r="C741" s="5"/>
@@ -29252,7 +29562,7 @@
       <c r="AE741" s="5"/>
       <c r="AF741" s="5"/>
     </row>
-    <row r="742" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:32" ht="15.75" customHeight="1">
       <c r="A742" s="5"/>
       <c r="B742" s="5"/>
       <c r="C742" s="5"/>
@@ -29286,7 +29596,7 @@
       <c r="AE742" s="5"/>
       <c r="AF742" s="5"/>
     </row>
-    <row r="743" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:32" ht="15.75" customHeight="1">
       <c r="A743" s="5"/>
       <c r="B743" s="5"/>
       <c r="C743" s="5"/>
@@ -29320,7 +29630,7 @@
       <c r="AE743" s="5"/>
       <c r="AF743" s="5"/>
     </row>
-    <row r="744" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:32" ht="15.75" customHeight="1">
       <c r="A744" s="5"/>
       <c r="B744" s="5"/>
       <c r="C744" s="5"/>
@@ -29354,7 +29664,7 @@
       <c r="AE744" s="5"/>
       <c r="AF744" s="5"/>
     </row>
-    <row r="745" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:32" ht="15.75" customHeight="1">
       <c r="A745" s="5"/>
       <c r="B745" s="5"/>
       <c r="C745" s="5"/>
@@ -29388,7 +29698,7 @@
       <c r="AE745" s="5"/>
       <c r="AF745" s="5"/>
     </row>
-    <row r="746" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:32" ht="15.75" customHeight="1">
       <c r="A746" s="5"/>
       <c r="B746" s="5"/>
       <c r="C746" s="5"/>
@@ -29422,7 +29732,7 @@
       <c r="AE746" s="5"/>
       <c r="AF746" s="5"/>
     </row>
-    <row r="747" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:32" ht="15.75" customHeight="1">
       <c r="A747" s="5"/>
       <c r="B747" s="5"/>
       <c r="C747" s="5"/>
@@ -29456,7 +29766,7 @@
       <c r="AE747" s="5"/>
       <c r="AF747" s="5"/>
     </row>
-    <row r="748" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:32" ht="15.75" customHeight="1">
       <c r="A748" s="5"/>
       <c r="B748" s="5"/>
       <c r="C748" s="5"/>
@@ -29490,7 +29800,7 @@
       <c r="AE748" s="5"/>
       <c r="AF748" s="5"/>
     </row>
-    <row r="749" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:32" ht="15.75" customHeight="1">
       <c r="A749" s="5"/>
       <c r="B749" s="5"/>
       <c r="C749" s="5"/>
@@ -29524,7 +29834,7 @@
       <c r="AE749" s="5"/>
       <c r="AF749" s="5"/>
     </row>
-    <row r="750" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:32" ht="15.75" customHeight="1">
       <c r="A750" s="5"/>
       <c r="B750" s="5"/>
       <c r="C750" s="5"/>
@@ -29558,7 +29868,7 @@
       <c r="AE750" s="5"/>
       <c r="AF750" s="5"/>
     </row>
-    <row r="751" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:32" ht="15.75" customHeight="1">
       <c r="A751" s="5"/>
       <c r="B751" s="5"/>
       <c r="C751" s="5"/>
@@ -29592,7 +29902,7 @@
       <c r="AE751" s="5"/>
       <c r="AF751" s="5"/>
     </row>
-    <row r="752" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:32" ht="15.75" customHeight="1">
       <c r="A752" s="5"/>
       <c r="B752" s="5"/>
       <c r="C752" s="5"/>
@@ -29626,7 +29936,7 @@
       <c r="AE752" s="5"/>
       <c r="AF752" s="5"/>
     </row>
-    <row r="753" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:32" ht="15.75" customHeight="1">
       <c r="A753" s="5"/>
       <c r="B753" s="5"/>
       <c r="C753" s="5"/>
@@ -29660,7 +29970,7 @@
       <c r="AE753" s="5"/>
       <c r="AF753" s="5"/>
     </row>
-    <row r="754" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:32" ht="15.75" customHeight="1">
       <c r="A754" s="5"/>
       <c r="B754" s="5"/>
       <c r="C754" s="5"/>
@@ -29694,7 +30004,7 @@
       <c r="AE754" s="5"/>
       <c r="AF754" s="5"/>
     </row>
-    <row r="755" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:32" ht="15.75" customHeight="1">
       <c r="A755" s="5"/>
       <c r="B755" s="5"/>
       <c r="C755" s="5"/>
@@ -29728,7 +30038,7 @@
       <c r="AE755" s="5"/>
       <c r="AF755" s="5"/>
     </row>
-    <row r="756" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:32" ht="15.75" customHeight="1">
       <c r="A756" s="5"/>
       <c r="B756" s="5"/>
       <c r="C756" s="5"/>
@@ -29762,7 +30072,7 @@
       <c r="AE756" s="5"/>
       <c r="AF756" s="5"/>
     </row>
-    <row r="757" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:32" ht="15.75" customHeight="1">
       <c r="A757" s="5"/>
       <c r="B757" s="5"/>
       <c r="C757" s="5"/>
@@ -29796,7 +30106,7 @@
       <c r="AE757" s="5"/>
       <c r="AF757" s="5"/>
     </row>
-    <row r="758" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:32" ht="15.75" customHeight="1">
       <c r="A758" s="5"/>
       <c r="B758" s="5"/>
       <c r="C758" s="5"/>
@@ -29830,7 +30140,7 @@
       <c r="AE758" s="5"/>
       <c r="AF758" s="5"/>
     </row>
-    <row r="759" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:32" ht="15.75" customHeight="1">
       <c r="A759" s="5"/>
       <c r="B759" s="5"/>
       <c r="C759" s="5"/>
@@ -29864,7 +30174,7 @@
       <c r="AE759" s="5"/>
       <c r="AF759" s="5"/>
     </row>
-    <row r="760" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:32" ht="15.75" customHeight="1">
       <c r="A760" s="5"/>
       <c r="B760" s="5"/>
       <c r="C760" s="5"/>
@@ -29898,7 +30208,7 @@
       <c r="AE760" s="5"/>
       <c r="AF760" s="5"/>
     </row>
-    <row r="761" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:32" ht="15.75" customHeight="1">
       <c r="A761" s="5"/>
       <c r="B761" s="5"/>
       <c r="C761" s="5"/>
@@ -29932,7 +30242,7 @@
       <c r="AE761" s="5"/>
       <c r="AF761" s="5"/>
     </row>
-    <row r="762" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:32" ht="15.75" customHeight="1">
       <c r="A762" s="5"/>
       <c r="B762" s="5"/>
       <c r="C762" s="5"/>
@@ -29966,7 +30276,7 @@
       <c r="AE762" s="5"/>
       <c r="AF762" s="5"/>
     </row>
-    <row r="763" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:32" ht="15.75" customHeight="1">
       <c r="A763" s="5"/>
       <c r="B763" s="5"/>
       <c r="C763" s="5"/>
@@ -30000,7 +30310,7 @@
       <c r="AE763" s="5"/>
       <c r="AF763" s="5"/>
     </row>
-    <row r="764" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:32" ht="15.75" customHeight="1">
       <c r="A764" s="5"/>
       <c r="B764" s="5"/>
       <c r="C764" s="5"/>
@@ -30034,7 +30344,7 @@
       <c r="AE764" s="5"/>
       <c r="AF764" s="5"/>
     </row>
-    <row r="765" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:32" ht="15.75" customHeight="1">
       <c r="A765" s="5"/>
       <c r="B765" s="5"/>
       <c r="C765" s="5"/>
@@ -30068,7 +30378,7 @@
       <c r="AE765" s="5"/>
       <c r="AF765" s="5"/>
     </row>
-    <row r="766" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:32" ht="15.75" customHeight="1">
       <c r="A766" s="5"/>
       <c r="B766" s="5"/>
       <c r="C766" s="5"/>
@@ -30102,7 +30412,7 @@
       <c r="AE766" s="5"/>
       <c r="AF766" s="5"/>
     </row>
-    <row r="767" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:32" ht="15.75" customHeight="1">
       <c r="A767" s="5"/>
       <c r="B767" s="5"/>
       <c r="C767" s="5"/>
@@ -30136,7 +30446,7 @@
       <c r="AE767" s="5"/>
       <c r="AF767" s="5"/>
     </row>
-    <row r="768" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:32" ht="15.75" customHeight="1">
       <c r="A768" s="5"/>
       <c r="B768" s="5"/>
       <c r="C768" s="5"/>
@@ -30170,7 +30480,7 @@
       <c r="AE768" s="5"/>
       <c r="AF768" s="5"/>
     </row>
-    <row r="769" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:32" ht="15.75" customHeight="1">
       <c r="A769" s="5"/>
       <c r="B769" s="5"/>
       <c r="C769" s="5"/>
@@ -30204,7 +30514,7 @@
       <c r="AE769" s="5"/>
       <c r="AF769" s="5"/>
     </row>
-    <row r="770" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:32" ht="15.75" customHeight="1">
       <c r="A770" s="5"/>
       <c r="B770" s="5"/>
       <c r="C770" s="5"/>
@@ -30238,7 +30548,7 @@
       <c r="AE770" s="5"/>
       <c r="AF770" s="5"/>
     </row>
-    <row r="771" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:32" ht="15.75" customHeight="1">
       <c r="A771" s="5"/>
       <c r="B771" s="5"/>
       <c r="C771" s="5"/>
@@ -30272,7 +30582,7 @@
       <c r="AE771" s="5"/>
       <c r="AF771" s="5"/>
     </row>
-    <row r="772" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:32" ht="15.75" customHeight="1">
       <c r="A772" s="5"/>
       <c r="B772" s="5"/>
       <c r="C772" s="5"/>
@@ -30306,7 +30616,7 @@
       <c r="AE772" s="5"/>
       <c r="AF772" s="5"/>
     </row>
-    <row r="773" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:32" ht="15.75" customHeight="1">
       <c r="A773" s="5"/>
       <c r="B773" s="5"/>
       <c r="C773" s="5"/>
@@ -30340,7 +30650,7 @@
       <c r="AE773" s="5"/>
       <c r="AF773" s="5"/>
     </row>
-    <row r="774" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:32" ht="15.75" customHeight="1">
       <c r="A774" s="5"/>
       <c r="B774" s="5"/>
       <c r="C774" s="5"/>
@@ -30374,7 +30684,7 @@
       <c r="AE774" s="5"/>
       <c r="AF774" s="5"/>
     </row>
-    <row r="775" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:32" ht="15.75" customHeight="1">
       <c r="A775" s="5"/>
       <c r="B775" s="5"/>
       <c r="C775" s="5"/>
@@ -30408,7 +30718,7 @@
       <c r="AE775" s="5"/>
       <c r="AF775" s="5"/>
     </row>
-    <row r="776" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:32" ht="15.75" customHeight="1">
       <c r="A776" s="5"/>
       <c r="B776" s="5"/>
       <c r="C776" s="5"/>
@@ -30442,7 +30752,7 @@
       <c r="AE776" s="5"/>
       <c r="AF776" s="5"/>
     </row>
-    <row r="777" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:32" ht="15.75" customHeight="1">
       <c r="A777" s="5"/>
       <c r="B777" s="5"/>
       <c r="C777" s="5"/>
@@ -30476,7 +30786,7 @@
       <c r="AE777" s="5"/>
       <c r="AF777" s="5"/>
     </row>
-    <row r="778" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:32" ht="15.75" customHeight="1">
       <c r="A778" s="5"/>
       <c r="B778" s="5"/>
       <c r="C778" s="5"/>
@@ -30510,7 +30820,7 @@
       <c r="AE778" s="5"/>
       <c r="AF778" s="5"/>
     </row>
-    <row r="779" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:32" ht="15.75" customHeight="1">
       <c r="A779" s="5"/>
       <c r="B779" s="5"/>
       <c r="C779" s="5"/>
@@ -30544,7 +30854,7 @@
       <c r="AE779" s="5"/>
       <c r="AF779" s="5"/>
     </row>
-    <row r="780" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:32" ht="15.75" customHeight="1">
       <c r="A780" s="5"/>
       <c r="B780" s="5"/>
       <c r="C780" s="5"/>
@@ -30578,7 +30888,7 @@
       <c r="AE780" s="5"/>
       <c r="AF780" s="5"/>
     </row>
-    <row r="781" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:32" ht="15.75" customHeight="1">
       <c r="A781" s="5"/>
       <c r="B781" s="5"/>
       <c r="C781" s="5"/>
@@ -30612,7 +30922,7 @@
       <c r="AE781" s="5"/>
       <c r="AF781" s="5"/>
     </row>
-    <row r="782" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:32" ht="15.75" customHeight="1">
       <c r="A782" s="5"/>
       <c r="B782" s="5"/>
       <c r="C782" s="5"/>
@@ -30646,7 +30956,7 @@
       <c r="AE782" s="5"/>
       <c r="AF782" s="5"/>
     </row>
-    <row r="783" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:32" ht="15.75" customHeight="1">
       <c r="A783" s="5"/>
       <c r="B783" s="5"/>
       <c r="C783" s="5"/>
@@ -30680,7 +30990,7 @@
       <c r="AE783" s="5"/>
       <c r="AF783" s="5"/>
     </row>
-    <row r="784" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:32" ht="15.75" customHeight="1">
       <c r="A784" s="5"/>
       <c r="B784" s="5"/>
       <c r="C784" s="5"/>
@@ -30714,7 +31024,7 @@
       <c r="AE784" s="5"/>
       <c r="AF784" s="5"/>
     </row>
-    <row r="785" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:32" ht="15.75" customHeight="1">
       <c r="A785" s="5"/>
       <c r="B785" s="5"/>
       <c r="C785" s="5"/>
@@ -30748,7 +31058,7 @@
       <c r="AE785" s="5"/>
       <c r="AF785" s="5"/>
     </row>
-    <row r="786" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:32" ht="15.75" customHeight="1">
       <c r="A786" s="5"/>
       <c r="B786" s="5"/>
       <c r="C786" s="5"/>
@@ -30782,7 +31092,7 @@
       <c r="AE786" s="5"/>
       <c r="AF786" s="5"/>
     </row>
-    <row r="787" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:32" ht="15.75" customHeight="1">
       <c r="A787" s="5"/>
       <c r="B787" s="5"/>
       <c r="C787" s="5"/>
@@ -30816,7 +31126,7 @@
       <c r="AE787" s="5"/>
       <c r="AF787" s="5"/>
     </row>
-    <row r="788" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:32" ht="15.75" customHeight="1">
       <c r="A788" s="5"/>
       <c r="B788" s="5"/>
       <c r="C788" s="5"/>
@@ -30850,7 +31160,7 @@
       <c r="AE788" s="5"/>
       <c r="AF788" s="5"/>
     </row>
-    <row r="789" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:32" ht="15.75" customHeight="1">
       <c r="A789" s="5"/>
       <c r="B789" s="5"/>
       <c r="C789" s="5"/>
@@ -30884,7 +31194,7 @@
       <c r="AE789" s="5"/>
       <c r="AF789" s="5"/>
     </row>
-    <row r="790" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:32" ht="15.75" customHeight="1">
       <c r="A790" s="5"/>
       <c r="B790" s="5"/>
       <c r="C790" s="5"/>
@@ -30918,7 +31228,7 @@
       <c r="AE790" s="5"/>
       <c r="AF790" s="5"/>
     </row>
-    <row r="791" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:32" ht="15.75" customHeight="1">
       <c r="A791" s="5"/>
       <c r="B791" s="5"/>
       <c r="C791" s="5"/>
@@ -30952,7 +31262,7 @@
       <c r="AE791" s="5"/>
       <c r="AF791" s="5"/>
     </row>
-    <row r="792" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:32" ht="15.75" customHeight="1">
       <c r="A792" s="5"/>
       <c r="B792" s="5"/>
       <c r="C792" s="5"/>
@@ -30986,7 +31296,7 @@
       <c r="AE792" s="5"/>
       <c r="AF792" s="5"/>
     </row>
-    <row r="793" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:32" ht="15.75" customHeight="1">
       <c r="A793" s="5"/>
       <c r="B793" s="5"/>
       <c r="C793" s="5"/>
@@ -31020,7 +31330,7 @@
       <c r="AE793" s="5"/>
       <c r="AF793" s="5"/>
     </row>
-    <row r="794" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:32" ht="15.75" customHeight="1">
       <c r="A794" s="5"/>
       <c r="B794" s="5"/>
       <c r="C794" s="5"/>
@@ -31054,7 +31364,7 @@
       <c r="AE794" s="5"/>
       <c r="AF794" s="5"/>
     </row>
-    <row r="795" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:32" ht="15.75" customHeight="1">
       <c r="A795" s="5"/>
       <c r="B795" s="5"/>
       <c r="C795" s="5"/>
@@ -31088,7 +31398,7 @@
       <c r="AE795" s="5"/>
       <c r="AF795" s="5"/>
     </row>
-    <row r="796" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:32" ht="15.75" customHeight="1">
       <c r="A796" s="5"/>
       <c r="B796" s="5"/>
       <c r="C796" s="5"/>
@@ -31122,7 +31432,7 @@
       <c r="AE796" s="5"/>
       <c r="AF796" s="5"/>
     </row>
-    <row r="797" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:32" ht="15.75" customHeight="1">
       <c r="A797" s="5"/>
       <c r="B797" s="5"/>
       <c r="C797" s="5"/>
@@ -31156,7 +31466,7 @@
       <c r="AE797" s="5"/>
       <c r="AF797" s="5"/>
     </row>
-    <row r="798" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:32" ht="15.75" customHeight="1">
       <c r="A798" s="5"/>
       <c r="B798" s="5"/>
       <c r="C798" s="5"/>
@@ -31190,7 +31500,7 @@
       <c r="AE798" s="5"/>
       <c r="AF798" s="5"/>
     </row>
-    <row r="799" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:32" ht="15.75" customHeight="1">
       <c r="A799" s="5"/>
       <c r="B799" s="5"/>
       <c r="C799" s="5"/>
@@ -31224,7 +31534,7 @@
       <c r="AE799" s="5"/>
       <c r="AF799" s="5"/>
     </row>
-    <row r="800" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:32" ht="15.75" customHeight="1">
       <c r="A800" s="5"/>
       <c r="B800" s="5"/>
       <c r="C800" s="5"/>
@@ -31258,7 +31568,7 @@
       <c r="AE800" s="5"/>
       <c r="AF800" s="5"/>
     </row>
-    <row r="801" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:32" ht="15.75" customHeight="1">
       <c r="A801" s="5"/>
       <c r="B801" s="5"/>
       <c r="C801" s="5"/>
@@ -31292,7 +31602,7 @@
       <c r="AE801" s="5"/>
       <c r="AF801" s="5"/>
     </row>
-    <row r="802" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:32" ht="15.75" customHeight="1">
       <c r="A802" s="5"/>
       <c r="B802" s="5"/>
       <c r="C802" s="5"/>
@@ -31326,7 +31636,7 @@
       <c r="AE802" s="5"/>
       <c r="AF802" s="5"/>
     </row>
-    <row r="803" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:32" ht="15.75" customHeight="1">
       <c r="A803" s="5"/>
       <c r="B803" s="5"/>
       <c r="C803" s="5"/>
@@ -31360,7 +31670,7 @@
       <c r="AE803" s="5"/>
       <c r="AF803" s="5"/>
     </row>
-    <row r="804" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:32" ht="15.75" customHeight="1">
       <c r="A804" s="5"/>
       <c r="B804" s="5"/>
       <c r="C804" s="5"/>
@@ -31394,7 +31704,7 @@
       <c r="AE804" s="5"/>
       <c r="AF804" s="5"/>
     </row>
-    <row r="805" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:32" ht="15.75" customHeight="1">
       <c r="A805" s="5"/>
       <c r="B805" s="5"/>
       <c r="C805" s="5"/>
@@ -31428,7 +31738,7 @@
       <c r="AE805" s="5"/>
       <c r="AF805" s="5"/>
     </row>
-    <row r="806" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:32" ht="15.75" customHeight="1">
       <c r="A806" s="5"/>
       <c r="B806" s="5"/>
       <c r="C806" s="5"/>
@@ -31462,7 +31772,7 @@
       <c r="AE806" s="5"/>
       <c r="AF806" s="5"/>
     </row>
-    <row r="807" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:32" ht="15.75" customHeight="1">
       <c r="A807" s="5"/>
       <c r="B807" s="5"/>
       <c r="C807" s="5"/>
@@ -31496,7 +31806,7 @@
       <c r="AE807" s="5"/>
       <c r="AF807" s="5"/>
     </row>
-    <row r="808" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:32" ht="15.75" customHeight="1">
       <c r="A808" s="5"/>
       <c r="B808" s="5"/>
       <c r="C808" s="5"/>
@@ -31530,7 +31840,7 @@
       <c r="AE808" s="5"/>
       <c r="AF808" s="5"/>
     </row>
-    <row r="809" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:32" ht="15.75" customHeight="1">
       <c r="A809" s="5"/>
       <c r="B809" s="5"/>
       <c r="C809" s="5"/>
@@ -31564,7 +31874,7 @@
       <c r="AE809" s="5"/>
       <c r="AF809" s="5"/>
     </row>
-    <row r="810" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:32" ht="15.75" customHeight="1">
       <c r="A810" s="5"/>
       <c r="B810" s="5"/>
       <c r="C810" s="5"/>
@@ -31598,7 +31908,7 @@
       <c r="AE810" s="5"/>
       <c r="AF810" s="5"/>
     </row>
-    <row r="811" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:32" ht="15.75" customHeight="1">
       <c r="A811" s="5"/>
       <c r="B811" s="5"/>
       <c r="C811" s="5"/>
@@ -31632,7 +31942,7 @@
       <c r="AE811" s="5"/>
       <c r="AF811" s="5"/>
     </row>
-    <row r="812" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:32" ht="15.75" customHeight="1">
       <c r="A812" s="5"/>
       <c r="B812" s="5"/>
       <c r="C812" s="5"/>
@@ -31666,7 +31976,7 @@
       <c r="AE812" s="5"/>
       <c r="AF812" s="5"/>
     </row>
-    <row r="813" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:32" ht="15.75" customHeight="1">
       <c r="A813" s="5"/>
       <c r="B813" s="5"/>
       <c r="C813" s="5"/>
@@ -31700,7 +32010,7 @@
       <c r="AE813" s="5"/>
       <c r="AF813" s="5"/>
     </row>
-    <row r="814" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:32" ht="15.75" customHeight="1">
       <c r="A814" s="5"/>
       <c r="B814" s="5"/>
       <c r="C814" s="5"/>
@@ -31734,7 +32044,7 @@
       <c r="AE814" s="5"/>
       <c r="AF814" s="5"/>
     </row>
-    <row r="815" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:32" ht="15.75" customHeight="1">
       <c r="A815" s="5"/>
       <c r="B815" s="5"/>
       <c r="C815" s="5"/>
@@ -31768,7 +32078,7 @@
       <c r="AE815" s="5"/>
       <c r="AF815" s="5"/>
     </row>
-    <row r="816" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:32" ht="15.75" customHeight="1">
       <c r="A816" s="5"/>
       <c r="B816" s="5"/>
       <c r="C816" s="5"/>
@@ -31802,7 +32112,7 @@
       <c r="AE816" s="5"/>
       <c r="AF816" s="5"/>
     </row>
-    <row r="817" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:32" ht="15.75" customHeight="1">
       <c r="A817" s="5"/>
       <c r="B817" s="5"/>
       <c r="C817" s="5"/>
@@ -31836,7 +32146,7 @@
       <c r="AE817" s="5"/>
       <c r="AF817" s="5"/>
     </row>
-    <row r="818" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:32" ht="15.75" customHeight="1">
       <c r="A818" s="5"/>
       <c r="B818" s="5"/>
       <c r="C818" s="5"/>
@@ -31870,7 +32180,7 @@
       <c r="AE818" s="5"/>
       <c r="AF818" s="5"/>
     </row>
-    <row r="819" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:32" ht="15.75" customHeight="1">
       <c r="A819" s="5"/>
       <c r="B819" s="5"/>
       <c r="C819" s="5"/>
@@ -31904,7 +32214,7 @@
       <c r="AE819" s="5"/>
       <c r="AF819" s="5"/>
     </row>
-    <row r="820" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:32" ht="15.75" customHeight="1">
       <c r="A820" s="5"/>
       <c r="B820" s="5"/>
       <c r="C820" s="5"/>
@@ -31938,7 +32248,7 @@
       <c r="AE820" s="5"/>
       <c r="AF820" s="5"/>
     </row>
-    <row r="821" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:32" ht="15.75" customHeight="1">
       <c r="A821" s="5"/>
       <c r="B821" s="5"/>
       <c r="C821" s="5"/>
@@ -31972,7 +32282,7 @@
       <c r="AE821" s="5"/>
       <c r="AF821" s="5"/>
     </row>
-    <row r="822" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:32" ht="15.75" customHeight="1">
       <c r="A822" s="5"/>
       <c r="B822" s="5"/>
       <c r="C822" s="5"/>
@@ -32006,7 +32316,7 @@
       <c r="AE822" s="5"/>
       <c r="AF822" s="5"/>
     </row>
-    <row r="823" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:32" ht="15.75" customHeight="1">
       <c r="A823" s="5"/>
       <c r="B823" s="5"/>
       <c r="C823" s="5"/>
@@ -32040,7 +32350,7 @@
       <c r="AE823" s="5"/>
       <c r="AF823" s="5"/>
     </row>
-    <row r="824" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:32" ht="15.75" customHeight="1">
       <c r="A824" s="5"/>
       <c r="B824" s="5"/>
       <c r="C824" s="5"/>
@@ -32074,7 +32384,7 @@
       <c r="AE824" s="5"/>
       <c r="AF824" s="5"/>
     </row>
-    <row r="825" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:32" ht="15.75" customHeight="1">
       <c r="A825" s="5"/>
       <c r="B825" s="5"/>
       <c r="C825" s="5"/>
@@ -32108,7 +32418,7 @@
       <c r="AE825" s="5"/>
       <c r="AF825" s="5"/>
     </row>
-    <row r="826" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:32" ht="15.75" customHeight="1">
       <c r="A826" s="5"/>
       <c r="B826" s="5"/>
       <c r="C826" s="5"/>
@@ -32142,7 +32452,7 @@
       <c r="AE826" s="5"/>
       <c r="AF826" s="5"/>
     </row>
-    <row r="827" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:32" ht="15.75" customHeight="1">
       <c r="A827" s="5"/>
       <c r="B827" s="5"/>
       <c r="C827" s="5"/>
@@ -32176,7 +32486,7 @@
       <c r="AE827" s="5"/>
       <c r="AF827" s="5"/>
     </row>
-    <row r="828" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:32" ht="15.75" customHeight="1">
       <c r="A828" s="5"/>
       <c r="B828" s="5"/>
       <c r="C828" s="5"/>
@@ -32210,7 +32520,7 @@
       <c r="AE828" s="5"/>
       <c r="AF828" s="5"/>
     </row>
-    <row r="829" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:32" ht="15.75" customHeight="1">
       <c r="A829" s="5"/>
       <c r="B829" s="5"/>
       <c r="C829" s="5"/>
@@ -32244,7 +32554,7 @@
       <c r="AE829" s="5"/>
       <c r="AF829" s="5"/>
     </row>
-    <row r="830" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:32" ht="15.75" customHeight="1">
       <c r="A830" s="5"/>
       <c r="B830" s="5"/>
       <c r="C830" s="5"/>
@@ -32278,7 +32588,7 @@
       <c r="AE830" s="5"/>
       <c r="AF830" s="5"/>
     </row>
-    <row r="831" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:32" ht="15.75" customHeight="1">
       <c r="A831" s="5"/>
       <c r="B831" s="5"/>
       <c r="C831" s="5"/>
@@ -32312,7 +32622,7 @@
       <c r="AE831" s="5"/>
       <c r="AF831" s="5"/>
     </row>
-    <row r="832" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:32" ht="15.75" customHeight="1">
       <c r="A832" s="5"/>
       <c r="B832" s="5"/>
       <c r="C832" s="5"/>
@@ -32346,7 +32656,7 @@
       <c r="AE832" s="5"/>
       <c r="AF832" s="5"/>
     </row>
-    <row r="833" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:32" ht="15.75" customHeight="1">
       <c r="A833" s="5"/>
       <c r="B833" s="5"/>
       <c r="C833" s="5"/>
@@ -32380,7 +32690,7 @@
       <c r="AE833" s="5"/>
       <c r="AF833" s="5"/>
     </row>
-    <row r="834" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:32" ht="15.75" customHeight="1">
       <c r="A834" s="5"/>
       <c r="B834" s="5"/>
       <c r="C834" s="5"/>
@@ -32414,7 +32724,7 @@
       <c r="AE834" s="5"/>
       <c r="AF834" s="5"/>
     </row>
-    <row r="835" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:32" ht="15.75" customHeight="1">
       <c r="A835" s="5"/>
       <c r="B835" s="5"/>
       <c r="C835" s="5"/>
@@ -32448,7 +32758,7 @@
       <c r="AE835" s="5"/>
       <c r="AF835" s="5"/>
     </row>
-    <row r="836" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:32" ht="15.75" customHeight="1">
       <c r="A836" s="5"/>
       <c r="B836" s="5"/>
       <c r="C836" s="5"/>
@@ -32482,7 +32792,7 @@
       <c r="AE836" s="5"/>
       <c r="AF836" s="5"/>
     </row>
-    <row r="837" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:32" ht="15.75" customHeight="1">
       <c r="A837" s="5"/>
       <c r="B837" s="5"/>
       <c r="C837" s="5"/>
@@ -32516,7 +32826,7 @@
       <c r="AE837" s="5"/>
       <c r="AF837" s="5"/>
     </row>
-    <row r="838" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:32" ht="15.75" customHeight="1">
       <c r="A838" s="5"/>
       <c r="B838" s="5"/>
       <c r="C838" s="5"/>
@@ -32550,7 +32860,7 @@
       <c r="AE838" s="5"/>
       <c r="AF838" s="5"/>
     </row>
-    <row r="839" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:32" ht="15.75" customHeight="1">
       <c r="A839" s="5"/>
       <c r="B839" s="5"/>
       <c r="C839" s="5"/>
@@ -32584,7 +32894,7 @@
       <c r="AE839" s="5"/>
       <c r="AF839" s="5"/>
     </row>
-    <row r="840" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:32" ht="15.75" customHeight="1">
       <c r="A840" s="5"/>
       <c r="B840" s="5"/>
       <c r="C840" s="5"/>
@@ -32618,7 +32928,7 @@
       <c r="AE840" s="5"/>
       <c r="AF840" s="5"/>
     </row>
-    <row r="841" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:32" ht="15.75" customHeight="1">
       <c r="A841" s="5"/>
       <c r="B841" s="5"/>
       <c r="C841" s="5"/>
@@ -32652,7 +32962,7 @@
       <c r="AE841" s="5"/>
       <c r="AF841" s="5"/>
     </row>
-    <row r="842" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:32" ht="15.75" customHeight="1">
       <c r="A842" s="5"/>
       <c r="B842" s="5"/>
       <c r="C842" s="5"/>
@@ -32686,7 +32996,7 @@
       <c r="AE842" s="5"/>
       <c r="AF842" s="5"/>
     </row>
-    <row r="843" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:32" ht="15.75" customHeight="1">
       <c r="A843" s="5"/>
       <c r="B843" s="5"/>
       <c r="C843" s="5"/>
@@ -32720,7 +33030,7 @@
       <c r="AE843" s="5"/>
       <c r="AF843" s="5"/>
     </row>
-    <row r="844" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:32" ht="15.75" customHeight="1">
       <c r="A844" s="5"/>
       <c r="B844" s="5"/>
       <c r="C844" s="5"/>
@@ -32754,7 +33064,7 @@
       <c r="AE844" s="5"/>
       <c r="AF844" s="5"/>
     </row>
-    <row r="845" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:32" ht="15.75" customHeight="1">
       <c r="A845" s="5"/>
       <c r="B845" s="5"/>
       <c r="C845" s="5"/>
@@ -32788,7 +33098,7 @@
       <c r="AE845" s="5"/>
       <c r="AF845" s="5"/>
     </row>
-    <row r="846" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:32" ht="15.75" customHeight="1">
       <c r="A846" s="5"/>
       <c r="B846" s="5"/>
       <c r="C846" s="5"/>
@@ -32822,7 +33132,7 @@
       <c r="AE846" s="5"/>
       <c r="AF846" s="5"/>
     </row>
-    <row r="847" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:32" ht="15.75" customHeight="1">
       <c r="A847" s="5"/>
       <c r="B847" s="5"/>
       <c r="C847" s="5"/>
@@ -32856,7 +33166,7 @@
       <c r="AE847" s="5"/>
       <c r="AF847" s="5"/>
     </row>
-    <row r="848" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:32" ht="15.75" customHeight="1">
       <c r="A848" s="5"/>
       <c r="B848" s="5"/>
       <c r="C848" s="5"/>
@@ -32890,7 +33200,7 @@
       <c r="AE848" s="5"/>
       <c r="AF848" s="5"/>
     </row>
-    <row r="849" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:32" ht="15.75" customHeight="1">
       <c r="A849" s="5"/>
       <c r="B849" s="5"/>
       <c r="C849" s="5"/>
@@ -32924,7 +33234,7 @@
       <c r="AE849" s="5"/>
       <c r="AF849" s="5"/>
     </row>
-    <row r="850" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:32" ht="15.75" customHeight="1">
       <c r="A850" s="5"/>
       <c r="B850" s="5"/>
       <c r="C850" s="5"/>
@@ -32958,7 +33268,7 @@
       <c r="AE850" s="5"/>
       <c r="AF850" s="5"/>
     </row>
-    <row r="851" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:32" ht="15.75" customHeight="1">
       <c r="A851" s="5"/>
       <c r="B851" s="5"/>
       <c r="C851" s="5"/>
@@ -32992,7 +33302,7 @@
       <c r="AE851" s="5"/>
       <c r="AF851" s="5"/>
     </row>
-    <row r="852" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:32" ht="15.75" customHeight="1">
       <c r="A852" s="5"/>
       <c r="B852" s="5"/>
       <c r="C852" s="5"/>
@@ -33026,7 +33336,7 @@
       <c r="AE852" s="5"/>
       <c r="AF852" s="5"/>
     </row>
-    <row r="853" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:32" ht="15.75" customHeight="1">
       <c r="A853" s="5"/>
       <c r="B853" s="5"/>
       <c r="C853" s="5"/>
@@ -33060,7 +33370,7 @@
       <c r="AE853" s="5"/>
       <c r="AF853" s="5"/>
     </row>
-    <row r="854" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:32" ht="15.75" customHeight="1">
       <c r="A854" s="5"/>
       <c r="B854" s="5"/>
       <c r="C854" s="5"/>
@@ -33094,7 +33404,7 @@
       <c r="AE854" s="5"/>
       <c r="AF854" s="5"/>
     </row>
-    <row r="855" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:32" ht="15.75" customHeight="1">
       <c r="A855" s="5"/>
       <c r="B855" s="5"/>
       <c r="C855" s="5"/>
@@ -33128,7 +33438,7 @@
       <c r="AE855" s="5"/>
       <c r="AF855" s="5"/>
     </row>
-    <row r="856" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:32" ht="15.75" customHeight="1">
       <c r="A856" s="5"/>
       <c r="B856" s="5"/>
       <c r="C856" s="5"/>
@@ -33162,7 +33472,7 @@
       <c r="AE856" s="5"/>
       <c r="AF856" s="5"/>
     </row>
-    <row r="857" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:32" ht="15.75" customHeight="1">
       <c r="A857" s="5"/>
       <c r="B857" s="5"/>
       <c r="C857" s="5"/>
@@ -33196,7 +33506,7 @@
       <c r="AE857" s="5"/>
       <c r="AF857" s="5"/>
     </row>
-    <row r="858" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:32" ht="15.75" customHeight="1">
       <c r="A858" s="5"/>
       <c r="B858" s="5"/>
       <c r="C858" s="5"/>
@@ -33230,7 +33540,7 @@
       <c r="AE858" s="5"/>
       <c r="AF858" s="5"/>
     </row>
-    <row r="859" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:32" ht="15.75" customHeight="1">
       <c r="A859" s="5"/>
       <c r="B859" s="5"/>
       <c r="C859" s="5"/>
@@ -33264,7 +33574,7 @@
       <c r="AE859" s="5"/>
       <c r="AF859" s="5"/>
     </row>
-    <row r="860" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:32" ht="15.75" customHeight="1">
       <c r="A860" s="5"/>
       <c r="B860" s="5"/>
       <c r="C860" s="5"/>
@@ -33298,7 +33608,7 @@
       <c r="AE860" s="5"/>
       <c r="AF860" s="5"/>
     </row>
-    <row r="861" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:32" ht="15.75" customHeight="1">
       <c r="A861" s="5"/>
       <c r="B861" s="5"/>
       <c r="C861" s="5"/>
@@ -33332,7 +33642,7 @@
       <c r="AE861" s="5"/>
       <c r="AF861" s="5"/>
     </row>
-    <row r="862" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:32" ht="15.75" customHeight="1">
       <c r="A862" s="5"/>
       <c r="B862" s="5"/>
       <c r="C862" s="5"/>
@@ -33366,7 +33676,7 @@
       <c r="AE862" s="5"/>
       <c r="AF862" s="5"/>
     </row>
-    <row r="863" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:32" ht="15.75" customHeight="1">
       <c r="A863" s="5"/>
       <c r="B863" s="5"/>
       <c r="C863" s="5"/>
@@ -33400,7 +33710,7 @@
       <c r="AE863" s="5"/>
       <c r="AF863" s="5"/>
     </row>
-    <row r="864" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:32" ht="15.75" customHeight="1">
       <c r="A864" s="5"/>
       <c r="B864" s="5"/>
       <c r="C864" s="5"/>
@@ -33434,7 +33744,7 @@
       <c r="AE864" s="5"/>
       <c r="AF864" s="5"/>
     </row>
-    <row r="865" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:32" ht="15.75" customHeight="1">
       <c r="A865" s="5"/>
       <c r="B865" s="5"/>
       <c r="C865" s="5"/>
@@ -33468,7 +33778,7 @@
       <c r="AE865" s="5"/>
       <c r="AF865" s="5"/>
     </row>
-    <row r="866" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:32" ht="15.75" customHeight="1">
       <c r="A866" s="5"/>
       <c r="B866" s="5"/>
       <c r="C866" s="5"/>
@@ -33502,7 +33812,7 @@
       <c r="AE866" s="5"/>
       <c r="AF866" s="5"/>
     </row>
-    <row r="867" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:32" ht="15.75" customHeight="1">
       <c r="A867" s="5"/>
       <c r="B867" s="5"/>
       <c r="C867" s="5"/>
@@ -33536,7 +33846,7 @@
       <c r="AE867" s="5"/>
       <c r="AF867" s="5"/>
     </row>
-    <row r="868" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:32" ht="15.75" customHeight="1">
       <c r="A868" s="5"/>
       <c r="B868" s="5"/>
       <c r="C868" s="5"/>
@@ -33570,7 +33880,7 @@
       <c r="AE868" s="5"/>
       <c r="AF868" s="5"/>
     </row>
-    <row r="869" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:32" ht="15.75" customHeight="1">
       <c r="A869" s="5"/>
       <c r="B869" s="5"/>
       <c r="C869" s="5"/>
@@ -33604,7 +33914,7 @@
       <c r="AE869" s="5"/>
       <c r="AF869" s="5"/>
     </row>
-    <row r="870" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:32" ht="15.75" customHeight="1">
       <c r="A870" s="5"/>
       <c r="B870" s="5"/>
       <c r="C870" s="5"/>
@@ -33638,7 +33948,7 @@
       <c r="AE870" s="5"/>
       <c r="AF870" s="5"/>
     </row>
-    <row r="871" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:32" ht="15.75" customHeight="1">
       <c r="A871" s="5"/>
       <c r="B871" s="5"/>
       <c r="C871" s="5"/>
@@ -33672,7 +33982,7 @@
       <c r="AE871" s="5"/>
       <c r="AF871" s="5"/>
     </row>
-    <row r="872" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:32" ht="15.75" customHeight="1">
       <c r="A872" s="5"/>
       <c r="B872" s="5"/>
       <c r="C872" s="5"/>
@@ -33706,7 +34016,7 @@
       <c r="AE872" s="5"/>
       <c r="AF872" s="5"/>
     </row>
-    <row r="873" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:32" ht="15.75" customHeight="1">
       <c r="A873" s="5"/>
       <c r="B873" s="5"/>
       <c r="C873" s="5"/>
@@ -33740,7 +34050,7 @@
       <c r="AE873" s="5"/>
       <c r="AF873" s="5"/>
     </row>
-    <row r="874" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:32" ht="15.75" customHeight="1">
       <c r="A874" s="5"/>
       <c r="B874" s="5"/>
       <c r="C874" s="5"/>
@@ -33774,7 +34084,7 @@
       <c r="AE874" s="5"/>
       <c r="AF874" s="5"/>
     </row>
-    <row r="875" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:32" ht="15.75" customHeight="1">
       <c r="A875" s="5"/>
       <c r="B875" s="5"/>
       <c r="C875" s="5"/>
@@ -33808,7 +34118,7 @@
       <c r="AE875" s="5"/>
       <c r="AF875" s="5"/>
     </row>
-    <row r="876" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:32" ht="15.75" customHeight="1">
       <c r="A876" s="5"/>
       <c r="B876" s="5"/>
       <c r="C876" s="5"/>
@@ -33842,7 +34152,7 @@
       <c r="AE876" s="5"/>
       <c r="AF876" s="5"/>
     </row>
-    <row r="877" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:32" ht="15.75" customHeight="1">
       <c r="A877" s="5"/>
       <c r="B877" s="5"/>
       <c r="C877" s="5"/>
@@ -33876,7 +34186,7 @@
       <c r="AE877" s="5"/>
       <c r="AF877" s="5"/>
     </row>
-    <row r="878" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:32" ht="15.75" customHeight="1">
       <c r="A878" s="5"/>
       <c r="B878" s="5"/>
       <c r="C878" s="5"/>
@@ -33910,7 +34220,7 @@
       <c r="AE878" s="5"/>
       <c r="AF878" s="5"/>
     </row>
-    <row r="879" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:32" ht="15.75" customHeight="1">
       <c r="A879" s="5"/>
       <c r="B879" s="5"/>
       <c r="C879" s="5"/>
@@ -33944,7 +34254,7 @@
       <c r="AE879" s="5"/>
       <c r="AF879" s="5"/>
     </row>
-    <row r="880" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:32" ht="15.75" customHeight="1">
       <c r="A880" s="5"/>
       <c r="B880" s="5"/>
       <c r="C880" s="5"/>
@@ -33978,7 +34288,7 @@
       <c r="AE880" s="5"/>
       <c r="AF880" s="5"/>
     </row>
-    <row r="881" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:32" ht="15.75" customHeight="1">
       <c r="A881" s="5"/>
       <c r="B881" s="5"/>
       <c r="C881" s="5"/>
@@ -34012,7 +34322,7 @@
       <c r="AE881" s="5"/>
       <c r="AF881" s="5"/>
     </row>
-    <row r="882" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:32" ht="15.75" customHeight="1">
       <c r="A882" s="5"/>
       <c r="B882" s="5"/>
       <c r="C882" s="5"/>
@@ -34046,7 +34356,7 @@
       <c r="AE882" s="5"/>
       <c r="AF882" s="5"/>
     </row>
-    <row r="883" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:32" ht="15.75" customHeight="1">
       <c r="A883" s="5"/>
       <c r="B883" s="5"/>
       <c r="C883" s="5"/>
@@ -34080,7 +34390,7 @@
       <c r="AE883" s="5"/>
       <c r="AF883" s="5"/>
     </row>
-    <row r="884" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:32" ht="15.75" customHeight="1">
       <c r="A884" s="5"/>
       <c r="B884" s="5"/>
       <c r="C884" s="5"/>
@@ -34114,7 +34424,7 @@
       <c r="AE884" s="5"/>
       <c r="AF884" s="5"/>
     </row>
-    <row r="885" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:32" ht="15.75" customHeight="1">
       <c r="A885" s="5"/>
       <c r="B885" s="5"/>
       <c r="C885" s="5"/>
@@ -34148,7 +34458,7 @@
       <c r="AE885" s="5"/>
       <c r="AF885" s="5"/>
     </row>
-    <row r="886" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:32" ht="15.75" customHeight="1">
       <c r="A886" s="5"/>
       <c r="B886" s="5"/>
       <c r="C886" s="5"/>
@@ -34182,7 +34492,7 @@
       <c r="AE886" s="5"/>
       <c r="AF886" s="5"/>
     </row>
-    <row r="887" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:32" ht="15.75" customHeight="1">
       <c r="A887" s="5"/>
       <c r="B887" s="5"/>
       <c r="C887" s="5"/>
@@ -34216,7 +34526,7 @@
       <c r="AE887" s="5"/>
       <c r="AF887" s="5"/>
     </row>
-    <row r="888" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:32" ht="15.75" customHeight="1">
       <c r="A888" s="5"/>
       <c r="B888" s="5"/>
       <c r="C888" s="5"/>
@@ -34250,7 +34560,7 @@
       <c r="AE888" s="5"/>
       <c r="AF888" s="5"/>
     </row>
-    <row r="889" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:32" ht="15.75" customHeight="1">
       <c r="A889" s="5"/>
       <c r="B889" s="5"/>
       <c r="C889" s="5"/>
@@ -34284,7 +34594,7 @@
       <c r="AE889" s="5"/>
       <c r="AF889" s="5"/>
     </row>
-    <row r="890" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:32" ht="15.75" customHeight="1">
       <c r="A890" s="5"/>
       <c r="B890" s="5"/>
       <c r="C890" s="5"/>
@@ -34318,7 +34628,7 @@
       <c r="AE890" s="5"/>
       <c r="AF890" s="5"/>
     </row>
-    <row r="891" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:32" ht="15.75" customHeight="1">
       <c r="A891" s="5"/>
       <c r="B891" s="5"/>
       <c r="C891" s="5"/>
@@ -34352,7 +34662,7 @@
       <c r="AE891" s="5"/>
       <c r="AF891" s="5"/>
     </row>
-    <row r="892" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:32" ht="15.75" customHeight="1">
       <c r="A892" s="5"/>
       <c r="B892" s="5"/>
       <c r="C892" s="5"/>
@@ -34386,7 +34696,7 @@
       <c r="AE892" s="5"/>
       <c r="AF892" s="5"/>
     </row>
-    <row r="893" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:32" ht="15.75" customHeight="1">
       <c r="A893" s="5"/>
       <c r="B893" s="5"/>
       <c r="C893" s="5"/>
@@ -34420,7 +34730,7 @@
       <c r="AE893" s="5"/>
       <c r="AF893" s="5"/>
     </row>
-    <row r="894" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:32" ht="15.75" customHeight="1">
       <c r="A894" s="5"/>
       <c r="B894" s="5"/>
       <c r="C894" s="5"/>
@@ -34454,7 +34764,7 @@
       <c r="AE894" s="5"/>
       <c r="AF894" s="5"/>
     </row>
-    <row r="895" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:32" ht="15.75" customHeight="1">
       <c r="A895" s="5"/>
       <c r="B895" s="5"/>
       <c r="C895" s="5"/>
@@ -34488,7 +34798,7 @@
       <c r="AE895" s="5"/>
       <c r="AF895" s="5"/>
     </row>
-    <row r="896" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:32" ht="15.75" customHeight="1">
       <c r="A896" s="5"/>
       <c r="B896" s="5"/>
       <c r="C896" s="5"/>
@@ -34522,7 +34832,7 @@
       <c r="AE896" s="5"/>
       <c r="AF896" s="5"/>
     </row>
-    <row r="897" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:32" ht="15.75" customHeight="1">
       <c r="A897" s="5"/>
       <c r="B897" s="5"/>
       <c r="C897" s="5"/>
@@ -34556,7 +34866,7 @@
       <c r="AE897" s="5"/>
       <c r="AF897" s="5"/>
     </row>
-    <row r="898" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:32" ht="15.75" customHeight="1">
       <c r="A898" s="5"/>
       <c r="B898" s="5"/>
       <c r="C898" s="5"/>
@@ -34590,7 +34900,7 @@
       <c r="AE898" s="5"/>
       <c r="AF898" s="5"/>
     </row>
-    <row r="899" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:32" ht="15.75" customHeight="1">
       <c r="A899" s="5"/>
       <c r="B899" s="5"/>
       <c r="C899" s="5"/>
@@ -34624,7 +34934,7 @@
       <c r="AE899" s="5"/>
       <c r="AF899" s="5"/>
     </row>
-    <row r="900" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:32" ht="15.75" customHeight="1">
       <c r="A900" s="5"/>
       <c r="B900" s="5"/>
       <c r="C900" s="5"/>
@@ -34658,7 +34968,7 @@
       <c r="AE900" s="5"/>
       <c r="AF900" s="5"/>
     </row>
-    <row r="901" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:32" ht="15.75" customHeight="1">
       <c r="A901" s="5"/>
       <c r="B901" s="5"/>
       <c r="C901" s="5"/>
@@ -34692,7 +35002,7 @@
       <c r="AE901" s="5"/>
       <c r="AF901" s="5"/>
     </row>
-    <row r="902" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:32" ht="15.75" customHeight="1">
       <c r="A902" s="5"/>
       <c r="B902" s="5"/>
       <c r="C902" s="5"/>
@@ -34726,7 +35036,7 @@
       <c r="AE902" s="5"/>
       <c r="AF902" s="5"/>
     </row>
-    <row r="903" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:32" ht="15.75" customHeight="1">
       <c r="A903" s="5"/>
       <c r="B903" s="5"/>
       <c r="C903" s="5"/>
@@ -34760,7 +35070,7 @@
       <c r="AE903" s="5"/>
       <c r="AF903" s="5"/>
     </row>
-    <row r="904" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:32" ht="15.75" customHeight="1">
       <c r="A904" s="5"/>
       <c r="B904" s="5"/>
       <c r="C904" s="5"/>
@@ -34794,7 +35104,7 @@
       <c r="AE904" s="5"/>
       <c r="AF904" s="5"/>
     </row>
-    <row r="905" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:32" ht="15.75" customHeight="1">
       <c r="A905" s="5"/>
       <c r="B905" s="5"/>
       <c r="C905" s="5"/>
@@ -34828,7 +35138,7 @@
       <c r="AE905" s="5"/>
       <c r="AF905" s="5"/>
     </row>
-    <row r="906" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:32" ht="15.75" customHeight="1">
       <c r="A906" s="5"/>
       <c r="B906" s="5"/>
       <c r="C906" s="5"/>
@@ -34862,7 +35172,7 @@
       <c r="AE906" s="5"/>
       <c r="AF906" s="5"/>
     </row>
-    <row r="907" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:32" ht="15.75" customHeight="1">
       <c r="A907" s="5"/>
       <c r="B907" s="5"/>
       <c r="C907" s="5"/>
@@ -34896,7 +35206,7 @@
       <c r="AE907" s="5"/>
       <c r="AF907" s="5"/>
     </row>
-    <row r="908" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:32" ht="15.75" customHeight="1">
       <c r="A908" s="5"/>
       <c r="B908" s="5"/>
       <c r="C908" s="5"/>
@@ -34930,7 +35240,7 @@
       <c r="AE908" s="5"/>
       <c r="AF908" s="5"/>
     </row>
-    <row r="909" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:32" ht="15.75" customHeight="1">
       <c r="A909" s="5"/>
       <c r="B909" s="5"/>
       <c r="C909" s="5"/>
@@ -34964,7 +35274,7 @@
       <c r="AE909" s="5"/>
       <c r="AF909" s="5"/>
     </row>
-    <row r="910" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:32" ht="15.75" customHeight="1">
       <c r="A910" s="5"/>
       <c r="B910" s="5"/>
       <c r="C910" s="5"/>
@@ -34998,7 +35308,7 @@
       <c r="AE910" s="5"/>
       <c r="AF910" s="5"/>
     </row>
-    <row r="911" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:32" ht="15.75" customHeight="1">
       <c r="A911" s="5"/>
       <c r="B911" s="5"/>
       <c r="C911" s="5"/>
@@ -35032,7 +35342,7 @@
       <c r="AE911" s="5"/>
       <c r="AF911" s="5"/>
     </row>
-    <row r="912" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:32" ht="15.75" customHeight="1">
       <c r="A912" s="5"/>
       <c r="B912" s="5"/>
       <c r="C912" s="5"/>
@@ -35066,7 +35376,7 @@
       <c r="AE912" s="5"/>
       <c r="AF912" s="5"/>
     </row>
-    <row r="913" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:32" ht="15.75" customHeight="1">
       <c r="A913" s="5"/>
       <c r="B913" s="5"/>
       <c r="C913" s="5"/>
@@ -35100,7 +35410,7 @@
       <c r="AE913" s="5"/>
       <c r="AF913" s="5"/>
     </row>
-    <row r="914" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:32" ht="15.75" customHeight="1">
       <c r="A914" s="5"/>
       <c r="B914" s="5"/>
       <c r="C914" s="5"/>
@@ -35134,7 +35444,7 @@
       <c r="AE914" s="5"/>
       <c r="AF914" s="5"/>
     </row>
-    <row r="915" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:32" ht="15.75" customHeight="1">
       <c r="A915" s="5"/>
       <c r="B915" s="5"/>
       <c r="C915" s="5"/>
@@ -35168,7 +35478,7 @@
       <c r="AE915" s="5"/>
       <c r="AF915" s="5"/>
     </row>
-    <row r="916" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:32" ht="15.75" customHeight="1">
       <c r="A916" s="5"/>
       <c r="B916" s="5"/>
       <c r="C916" s="5"/>
@@ -35202,7 +35512,7 @@
       <c r="AE916" s="5"/>
       <c r="AF916" s="5"/>
     </row>
-    <row r="917" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:32" ht="15.75" customHeight="1">
       <c r="A917" s="5"/>
       <c r="B917" s="5"/>
       <c r="C917" s="5"/>
@@ -35236,7 +35546,7 @@
       <c r="AE917" s="5"/>
       <c r="AF917" s="5"/>
     </row>
-    <row r="918" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:32" ht="15.75" customHeight="1">
       <c r="A918" s="5"/>
       <c r="B918" s="5"/>
       <c r="C918" s="5"/>
@@ -35270,7 +35580,7 @@
       <c r="AE918" s="5"/>
       <c r="AF918" s="5"/>
     </row>
-    <row r="919" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:32" ht="15.75" customHeight="1">
       <c r="A919" s="5"/>
       <c r="B919" s="5"/>
       <c r="C919" s="5"/>
@@ -35304,7 +35614,7 @@
       <c r="AE919" s="5"/>
       <c r="AF919" s="5"/>
     </row>
-    <row r="920" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:32" ht="15.75" customHeight="1">
       <c r="A920" s="5"/>
       <c r="B920" s="5"/>
       <c r="C920" s="5"/>
@@ -35338,7 +35648,7 @@
       <c r="AE920" s="5"/>
       <c r="AF920" s="5"/>
     </row>
-    <row r="921" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:32" ht="15.75" customHeight="1">
       <c r="A921" s="5"/>
       <c r="B921" s="5"/>
       <c r="C921" s="5"/>
@@ -35372,7 +35682,7 @@
       <c r="AE921" s="5"/>
       <c r="AF921" s="5"/>
     </row>
-    <row r="922" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:32" ht="15.75" customHeight="1">
       <c r="A922" s="5"/>
       <c r="B922" s="5"/>
       <c r="C922" s="5"/>
@@ -35406,7 +35716,7 @@
       <c r="AE922" s="5"/>
       <c r="AF922" s="5"/>
     </row>
-    <row r="923" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:32" ht="15.75" customHeight="1">
       <c r="A923" s="5"/>
       <c r="B923" s="5"/>
       <c r="C923" s="5"/>
@@ -35440,7 +35750,7 @@
       <c r="AE923" s="5"/>
       <c r="AF923" s="5"/>
     </row>
-    <row r="924" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:32" ht="15.75" customHeight="1">
       <c r="A924" s="5"/>
       <c r="B924" s="5"/>
       <c r="C924" s="5"/>
@@ -35474,7 +35784,7 @@
       <c r="AE924" s="5"/>
       <c r="AF924" s="5"/>
     </row>
-    <row r="925" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:32" ht="15.75" customHeight="1">
       <c r="A925" s="5"/>
       <c r="B925" s="5"/>
       <c r="C925" s="5"/>
@@ -35508,7 +35818,7 @@
       <c r="AE925" s="5"/>
       <c r="AF925" s="5"/>
     </row>
-    <row r="926" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:32" ht="15.75" customHeight="1">
       <c r="A926" s="5"/>
       <c r="B926" s="5"/>
       <c r="C926" s="5"/>
@@ -35542,7 +35852,7 @@
       <c r="AE926" s="5"/>
       <c r="AF926" s="5"/>
     </row>
-    <row r="927" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:32" ht="15.75" customHeight="1">
       <c r="A927" s="5"/>
       <c r="B927" s="5"/>
       <c r="C927" s="5"/>
@@ -35576,7 +35886,7 @@
       <c r="AE927" s="5"/>
       <c r="AF927" s="5"/>
     </row>
-    <row r="928" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:32" ht="15.75" customHeight="1">
       <c r="A928" s="5"/>
       <c r="B928" s="5"/>
       <c r="C928" s="5"/>
@@ -35610,7 +35920,7 @@
       <c r="AE928" s="5"/>
       <c r="AF928" s="5"/>
     </row>
-    <row r="929" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:32" ht="15.75" customHeight="1">
       <c r="A929" s="5"/>
       <c r="B929" s="5"/>
       <c r="C929" s="5"/>
@@ -35644,7 +35954,7 @@
       <c r="AE929" s="5"/>
       <c r="AF929" s="5"/>
     </row>
-    <row r="930" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:32" ht="15.75" customHeight="1">
       <c r="A930" s="5"/>
       <c r="B930" s="5"/>
       <c r="C930" s="5"/>
@@ -35678,7 +35988,7 @@
       <c r="AE930" s="5"/>
       <c r="AF930" s="5"/>
     </row>
-    <row r="931" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:32" ht="15.75" customHeight="1">
       <c r="A931" s="5"/>
       <c r="B931" s="5"/>
       <c r="C931" s="5"/>
@@ -35712,7 +36022,7 @@
       <c r="AE931" s="5"/>
       <c r="AF931" s="5"/>
     </row>
-    <row r="932" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:32" ht="15.75" customHeight="1">
       <c r="A932" s="5"/>
       <c r="B932" s="5"/>
       <c r="C932" s="5"/>
@@ -35746,7 +36056,7 @@
       <c r="AE932" s="5"/>
       <c r="AF932" s="5"/>
     </row>
-    <row r="933" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:32" ht="15.75" customHeight="1">
       <c r="A933" s="5"/>
       <c r="B933" s="5"/>
       <c r="C933" s="5"/>
@@ -35780,7 +36090,7 @@
       <c r="AE933" s="5"/>
       <c r="AF933" s="5"/>
     </row>
-    <row r="934" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:32" ht="15.75" customHeight="1">
       <c r="A934" s="5"/>
       <c r="B934" s="5"/>
       <c r="C934" s="5"/>
@@ -35814,7 +36124,7 @@
       <c r="AE934" s="5"/>
       <c r="AF934" s="5"/>
     </row>
-    <row r="935" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="935" spans="1:32" ht="15.75" customHeight="1">
       <c r="A935" s="5"/>
       <c r="B935" s="5"/>
       <c r="C935" s="5"/>
@@ -35848,7 +36158,7 @@
       <c r="AE935" s="5"/>
       <c r="AF935" s="5"/>
     </row>
-    <row r="936" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:32" ht="15.75" customHeight="1">
       <c r="A936" s="5"/>
       <c r="B936" s="5"/>
       <c r="C936" s="5"/>
@@ -35882,7 +36192,7 @@
       <c r="AE936" s="5"/>
       <c r="AF936" s="5"/>
     </row>
-    <row r="937" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:32" ht="15.75" customHeight="1">
       <c r="A937" s="5"/>
       <c r="B937" s="5"/>
       <c r="C937" s="5"/>
@@ -35916,7 +36226,7 @@
       <c r="AE937" s="5"/>
       <c r="AF937" s="5"/>
     </row>
-    <row r="938" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:32" ht="15.75" customHeight="1">
       <c r="A938" s="5"/>
       <c r="B938" s="5"/>
       <c r="C938" s="5"/>
@@ -35950,7 +36260,7 @@
       <c r="AE938" s="5"/>
       <c r="AF938" s="5"/>
     </row>
-    <row r="939" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:32" ht="15.75" customHeight="1">
       <c r="A939" s="5"/>
       <c r="B939" s="5"/>
       <c r="C939" s="5"/>
@@ -35984,7 +36294,7 @@
       <c r="AE939" s="5"/>
       <c r="AF939" s="5"/>
     </row>
-    <row r="940" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:32" ht="15.75" customHeight="1">
       <c r="A940" s="5"/>
       <c r="B940" s="5"/>
       <c r="C940" s="5"/>
@@ -36018,7 +36328,7 @@
       <c r="AE940" s="5"/>
       <c r="AF940" s="5"/>
     </row>
-    <row r="941" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:32" ht="15.75" customHeight="1">
       <c r="A941" s="5"/>
       <c r="B941" s="5"/>
       <c r="C941" s="5"/>
@@ -36052,7 +36362,7 @@
       <c r="AE941" s="5"/>
       <c r="AF941" s="5"/>
     </row>
-    <row r="942" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:32" ht="15.75" customHeight="1">
       <c r="A942" s="5"/>
       <c r="B942" s="5"/>
       <c r="C942" s="5"/>
@@ -36086,7 +36396,7 @@
       <c r="AE942" s="5"/>
       <c r="AF942" s="5"/>
     </row>
-    <row r="943" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:32" ht="15.75" customHeight="1">
       <c r="A943" s="5"/>
       <c r="B943" s="5"/>
       <c r="C943" s="5"/>
@@ -36120,7 +36430,7 @@
       <c r="AE943" s="5"/>
       <c r="AF943" s="5"/>
     </row>
-    <row r="944" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:32" ht="15.75" customHeight="1">
       <c r="A944" s="5"/>
       <c r="B944" s="5"/>
       <c r="C944" s="5"/>
@@ -36154,7 +36464,7 @@
       <c r="AE944" s="5"/>
       <c r="AF944" s="5"/>
     </row>
-    <row r="945" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:32" ht="15.75" customHeight="1">
       <c r="A945" s="5"/>
       <c r="B945" s="5"/>
       <c r="C945" s="5"/>
@@ -36188,7 +36498,7 @@
       <c r="AE945" s="5"/>
       <c r="AF945" s="5"/>
     </row>
-    <row r="946" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:32" ht="15.75" customHeight="1">
       <c r="A946" s="5"/>
       <c r="B946" s="5"/>
       <c r="C946" s="5"/>
@@ -36222,7 +36532,7 @@
       <c r="AE946" s="5"/>
       <c r="AF946" s="5"/>
     </row>
-    <row r="947" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="947" spans="1:32" ht="15.75" customHeight="1">
       <c r="A947" s="5"/>
       <c r="B947" s="5"/>
       <c r="C947" s="5"/>
@@ -36256,7 +36566,7 @@
       <c r="AE947" s="5"/>
       <c r="AF947" s="5"/>
     </row>
-    <row r="948" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:32" ht="15.75" customHeight="1">
       <c r="A948" s="5"/>
       <c r="B948" s="5"/>
       <c r="C948" s="5"/>
@@ -36290,7 +36600,7 @@
       <c r="AE948" s="5"/>
       <c r="AF948" s="5"/>
     </row>
-    <row r="949" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="949" spans="1:32" ht="15.75" customHeight="1">
       <c r="A949" s="5"/>
       <c r="B949" s="5"/>
       <c r="C949" s="5"/>
@@ -36324,7 +36634,7 @@
       <c r="AE949" s="5"/>
       <c r="AF949" s="5"/>
     </row>
-    <row r="950" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:32" ht="15.75" customHeight="1">
       <c r="A950" s="5"/>
       <c r="B950" s="5"/>
       <c r="C950" s="5"/>
@@ -36358,7 +36668,7 @@
       <c r="AE950" s="5"/>
       <c r="AF950" s="5"/>
     </row>
-    <row r="951" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="951" spans="1:32" ht="15.75" customHeight="1">
       <c r="A951" s="5"/>
       <c r="B951" s="5"/>
       <c r="C951" s="5"/>
@@ -36392,7 +36702,7 @@
       <c r="AE951" s="5"/>
       <c r="AF951" s="5"/>
     </row>
-    <row r="952" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="952" spans="1:32" ht="15.75" customHeight="1">
       <c r="A952" s="5"/>
       <c r="B952" s="5"/>
       <c r="C952" s="5"/>
@@ -36426,7 +36736,7 @@
       <c r="AE952" s="5"/>
       <c r="AF952" s="5"/>
     </row>
-    <row r="953" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="953" spans="1:32" ht="15.75" customHeight="1">
       <c r="A953" s="5"/>
       <c r="B953" s="5"/>
       <c r="C953" s="5"/>
@@ -36460,7 +36770,7 @@
       <c r="AE953" s="5"/>
       <c r="AF953" s="5"/>
     </row>
-    <row r="954" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="954" spans="1:32" ht="15.75" customHeight="1">
       <c r="A954" s="5"/>
       <c r="B954" s="5"/>
       <c r="C954" s="5"/>
@@ -36494,7 +36804,7 @@
       <c r="AE954" s="5"/>
       <c r="AF954" s="5"/>
     </row>
-    <row r="955" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="955" spans="1:32" ht="15.75" customHeight="1">
       <c r="A955" s="5"/>
       <c r="B955" s="5"/>
       <c r="C955" s="5"/>
@@ -36528,7 +36838,7 @@
       <c r="AE955" s="5"/>
       <c r="AF955" s="5"/>
     </row>
-    <row r="956" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="956" spans="1:32" ht="15.75" customHeight="1">
       <c r="A956" s="5"/>
       <c r="B956" s="5"/>
       <c r="C956" s="5"/>
@@ -36562,7 +36872,7 @@
       <c r="AE956" s="5"/>
       <c r="AF956" s="5"/>
     </row>
-    <row r="957" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="957" spans="1:32" ht="15.75" customHeight="1">
       <c r="A957" s="5"/>
       <c r="B957" s="5"/>
       <c r="C957" s="5"/>
@@ -36596,7 +36906,7 @@
       <c r="AE957" s="5"/>
       <c r="AF957" s="5"/>
     </row>
-    <row r="958" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="958" spans="1:32" ht="15.75" customHeight="1">
       <c r="A958" s="5"/>
       <c r="B958" s="5"/>
       <c r="C958" s="5"/>
@@ -36630,7 +36940,7 @@
       <c r="AE958" s="5"/>
       <c r="AF958" s="5"/>
     </row>
-    <row r="959" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="959" spans="1:32" ht="15.75" customHeight="1">
       <c r="A959" s="5"/>
       <c r="B959" s="5"/>
       <c r="C959" s="5"/>
@@ -36664,7 +36974,7 @@
       <c r="AE959" s="5"/>
       <c r="AF959" s="5"/>
     </row>
-    <row r="960" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="960" spans="1:32" ht="15.75" customHeight="1">
       <c r="A960" s="5"/>
       <c r="B960" s="5"/>
       <c r="C960" s="5"/>
@@ -36698,7 +37008,7 @@
       <c r="AE960" s="5"/>
       <c r="AF960" s="5"/>
     </row>
-    <row r="961" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="961" spans="1:32" ht="15.75" customHeight="1">
       <c r="A961" s="5"/>
       <c r="B961" s="5"/>
       <c r="C961" s="5"/>
@@ -36732,7 +37042,7 @@
       <c r="AE961" s="5"/>
       <c r="AF961" s="5"/>
     </row>
-    <row r="962" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="962" spans="1:32" ht="15.75" customHeight="1">
       <c r="A962" s="5"/>
       <c r="B962" s="5"/>
       <c r="C962" s="5"/>
@@ -36766,7 +37076,7 @@
       <c r="AE962" s="5"/>
       <c r="AF962" s="5"/>
     </row>
-    <row r="963" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="963" spans="1:32" ht="15.75" customHeight="1">
       <c r="A963" s="5"/>
       <c r="B963" s="5"/>
       <c r="C963" s="5"/>
@@ -36800,7 +37110,7 @@
       <c r="AE963" s="5"/>
       <c r="AF963" s="5"/>
     </row>
-    <row r="964" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="964" spans="1:32" ht="15.75" customHeight="1">
       <c r="A964" s="5"/>
       <c r="B964" s="5"/>
       <c r="C964" s="5"/>
@@ -36834,7 +37144,7 @@
       <c r="AE964" s="5"/>
       <c r="AF964" s="5"/>
     </row>
-    <row r="965" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="965" spans="1:32" ht="15.75" customHeight="1">
       <c r="A965" s="5"/>
       <c r="B965" s="5"/>
       <c r="C965" s="5"/>
@@ -36868,7 +37178,7 @@
       <c r="AE965" s="5"/>
       <c r="AF965" s="5"/>
     </row>
-    <row r="966" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="966" spans="1:32" ht="15.75" customHeight="1">
       <c r="A966" s="5"/>
       <c r="B966" s="5"/>
       <c r="C966" s="5"/>
@@ -36902,7 +37212,7 @@
       <c r="AE966" s="5"/>
       <c r="AF966" s="5"/>
     </row>
-    <row r="967" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="967" spans="1:32" ht="15.75" customHeight="1">
       <c r="A967" s="5"/>
       <c r="B967" s="5"/>
       <c r="C967" s="5"/>
@@ -36936,7 +37246,7 @@
       <c r="AE967" s="5"/>
       <c r="AF967" s="5"/>
     </row>
-    <row r="968" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="968" spans="1:32" ht="15.75" customHeight="1">
       <c r="A968" s="5"/>
       <c r="B968" s="5"/>
       <c r="C968" s="5"/>
@@ -36970,7 +37280,7 @@
       <c r="AE968" s="5"/>
       <c r="AF968" s="5"/>
     </row>
-    <row r="969" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="969" spans="1:32" ht="15.75" customHeight="1">
       <c r="A969" s="5"/>
       <c r="B969" s="5"/>
       <c r="C969" s="5"/>
@@ -37004,7 +37314,7 @@
       <c r="AE969" s="5"/>
       <c r="AF969" s="5"/>
     </row>
-    <row r="970" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="970" spans="1:32" ht="15.75" customHeight="1">
       <c r="A970" s="5"/>
       <c r="B970" s="5"/>
       <c r="C970" s="5"/>
@@ -37038,7 +37348,7 @@
       <c r="AE970" s="5"/>
       <c r="AF970" s="5"/>
     </row>
-    <row r="971" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="971" spans="1:32" ht="15.75" customHeight="1">
       <c r="A971" s="5"/>
       <c r="B971" s="5"/>
       <c r="C971" s="5"/>
@@ -37072,7 +37382,7 @@
       <c r="AE971" s="5"/>
       <c r="AF971" s="5"/>
     </row>
-    <row r="972" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="972" spans="1:32" ht="15.75" customHeight="1">
       <c r="A972" s="5"/>
       <c r="B972" s="5"/>
       <c r="C972" s="5"/>
@@ -37106,7 +37416,7 @@
       <c r="AE972" s="5"/>
       <c r="AF972" s="5"/>
     </row>
-    <row r="973" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="973" spans="1:32" ht="15.75" customHeight="1">
       <c r="A973" s="5"/>
       <c r="B973" s="5"/>
       <c r="C973" s="5"/>
@@ -37140,7 +37450,7 @@
       <c r="AE973" s="5"/>
       <c r="AF973" s="5"/>
     </row>
-    <row r="974" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="974" spans="1:32" ht="15.75" customHeight="1">
       <c r="A974" s="5"/>
       <c r="B974" s="5"/>
       <c r="C974" s="5"/>
@@ -37174,7 +37484,7 @@
       <c r="AE974" s="5"/>
       <c r="AF974" s="5"/>
     </row>
-    <row r="975" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="975" spans="1:32" ht="15.75" customHeight="1">
       <c r="A975" s="5"/>
       <c r="B975" s="5"/>
       <c r="C975" s="5"/>
@@ -37208,7 +37518,7 @@
       <c r="AE975" s="5"/>
       <c r="AF975" s="5"/>
     </row>
-    <row r="976" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="976" spans="1:32" ht="15.75" customHeight="1">
       <c r="A976" s="5"/>
       <c r="B976" s="5"/>
       <c r="C976" s="5"/>
@@ -37242,7 +37552,7 @@
       <c r="AE976" s="5"/>
       <c r="AF976" s="5"/>
     </row>
-    <row r="977" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="977" spans="1:32" ht="15.75" customHeight="1">
       <c r="A977" s="5"/>
       <c r="B977" s="5"/>
       <c r="C977" s="5"/>
@@ -37276,7 +37586,7 @@
       <c r="AE977" s="5"/>
       <c r="AF977" s="5"/>
     </row>
-    <row r="978" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="978" spans="1:32" ht="15.75" customHeight="1">
       <c r="A978" s="5"/>
       <c r="B978" s="5"/>
       <c r="C978" s="5"/>
@@ -37310,7 +37620,7 @@
       <c r="AE978" s="5"/>
       <c r="AF978" s="5"/>
     </row>
-    <row r="979" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="979" spans="1:32" ht="15.75" customHeight="1">
       <c r="A979" s="5"/>
       <c r="B979" s="5"/>
       <c r="C979" s="5"/>
@@ -37344,7 +37654,7 @@
       <c r="AE979" s="5"/>
       <c r="AF979" s="5"/>
     </row>
-    <row r="980" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="980" spans="1:32" ht="15.75" customHeight="1">
       <c r="A980" s="5"/>
       <c r="B980" s="5"/>
       <c r="C980" s="5"/>
@@ -37378,7 +37688,7 @@
       <c r="AE980" s="5"/>
       <c r="AF980" s="5"/>
     </row>
-    <row r="981" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="981" spans="1:32" ht="15.75" customHeight="1">
       <c r="A981" s="5"/>
       <c r="B981" s="5"/>
       <c r="C981" s="5"/>
@@ -37412,7 +37722,7 @@
       <c r="AE981" s="5"/>
       <c r="AF981" s="5"/>
     </row>
-    <row r="982" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="982" spans="1:32" ht="15.75" customHeight="1">
       <c r="A982" s="5"/>
       <c r="B982" s="5"/>
       <c r="C982" s="5"/>
@@ -37446,7 +37756,7 @@
       <c r="AE982" s="5"/>
       <c r="AF982" s="5"/>
     </row>
-    <row r="983" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="983" spans="1:32" ht="15.75" customHeight="1">
       <c r="A983" s="5"/>
       <c r="B983" s="5"/>
       <c r="C983" s="5"/>
@@ -37480,7 +37790,7 @@
       <c r="AE983" s="5"/>
       <c r="AF983" s="5"/>
     </row>
-    <row r="984" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="984" spans="1:32" ht="15.75" customHeight="1">
       <c r="A984" s="5"/>
       <c r="B984" s="5"/>
       <c r="C984" s="5"/>
@@ -37514,7 +37824,7 @@
       <c r="AE984" s="5"/>
       <c r="AF984" s="5"/>
     </row>
-    <row r="985" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="985" spans="1:32" ht="15.75" customHeight="1">
       <c r="A985" s="5"/>
       <c r="B985" s="5"/>
       <c r="C985" s="5"/>
@@ -37548,7 +37858,7 @@
       <c r="AE985" s="5"/>
       <c r="AF985" s="5"/>
     </row>
-    <row r="986" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="986" spans="1:32" ht="15.75" customHeight="1">
       <c r="A986" s="5"/>
       <c r="B986" s="5"/>
       <c r="C986" s="5"/>
@@ -37582,7 +37892,7 @@
       <c r="AE986" s="5"/>
       <c r="AF986" s="5"/>
     </row>
-    <row r="987" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="987" spans="1:32" ht="15.75" customHeight="1">
       <c r="A987" s="5"/>
       <c r="B987" s="5"/>
       <c r="C987" s="5"/>
@@ -37616,7 +37926,7 @@
       <c r="AE987" s="5"/>
       <c r="AF987" s="5"/>
     </row>
-    <row r="988" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="988" spans="1:32" ht="15.75" customHeight="1">
       <c r="A988" s="5"/>
       <c r="B988" s="5"/>
       <c r="C988" s="5"/>
@@ -37650,7 +37960,7 @@
       <c r="AE988" s="5"/>
       <c r="AF988" s="5"/>
     </row>
-    <row r="989" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="989" spans="1:32" ht="15.75" customHeight="1">
       <c r="A989" s="5"/>
       <c r="B989" s="5"/>
       <c r="C989" s="5"/>
@@ -37684,7 +37994,7 @@
       <c r="AE989" s="5"/>
       <c r="AF989" s="5"/>
     </row>
-    <row r="990" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="990" spans="1:32" ht="15.75" customHeight="1">
       <c r="A990" s="5"/>
       <c r="B990" s="5"/>
       <c r="C990" s="5"/>
@@ -37718,7 +38028,7 @@
       <c r="AE990" s="5"/>
       <c r="AF990" s="5"/>
     </row>
-    <row r="991" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="991" spans="1:32" ht="15.75" customHeight="1">
       <c r="A991" s="5"/>
       <c r="B991" s="5"/>
       <c r="C991" s="5"/>
@@ -37752,7 +38062,7 @@
       <c r="AE991" s="5"/>
       <c r="AF991" s="5"/>
     </row>
-    <row r="992" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="992" spans="1:32" ht="15.75" customHeight="1">
       <c r="A992" s="5"/>
       <c r="B992" s="5"/>
       <c r="C992" s="5"/>
@@ -37786,7 +38096,7 @@
       <c r="AE992" s="5"/>
       <c r="AF992" s="5"/>
     </row>
-    <row r="993" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="993" spans="1:32" ht="15.75" customHeight="1">
       <c r="A993" s="5"/>
       <c r="B993" s="5"/>
       <c r="C993" s="5"/>
@@ -37820,7 +38130,7 @@
       <c r="AE993" s="5"/>
       <c r="AF993" s="5"/>
     </row>
-    <row r="994" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="994" spans="1:32" ht="15.75" customHeight="1">
       <c r="A994" s="5"/>
       <c r="B994" s="5"/>
       <c r="C994" s="5"/>
@@ -37854,7 +38164,7 @@
       <c r="AE994" s="5"/>
       <c r="AF994" s="5"/>
     </row>
-    <row r="995" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="995" spans="1:32" ht="15.75" customHeight="1">
       <c r="A995" s="5"/>
       <c r="B995" s="5"/>
       <c r="C995" s="5"/>
@@ -37888,7 +38198,7 @@
       <c r="AE995" s="5"/>
       <c r="AF995" s="5"/>
     </row>
-    <row r="996" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="996" spans="1:32" ht="15.75" customHeight="1">
       <c r="A996" s="5"/>
       <c r="B996" s="5"/>
       <c r="C996" s="5"/>
@@ -37922,7 +38232,7 @@
       <c r="AE996" s="5"/>
       <c r="AF996" s="5"/>
     </row>
-    <row r="997" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="997" spans="1:32" ht="15.75" customHeight="1">
       <c r="A997" s="5"/>
       <c r="B997" s="5"/>
       <c r="C997" s="5"/>
@@ -37956,7 +38266,7 @@
       <c r="AE997" s="5"/>
       <c r="AF997" s="5"/>
     </row>
-    <row r="998" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="998" spans="1:32" ht="15.75" customHeight="1">
       <c r="A998" s="5"/>
       <c r="B998" s="5"/>
       <c r="C998" s="5"/>
@@ -37990,7 +38300,7 @@
       <c r="AE998" s="5"/>
       <c r="AF998" s="5"/>
     </row>
-    <row r="999" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="999" spans="1:32" ht="15.75" customHeight="1">
       <c r="A999" s="5"/>
       <c r="B999" s="5"/>
       <c r="C999" s="5"/>
@@ -38024,7 +38334,7 @@
       <c r="AE999" s="5"/>
       <c r="AF999" s="5"/>
     </row>
-    <row r="1000" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1000" spans="1:32" ht="15.75" customHeight="1">
       <c r="A1000" s="5"/>
       <c r="B1000" s="5"/>
       <c r="C1000" s="5"/>
